--- a/resources/btc-linear_regression.xlsx
+++ b/resources/btc-linear_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D817D-0930-4016-9E6B-3BBDF143264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6807D18-5C4C-4C4E-9DCE-0588A59149DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="4260" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14685" yWindow="0" windowWidth="14790" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -369,13 +369,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C178" workbookViewId="0">
+      <selection activeCell="K202" sqref="K202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -396,13 +398,19 @@
         <v>13333.6</v>
       </c>
       <c r="F1">
-        <f>ROW()</f>
-        <v>1</v>
+        <f>ROW()-1</f>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
         <v>0</v>
       </c>
     </row>
@@ -424,13 +432,19 @@
         <v>13319</v>
       </c>
       <c r="F2">
-        <f>ROW()</f>
-        <v>2</v>
+        <f t="shared" ref="F2:F65" si="1">ROW()-1</f>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
@@ -452,13 +466,19 @@
         <v>13344.833333333334</v>
       </c>
       <c r="F3">
-        <f>ROW()</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
@@ -480,13 +500,19 @@
         <v>13346.299999999997</v>
       </c>
       <c r="F4">
-        <f>ROW()</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
@@ -508,13 +534,19 @@
         <v>13346.299999999997</v>
       </c>
       <c r="F5">
-        <f>ROW()</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -536,13 +568,19 @@
         <v>13297.699999999999</v>
       </c>
       <c r="F6">
-        <f>ROW()</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -564,13 +602,19 @@
         <v>13271.1</v>
       </c>
       <c r="F7">
-        <f>ROW()</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -592,13 +636,19 @@
         <v>13244.933333333334</v>
       </c>
       <c r="F8">
-        <f>ROW()</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
@@ -620,13 +670,19 @@
         <v>13285.166666666666</v>
       </c>
       <c r="F9">
-        <f>ROW()</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
@@ -648,13 +704,19 @@
         <v>13286.9</v>
       </c>
       <c r="F10">
-        <f>ROW()</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -676,13 +738,19 @@
         <v>13283.133333333333</v>
       </c>
       <c r="F11">
-        <f>ROW()</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
     </row>
@@ -704,13 +772,19 @@
         <v>13330.266666666668</v>
       </c>
       <c r="F12">
-        <f>ROW()</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
@@ -732,13 +806,19 @@
         <v>13353.966666666667</v>
       </c>
       <c r="F13">
-        <f>ROW()</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
@@ -760,24 +840,24 @@
         <v>13329.366666666667</v>
       </c>
       <c r="F14">
-        <f>ROW()</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="G14">
-        <f>SLOPE(E1:E14,F1:F14)</f>
+        <f>INTERCEPT(E1:E14,F$1:F$14)</f>
+        <v>13320.960952380952</v>
+      </c>
+      <c r="H14">
+        <f>SLOPE(E1:E14,F$1:F$14)</f>
         <v>-1.3284249084248185</v>
       </c>
-      <c r="H14">
-        <f>INTERCEPT(E1:E14,F1:F14)</f>
-        <v>13322.289377289377</v>
-      </c>
       <c r="I14">
-        <f>H14 + G14 * F14</f>
-        <v>13303.69142857143</v>
+        <f>RSQ(E1:E14,F$1:F$14)</f>
+        <v>2.6944237801660564E-2</v>
       </c>
       <c r="J14">
-        <f>RSQ(E1:E14,F1:F14)</f>
-        <v>2.6944237801660564E-2</v>
+        <f>G14 + (F$2 * H14)</f>
+        <v>13319.632527472528</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,24 +878,24 @@
         <v>13317.833333333334</v>
       </c>
       <c r="F15">
-        <f>ROW()</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G78" si="1">SLOPE(E2:E15,F2:F15)</f>
+        <f>INTERCEPT(E2:E15,F$1:F$14)</f>
+        <v>13314.253333333334</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H78" si="2">SLOPE(E2:E15,F$1:F$14)</f>
         <v>-0.46974358974345837</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H78" si="2">INTERCEPT(E2:E15,F2:F15)</f>
-        <v>13315.192820512821</v>
-      </c>
       <c r="I15">
-        <f t="shared" ref="I15:I78" si="3">H15 + G15 * F15</f>
-        <v>13308.146666666669</v>
+        <f>RSQ(E2:E15,F$1:F$14)</f>
+        <v>3.471615048658313E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J78" si="4">RSQ(E2:E15,F2:F15)</f>
-        <v>3.471615048658313E-3</v>
+        <f>G15 + (F$2 * H15)</f>
+        <v>13313.783589743591</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -836,24 +916,24 @@
         <v>13322.333333333334</v>
       </c>
       <c r="F16">
-        <f>ROW()</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.10549450549466541</v>
+        <f>INTERCEPT(E3:E16,F$1:F$14)</f>
+        <v>13310.752380952383</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>13310.435897435898</v>
+        <v>0.10549450549466541</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>13312.123809523813</v>
+        <f>RSQ(E3:E16,F$1:F$14)</f>
+        <v>1.743419502357621E-4</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>1.743419502357621E-4</v>
+        <f>G16 + (F$2 * H16)</f>
+        <v>13310.857875457878</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -874,24 +954,24 @@
         <v>13322.1</v>
       </c>
       <c r="F17">
-        <f>ROW()</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>1.5110622710624699</v>
+        <f>INTERCEPT(E4:E17,F$1:F$14)</f>
+        <v>13299.992380952381</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>13293.94813186813</v>
+        <v>1.5110622710624699</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>13319.636190476192</v>
+        <f>RSQ(E4:E17,F$1:F$14)</f>
+        <v>3.8523799993415167E-2</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>3.8523799993415167E-2</v>
+        <f>G17 + (F$2 * H17)</f>
+        <v>13301.503443223442</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -912,24 +992,24 @@
         <v>13333.433333333334</v>
       </c>
       <c r="F18">
-        <f>ROW()</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>3.3887179487181007</v>
+        <f>INTERCEPT(E5:E18,F$1:F$14)</f>
+        <v>13286.868571428569</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>13269.924981684979</v>
+        <v>3.3887179487181007</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>13330.921904761904</v>
+        <f>RSQ(E5:E18,F$1:F$14)</f>
+        <v>0.20572661789185223</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
-        <v>0.20572661789185223</v>
+        <f>G18 + (F$2 * H18)</f>
+        <v>13290.257289377287</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -950,24 +1030,24 @@
         <v>13304.566666666666</v>
       </c>
       <c r="F19">
-        <f>ROW()</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>4.4981684981685328</v>
+        <f>INTERCEPT(E6:E19,F$1:F$14)</f>
+        <v>13276.67619047619</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>13249.687179487179</v>
+        <v>4.4981684981685328</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
-        <v>13335.152380952381</v>
+        <f>RSQ(E6:E19,F$1:F$14)</f>
+        <v>0.41121409623544769</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>0.41121409623544769</v>
+        <f>G19 + (F$2 * H19)</f>
+        <v>13281.174358974358</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,24 +1068,24 @@
         <v>13292.1</v>
       </c>
       <c r="F20">
-        <f>ROW()</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>3.832673992673989</v>
+        <f>INTERCEPT(E7:E20,F$1:F$14)</f>
+        <v>13280.601904761903</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>13253.773186813185</v>
+        <v>3.832673992673989</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>13330.426666666664</v>
+        <f>RSQ(E7:E20,F$1:F$14)</f>
+        <v>0.29534284029851604</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>0.29534284029851604</v>
+        <f>G20 + (F$2 * H20)</f>
+        <v>13284.434578754577</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1026,24 +1106,24 @@
         <v>13292.1</v>
       </c>
       <c r="F21">
-        <f>ROW()</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>2.3148717948717943</v>
+        <f>INTERCEPT(E8:E21,F$1:F$14)</f>
+        <v>13291.96761904762</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>13273.448644688646</v>
+        <v>2.3148717948717943</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
-        <v>13322.060952380953</v>
+        <f>RSQ(E8:E21,F$1:F$14)</f>
+        <v>0.11859752419180812</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>0.11859752419180812</v>
+        <f>G21 + (F$2 * H21)</f>
+        <v>13294.282490842492</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1064,24 +1144,24 @@
         <v>13258.966666666665</v>
       </c>
       <c r="F22">
-        <f>ROW()</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-1.1045421245421505</v>
+        <f>INTERCEPT(E9:E22,F$1:F$14)</f>
+        <v>13315.19619047619</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>13325.137069597069</v>
+        <v>-1.1045421245421505</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
-        <v>13300.837142857141</v>
+        <f>RSQ(E9:E22,F$1:F$14)</f>
+        <v>3.1830678130974899E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>3.1830678130974899E-2</v>
+        <f>G22 + (F$2 * H22)</f>
+        <v>13314.091648351648</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1102,24 +1182,24 @@
         <v>13203.233333333332</v>
       </c>
       <c r="F23">
-        <f>ROW()</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>-4.8516483516484517</v>
+        <f>INTERCEPT(E10:E23,F$1:F$14)</f>
+        <v>13333.700000000003</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>13382.216483516486</v>
+        <v>-4.8516483516484517</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>13270.628571428571</v>
+        <f>RSQ(E10:E23,F$1:F$14)</f>
+        <v>0.28640091535123646</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>0.28640091535123646</v>
+        <f>G23 + (F$2 * H23)</f>
+        <v>13328.848351648354</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1140,24 +1220,24 @@
         <v>13219.333333333334</v>
       </c>
       <c r="F24">
-        <f>ROW()</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>-7.7214652014653007</v>
+        <f>INTERCEPT(E11:E24,F$1:F$14)</f>
+        <v>13347.527619047622</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>13432.46373626374</v>
+        <v>-7.7214652014653007</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>13247.148571428574</v>
+        <f>RSQ(E11:E24,F$1:F$14)</f>
+        <v>0.54256285953890149</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>0.54256285953890149</v>
+        <f>G24 + (F$2 * H24)</f>
+        <v>13339.806153846157</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1178,24 +1258,24 @@
         <v>13191.566666666666</v>
       </c>
       <c r="F25">
-        <f>ROW()</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>-11.211794871795012</v>
+        <f>INTERCEPT(E12:E25,F$1:F$14)</f>
+        <v>13363.674285714287</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>13498.215824175828</v>
+        <v>-11.211794871795012</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>13217.920952380953</v>
+        <f>RSQ(E12:E25,F$1:F$14)</f>
+        <v>0.80815622042169044</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>0.80815622042169044</v>
+        <f>G25 + (F$2 * H25)</f>
+        <v>13352.462490842492</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1216,24 +1296,24 @@
         <v>13170.733333333332</v>
       </c>
       <c r="F26">
-        <f>ROW()</f>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>-13.34102564102578</v>
+        <f>INTERCEPT(E13:E26,F$1:F$14)</f>
+        <v>13366.11904761905</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>13539.552380952386</v>
+        <v>-13.34102564102578</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>13192.685714285715</v>
+        <f>RSQ(E13:E26,F$1:F$14)</f>
+        <v>0.87216285228609813</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
-        <v>0.87216285228609813</v>
+        <f>G26 + (F$2 * H26)</f>
+        <v>13352.778021978023</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1254,24 +1334,24 @@
         <v>13164.333333333334</v>
       </c>
       <c r="F27">
-        <f>ROW()</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>-14.170549450549547</v>
+        <f>INTERCEPT(E14:E27,F$1:F$14)</f>
+        <v>13357.965714285718</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>13556.353406593411</v>
+        <v>-14.170549450549547</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
-        <v>13173.748571428574</v>
+        <f>RSQ(E14:E27,F$1:F$14)</f>
+        <v>0.88638572849045993</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>0.88638572849045993</v>
+        <f>G27 + (F$2 * H27)</f>
+        <v>13343.795164835168</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1292,24 +1372,24 @@
         <v>13183.966666666667</v>
       </c>
       <c r="F28">
-        <f>ROW()</f>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>-14.416556776556847</v>
+        <f>INTERCEPT(E15:E28,F$1:F$14)</f>
+        <v>13349.179047619049</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>13565.427399267401</v>
+        <v>-14.416556776556847</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
-        <v>13161.763809523809</v>
+        <f>RSQ(E15:E28,F$1:F$14)</f>
+        <v>0.89719187026367575</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>0.89719187026367575</v>
+        <f>G28 + (F$2 * H28)</f>
+        <v>13334.762490842491</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,24 +1410,24 @@
         <v>13228.533333333333</v>
       </c>
       <c r="F29">
-        <f>ROW()</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>-13.130329670329729</v>
+        <f>INTERCEPT(E16:E29,F$1:F$14)</f>
+        <v>13334.44</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>13544.525274725276</v>
+        <v>-13.130329670329729</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
-        <v>13163.745714285715</v>
+        <f>RSQ(E16:E29,F$1:F$14)</f>
+        <v>0.80097607251466441</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
-        <v>0.80097607251466441</v>
+        <f>G29 + (F$2 * H29)</f>
+        <v>13321.309670329671</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1368,24 +1448,24 @@
         <v>13270.400000000001</v>
       </c>
       <c r="F30">
-        <f>ROW()</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>-10.107032967032954</v>
+        <f>INTERCEPT(E17:E30,F$1:F$14)</f>
+        <v>13311.079047619047</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>13482.898608058607</v>
+        <v>-10.107032967032954</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>13179.68761904762</v>
+        <f>RSQ(E17:E30,F$1:F$14)</f>
+        <v>0.52979519994711621</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>0.52979519994711621</v>
+        <f>G30 + (F$2 * H30)</f>
+        <v>13300.972014652014</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1406,24 +1486,24 @@
         <v>13301.300000000001</v>
       </c>
       <c r="F31">
-        <f>ROW()</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>-5.9802930402929757</v>
+        <f>INTERCEPT(E18:E31,F$1:F$14)</f>
+        <v>13282.769523809524</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>13390.414798534797</v>
+        <v>-5.9802930402929757</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>13205.025714285715</v>
+        <f>RSQ(E18:E31,F$1:F$14)</f>
+        <v>0.19808087501042557</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
-        <v>0.19808087501042557</v>
+        <f>G31 + (F$2 * H31)</f>
+        <v>13276.789230769231</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1444,24 +1524,24 @@
         <v>13338.533333333335</v>
       </c>
       <c r="F32">
-        <f>ROW()</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>-0.32468864468850528</v>
+        <f>INTERCEPT(E19:E32,F$1:F$14)</f>
+        <v>13246.372380952378</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>13252.541465201459</v>
+        <v>-0.32468864468850528</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
-        <v>13242.151428571427</v>
+        <f>RSQ(E19:E32,F$1:F$14)</f>
+        <v>5.7086295983872944E-4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
-        <v>5.7086295983872944E-4</v>
+        <f>G32 + (F$2 * H32)</f>
+        <v>13246.047692307689</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1482,24 +1562,24 @@
         <v>13412.433333333334</v>
       </c>
       <c r="F33">
-        <f>ROW()</f>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>6.4682783882785264</v>
+        <f>INTERCEPT(E20:E33,F$1:F$14)</f>
+        <v>13209.922857142852</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>13080.557289377281</v>
+        <v>6.4682783882785264</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>13294.010476190471</v>
+        <f>RSQ(E20:E33,F$1:F$14)</f>
+        <v>0.14459574775999748</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0.14459574775999748</v>
+        <f>G33 + (F$2 * H33)</f>
+        <v>13216.39113553113</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1520,24 +1600,24 @@
         <v>13434.233333333332</v>
       </c>
       <c r="F34">
-        <f>ROW()</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>12.998974358974458</v>
+        <f>INTERCEPT(E21:E34,F$1:F$14)</f>
+        <v>13177.62571428571</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>12904.647252747247</v>
+        <v>12.998974358974458</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>13346.612380952378</v>
+        <f>RSQ(E21:E34,F$1:F$14)</f>
+        <v>0.40045519399483726</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
-        <v>0.40045519399483726</v>
+        <f>G34 + (F$2 * H34)</f>
+        <v>13190.624688644684</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1558,24 +1638,24 @@
         <v>13427.733333333332</v>
       </c>
       <c r="F35">
-        <f>ROW()</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>18.719194139194208</v>
+        <f>INTERCEPT(E22:E35,F$1:F$14)</f>
+        <v>13150.13238095238</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>12738.310109890108</v>
+        <v>18.719194139194208</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>13393.481904761906</v>
+        <f>RSQ(E22:E35,F$1:F$14)</f>
+        <v>0.65768640026728686</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
-        <v>0.65768640026728686</v>
+        <f>G35 + (F$2 * H35)</f>
+        <v>13168.851575091574</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1596,24 +1676,24 @@
         <v>13458.866666666669</v>
       </c>
       <c r="F36">
-        <f>ROW()</f>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>23.640439560439653</v>
+        <f>INTERCEPT(E23:E36,F$1:F$14)</f>
+        <v>13132.422857142856</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>12588.692747252744</v>
+        <v>23.640439560439653</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>13439.748571428572</v>
+        <f>RSQ(E23:E36,F$1:F$14)</f>
+        <v>0.83001463718866719</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0.83001463718866719</v>
+        <f>G36 + (F$2 * H36)</f>
+        <v>13156.063296703296</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,24 +1714,24 @@
         <v>13476.366666666667</v>
       </c>
       <c r="F37">
-        <f>ROW()</f>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>26.345641025641065</v>
+        <f>INTERCEPT(E24:E37,F$1:F$14)</f>
+        <v>13134.348571428573</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>12502.053186813187</v>
+        <v>26.345641025641065</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>13476.841904761906</v>
+        <f>RSQ(E24:E37,F$1:F$14)</f>
+        <v>0.89114178697741719</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.89114178697741719</v>
+        <f>G37 + (F$2 * H37)</f>
+        <v>13160.694212454213</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1672,24 +1752,24 @@
         <v>13477.4</v>
       </c>
       <c r="F38">
-        <f>ROW()</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>28.410549450549489</v>
+        <f>INTERCEPT(E25:E38,F$1:F$14)</f>
+        <v>13139.359999999999</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>12429.096263736263</v>
+        <v>28.410549450549489</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>13508.697142857143</v>
+        <f>RSQ(E25:E38,F$1:F$14)</f>
+        <v>0.94403868833425275</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0.94403868833425275</v>
+        <f>G38 + (F$2 * H38)</f>
+        <v>13167.770549450548</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1710,24 +1790,24 @@
         <v>13482.1</v>
       </c>
       <c r="F39">
-        <f>ROW()</f>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>28.560000000000009</v>
+        <f>INTERCEPT(E26:E39,F$1:F$14)</f>
+        <v>13159.140952380954</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>12416.580952380953</v>
+        <v>28.560000000000009</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>13530.420952380953</v>
+        <f>RSQ(E26:E39,F$1:F$14)</f>
+        <v>0.94712561820635488</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0.94712561820635488</v>
+        <f>G39 + (F$2 * H39)</f>
+        <v>13187.700952380954</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1748,24 +1828,24 @@
         <v>13489.433333333334</v>
       </c>
       <c r="F40">
-        <f>ROW()</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>26.955091575091551</v>
+        <f>INTERCEPT(E27:E40,F$1:F$14)</f>
+        <v>13192.337142857144</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>12464.549670329672</v>
+        <v>26.955091575091551</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>13542.753333333334</v>
+        <f>RSQ(E27:E40,F$1:F$14)</f>
+        <v>0.9218878050681889</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
-        <v>0.9218878050681889</v>
+        <f>G40 + (F$2 * H40)</f>
+        <v>13219.292234432236</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,24 +1866,24 @@
         <v>13511.066666666666</v>
       </c>
       <c r="F41">
-        <f>ROW()</f>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>24.3564102564102</v>
+        <f>INTERCEPT(E28:E41,F$1:F$14)</f>
+        <v>13233.995238095236</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>12552.015750915751</v>
+        <v>24.3564102564102</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>13550.62857142857</v>
+        <f>RSQ(E28:E41,F$1:F$14)</f>
+        <v>0.89963245511111489</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
-        <v>0.89963245511111489</v>
+        <f>G41 + (F$2 * H41)</f>
+        <v>13258.351648351647</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1824,24 +1904,24 @@
         <v>13529.166666666666</v>
       </c>
       <c r="F42">
-        <f>ROW()</f>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>21.398021978021902</v>
+        <f>INTERCEPT(E29:E42,F$1:F$14)</f>
+        <v>13277.881904761905</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>12657.339267399271</v>
+        <v>21.398021978021902</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>13556.056190476191</v>
+        <f>RSQ(E29:E42,F$1:F$14)</f>
+        <v>0.8916265203820547</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
-        <v>0.8916265203820547</v>
+        <f>G42 + (F$2 * H42)</f>
+        <v>13299.279926739928</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1862,24 +1942,24 @@
         <v>13506.133333333333</v>
       </c>
       <c r="F43">
-        <f>ROW()</f>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>17.733406593406489</v>
+        <f>INTERCEPT(E30:E43,F$1:F$14)</f>
+        <v>13321.530476190474</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>12789.528278388279</v>
+        <v>17.733406593406489</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
-        <v>13552.064761904758</v>
+        <f>RSQ(E30:E43,F$1:F$14)</f>
+        <v>0.85408393681064776</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
-        <v>0.85408393681064776</v>
+        <f>G43 + (F$2 * H43)</f>
+        <v>13339.26388278388</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,24 +1980,24 @@
         <v>13460.033333333335</v>
       </c>
       <c r="F44">
-        <f>ROW()</f>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>12.911648351648319</v>
+        <f>INTERCEPT(E31:E44,F$1:F$14)</f>
+        <v>13366.417142857143</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>12966.156043956044</v>
+        <v>12.911648351648319</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
-        <v>13534.268571428569</v>
+        <f>RSQ(E31:E44,F$1:F$14)</f>
+        <v>0.70171426531802483</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0.70171426531802483</v>
+        <f>G44 + (F$2 * H44)</f>
+        <v>13379.328791208791</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1938,24 +2018,24 @@
         <v>13433.033333333333</v>
       </c>
       <c r="F45">
-        <f>ROW()</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>7.5035897435897194</v>
+        <f>INTERCEPT(E32:E45,F$1:F$14)</f>
+        <v>13410.979047619046</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>13170.864175824176</v>
+        <v>7.5035897435897194</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>13508.525714285714</v>
+        <f>RSQ(E32:E45,F$1:F$14)</f>
+        <v>0.41460329289052644</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
-        <v>0.41460329289052644</v>
+        <f>G45 + (F$2 * H45)</f>
+        <v>13418.482637362637</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1976,24 +2056,24 @@
         <v>13438.5</v>
       </c>
       <c r="F46">
-        <f>ROW()</f>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>2.9001465201465342</v>
+        <f>INTERCEPT(E33:E46,F$1:F$14)</f>
+        <v>13448.041904761903</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>13352.337069597066</v>
+        <v>2.9001465201465342</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
-        <v>13485.743809523807</v>
+        <f>RSQ(E33:E46,F$1:F$14)</f>
+        <v>0.12005173303716181</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
-        <v>0.12005173303716181</v>
+        <f>G46 + (F$2 * H46)</f>
+        <v>13450.942051282051</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,24 +2094,24 @@
         <v>13451.800000000001</v>
       </c>
       <c r="F47">
-        <f>ROW()</f>
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>0.67355311355319059</v>
+        <f>INTERCEPT(E34:E47,F$1:F$14)</f>
+        <v>13465.326666666664</v>
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>13442.425860805857</v>
+        <v>0.67355311355319059</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
-        <v>13474.082857142857</v>
+        <f>RSQ(E34:E47,F$1:F$14)</f>
+        <v>7.8847306478801067E-3</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
-        <v>7.8847306478801067E-3</v>
+        <f>G47 + (F$2 * H47)</f>
+        <v>13466.000219780217</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2052,24 +2132,24 @@
         <v>13474.866666666667</v>
       </c>
       <c r="F48">
-        <f>ROW()</f>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>-0.34835164835162036</v>
+        <f>INTERCEPT(E35:E48,F$1:F$14)</f>
+        <v>13474.871428571429</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>13487.063736263735</v>
+        <v>-0.34835164835162036</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
-        <v>13470.342857142858</v>
+        <f>RSQ(E35:E48,F$1:F$14)</f>
+        <v>2.3514324439747963E-3</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
-        <v>2.3514324439747963E-3</v>
+        <f>G48 + (F$2 * H48)</f>
+        <v>13474.523076923077</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2090,24 +2170,24 @@
         <v>13472.733333333332</v>
       </c>
       <c r="F49">
-        <f>ROW()</f>
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>-1.8241025641026412</v>
+        <f>INTERCEPT(E36:E49,F$1:F$14)</f>
+        <v>13487.678095238096</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>13553.345787545792</v>
+        <v>-1.8241025641026412</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
-        <v>13463.964761904763</v>
+        <f>RSQ(E36:E49,F$1:F$14)</f>
+        <v>7.8998060542566501E-2</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
-        <v>7.8998060542566501E-2</v>
+        <f>G49 + (F$2 * H49)</f>
+        <v>13485.853992673994</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2128,24 +2208,24 @@
         <v>13480</v>
       </c>
       <c r="F50">
-        <f>ROW()</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>-2.2636630036630248</v>
+        <f>INTERCEPT(E37:E50,F$1:F$14)</f>
+        <v>13492.044761904763</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>13575.800293040294</v>
+        <v>-2.2636630036630248</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
-        <v>13462.617142857143</v>
+        <f>RSQ(E37:E50,F$1:F$14)</f>
+        <v>0.12561600082964125</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
-        <v>0.12561600082964125</v>
+        <f>G50 + (F$2 * H50)</f>
+        <v>13489.7810989011</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2166,24 +2246,24 @@
         <v>13488.1</v>
       </c>
       <c r="F51">
-        <f>ROW()</f>
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>-1.9877655677655739</v>
+        <f>INTERCEPT(E38:E51,F$1:F$14)</f>
+        <v>13491.089523809524</v>
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>13566.624615384615</v>
+        <v>-1.9877655677655739</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
-        <v>13465.24857142857</v>
+        <f>RSQ(E38:E51,F$1:F$14)</f>
+        <v>9.5775827149981563E-2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
-        <v>9.5775827149981563E-2</v>
+        <f>G51 + (F$2 * H51)</f>
+        <v>13489.101758241757</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2204,24 +2284,24 @@
         <v>13536.9</v>
       </c>
       <c r="F52">
-        <f>ROW()</f>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>-0.33509157509160414</v>
+        <f>INTERCEPT(E39:E52,F$1:F$14)</f>
+        <v>13484.597142857143</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>13497.665714285715</v>
+        <v>-0.33509157509160414</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
-        <v>13480.240952380951</v>
+        <f>RSQ(E39:E52,F$1:F$14)</f>
+        <v>2.0304022158475401E-3</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
-        <v>2.0304022158475401E-3</v>
+        <f>G52 + (F$2 * H52)</f>
+        <v>13484.262051282052</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,24 +2322,24 @@
         <v>13573.066666666666</v>
       </c>
       <c r="F53">
-        <f>ROW()</f>
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>2.244322344322299</v>
+        <f>INTERCEPT(E40:E53,F$1:F$14)</f>
+        <v>13474.32857142857</v>
       </c>
       <c r="H53">
         <f t="shared" si="2"/>
-        <v>13384.555677655679</v>
+        <v>2.244322344322299</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
-        <v>13503.50476190476</v>
+        <f>RSQ(E40:E53,F$1:F$14)</f>
+        <v>5.670833364284255E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
-        <v>5.670833364284255E-2</v>
+        <f>G53 + (F$2 * H53)</f>
+        <v>13476.572893772893</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2280,24 +2360,24 @@
         <v>13573.966666666667</v>
       </c>
       <c r="F54">
-        <f>ROW()</f>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>4.6913553113553172</v>
+        <f>INTERCEPT(E41:E54,F$1:F$14)</f>
+        <v>13464.46095238095</v>
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>13272.115384615383</v>
+        <v>4.6913553113553172</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
-        <v>13525.448571428569</v>
+        <f>RSQ(E41:E54,F$1:F$14)</f>
+        <v>0.18592694098693738</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
-        <v>0.18592694098693738</v>
+        <f>G54 + (F$2 * H54)</f>
+        <v>13469.152307692306</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2318,24 +2398,24 @@
         <v>13579.4</v>
       </c>
       <c r="F55">
-        <f>ROW()</f>
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>7.6352380952380665</v>
+        <f>INTERCEPT(E42:E55,F$1:F$14)</f>
+        <v>13450.206666666665</v>
       </c>
       <c r="H55">
         <f t="shared" si="2"/>
-        <v>13129.526666666667</v>
+        <v>7.6352380952380665</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
-        <v>13549.464761904761</v>
+        <f>RSQ(E42:E55,F$1:F$14)</f>
+        <v>0.3962770844603879</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
-        <v>0.3962770844603879</v>
+        <f>G55 + (F$2 * H55)</f>
+        <v>13457.841904761903</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2356,24 +2436,24 @@
         <v>13595.200000000003</v>
       </c>
       <c r="F56">
-        <f>ROW()</f>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>11.326886446886476</v>
+        <f>INTERCEPT(E43:E56,F$1:F$14)</f>
+        <v>13430.927619047621</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>12943.871501831503</v>
+        <v>11.326886446886476</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
-        <v>13578.177142857146</v>
+        <f>RSQ(E43:E56,F$1:F$14)</f>
+        <v>0.70518435352519226</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
-        <v>0.70518435352519226</v>
+        <f>G56 + (F$2 * H56)</f>
+        <v>13442.254505494508</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,24 +2474,24 @@
         <v>13584.4</v>
       </c>
       <c r="F57">
-        <f>ROW()</f>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>13.660366300366306</v>
+        <f>INTERCEPT(E44:E57,F$1:F$14)</f>
+        <v>13421.350476190475</v>
       </c>
       <c r="H57">
         <f t="shared" si="2"/>
-        <v>12820.294358974359</v>
+        <v>13.660366300366306</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
-        <v>13598.935238095239</v>
+        <f>RSQ(E44:E57,F$1:F$14)</f>
+        <v>0.89702833289314787</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
-        <v>0.89702833289314787</v>
+        <f>G57 + (F$2 * H57)</f>
+        <v>13435.010842490841</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2432,24 +2512,24 @@
         <v>13584.533333333333</v>
       </c>
       <c r="F58">
-        <f>ROW()</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>14.13384615384618</v>
+        <f>INTERCEPT(E45:E58,F$1:F$14)</f>
+        <v>13427.165714285713</v>
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>12791.142637362635</v>
+        <v>14.13384615384618</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
-        <v>13610.905714285713</v>
+        <f>RSQ(E45:E58,F$1:F$14)</f>
+        <v>0.92292820225570982</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
-        <v>0.92292820225570982</v>
+        <f>G58 + (F$2 * H58)</f>
+        <v>13441.299560439558</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2470,24 +2550,24 @@
         <v>13633.333333333334</v>
       </c>
       <c r="F59">
-        <f>ROW()</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>14.564249084249113</v>
+        <f>INTERCEPT(E46:E59,F$1:F$14)</f>
+        <v>13438.675238095237</v>
       </c>
       <c r="H59">
         <f t="shared" si="2"/>
-        <v>12768.719780219777</v>
+        <v>14.564249084249113</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
-        <v>13628.010476190475</v>
+        <f>RSQ(E46:E59,F$1:F$14)</f>
+        <v>0.92723511222760246</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
-        <v>0.92723511222760246</v>
+        <f>G59 + (F$2 * H59)</f>
+        <v>13453.239487179486</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,24 +2588,24 @@
         <v>13694.433333333334</v>
       </c>
       <c r="F60">
-        <f>ROW()</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>16.040146520146571</v>
+        <f>INTERCEPT(E47:E60,F$1:F$14)</f>
+        <v>13447.362857142856</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>12693.475970695968</v>
+        <v>16.040146520146571</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
-        <v>13655.884761904763</v>
+        <f>RSQ(E47:E60,F$1:F$14)</f>
+        <v>0.91002346576421433</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
-        <v>0.91002346576421433</v>
+        <f>G60 + (F$2 * H60)</f>
+        <v>13463.403003663003</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,24 +2626,24 @@
         <v>13724.933333333334</v>
       </c>
       <c r="F61">
-        <f>ROW()</f>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>17.700952380952486</v>
+        <f>INTERCEPT(E48:E61,F$1:F$14)</f>
+        <v>13456.077142857144</v>
       </c>
       <c r="H61">
         <f t="shared" si="2"/>
-        <v>12606.431428571424</v>
+        <v>17.700952380952486</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
-        <v>13686.189523809526</v>
+        <f>RSQ(E48:E61,F$1:F$14)</f>
+        <v>0.90157840983352089</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
-        <v>0.90157840983352089</v>
+        <f>G61 + (F$2 * H61)</f>
+        <v>13473.778095238096</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2584,24 +2664,24 @@
         <v>13691.5</v>
       </c>
       <c r="F62">
-        <f>ROW()</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>17.966373626373727</v>
+        <f>INTERCEPT(E49:E62,F$1:F$14)</f>
+        <v>13469.825714285715</v>
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
-        <v>12589.473406593401</v>
+        <v>17.966373626373727</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
-        <v>13703.388571428572</v>
+        <f>RSQ(E49:E62,F$1:F$14)</f>
+        <v>0.90737238418193844</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
-        <v>0.90737238418193844</v>
+        <f>G62 + (F$2 * H62)</f>
+        <v>13487.792087912088</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,24 +2702,24 @@
         <v>13691.233333333335</v>
       </c>
       <c r="F63">
-        <f>ROW()</f>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>17.201611721611823</v>
+        <f>INTERCEPT(E50:E63,F$1:F$14)</f>
+        <v>13490.40380952381</v>
       </c>
       <c r="H63">
         <f t="shared" si="2"/>
-        <v>12630.323223443218</v>
+        <v>17.201611721611823</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
-        <v>13714.024761904762</v>
+        <f>RSQ(E50:E63,F$1:F$14)</f>
+        <v>0.89159877178487168</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
-        <v>0.89159877178487168</v>
+        <f>G63 + (F$2 * H63)</f>
+        <v>13507.605421245422</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2660,24 +2740,24 @@
         <v>13732</v>
       </c>
       <c r="F64">
-        <f>ROW()</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>16.880732600732678</v>
+        <f>INTERCEPT(E51:E64,F$1:F$14)</f>
+        <v>13510.489523809523</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>12649.572161172156</v>
+        <v>16.880732600732678</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
-        <v>13729.939047619047</v>
+        <f>RSQ(E51:E64,F$1:F$14)</f>
+        <v>0.88961051246106704</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
-        <v>0.88961051246106704</v>
+        <f>G64 + (F$2 * H64)</f>
+        <v>13527.370256410255</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,24 +2778,24 @@
         <v>13711.800000000001</v>
       </c>
       <c r="F65">
-        <f>ROW()</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>15.142051282051378</v>
+        <f>INTERCEPT(E52:E65,F$1:F$14)</f>
+        <v>13537.769523809524</v>
       </c>
       <c r="H65">
         <f t="shared" si="2"/>
-        <v>12750.382857142853</v>
+        <v>15.142051282051378</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
-        <v>13734.616190476192</v>
+        <f>RSQ(E52:E65,F$1:F$14)</f>
+        <v>0.86601241136387352</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
-        <v>0.86601241136387352</v>
+        <f>G65 + (F$2 * H65)</f>
+        <v>13552.911575091575</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2732,28 +2812,28 @@
         <v>13654.2</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="5">(B66+C66+D66)/3</f>
+        <f t="shared" ref="E66:E129" si="3">(B66+C66+D66)/3</f>
         <v>13667.5</v>
       </c>
       <c r="F66">
-        <f>ROW()</f>
-        <v>66</v>
+        <f t="shared" ref="F66:F129" si="4">ROW()-1</f>
+        <v>65</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>12.763150183150239</v>
+        <f>INTERCEPT(E53:E66,F$1:F$14)</f>
+        <v>13562.560952380953</v>
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
-        <v>12886.113992673989</v>
+        <v>12.763150183150239</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
-        <v>13728.481904761904</v>
+        <f>RSQ(E53:E66,F$1:F$14)</f>
+        <v>0.73919489506274005</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
-        <v>0.73919489506274005</v>
+        <f>G66 + (F$2 * H66)</f>
+        <v>13575.324102564104</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,28 +2850,28 @@
         <v>13668.4</v>
       </c>
       <c r="E67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13663.666666666666</v>
       </c>
       <c r="F67">
-        <f>ROW()</f>
-        <v>67</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
-        <v>10.892967032967011</v>
+        <f>INTERCEPT(E54:E67,F$1:F$14)</f>
+        <v>13581.188571428569</v>
       </c>
       <c r="H67">
         <f t="shared" si="2"/>
-        <v>12992.968351648351</v>
+        <v>10.892967032967011</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
-        <v>13722.79714285714</v>
+        <f>RSQ(E54:E67,F$1:F$14)</f>
+        <v>0.60487708171737309</v>
       </c>
       <c r="J67">
-        <f t="shared" si="4"/>
-        <v>0.60487708171737309</v>
+        <f>G67 + (F$2 * H67)</f>
+        <v>13592.081538461536</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2808,28 +2888,28 @@
         <v>13661.1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13663.5</v>
       </c>
       <c r="F68">
-        <f>ROW()</f>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
-        <v>8.6494505494505134</v>
+        <f>INTERCEPT(E55:E68,F$1:F$14)</f>
+        <v>13602.166666666666</v>
       </c>
       <c r="H68">
         <f t="shared" si="2"/>
-        <v>13126.446886446889</v>
+        <v>8.6494505494505134</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
-        <v>13714.609523809524</v>
+        <f>RSQ(E55:E68,F$1:F$14)</f>
+        <v>0.44672198428964782</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
-        <v>0.44672198428964782</v>
+        <f>G68 + (F$2 * H68)</f>
+        <v>13610.816117216116</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2846,28 +2926,28 @@
         <v>13638.4</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13638.566666666668</v>
       </c>
       <c r="F69">
-        <f>ROW()</f>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
-        <v>5.4791208791208268</v>
+        <f>INTERCEPT(E56:E69,F$1:F$14)</f>
+        <v>13627</v>
       </c>
       <c r="H69">
         <f t="shared" si="2"/>
-        <v>13320.169230769234</v>
+        <v>5.4791208791208268</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
-        <v>13698.228571428572</v>
+        <f>RSQ(E56:E69,F$1:F$14)</f>
+        <v>0.2134063288653828</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
-        <v>0.2134063288653828</v>
+        <f>G69 + (F$2 * H69)</f>
+        <v>13632.479120879121</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2884,28 +2964,28 @@
         <v>13660</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13652.866666666667</v>
       </c>
       <c r="F70">
-        <f>ROW()</f>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
-        <v>2.9781684981684999</v>
+        <f>INTERCEPT(E57:E70,F$1:F$14)</f>
+        <v>13647.375238095241</v>
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
-        <v>13477.619633699636</v>
+        <v>2.9781684981684999</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
-        <v>13686.091428571432</v>
+        <f>RSQ(E57:E70,F$1:F$14)</f>
+        <v>7.3868616687706723E-2</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
-        <v>7.3868616687706723E-2</v>
+        <f>G70 + (F$2 * H70)</f>
+        <v>13650.353406593409</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2922,28 +3002,28 @@
         <v>13665.7</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13663.800000000001</v>
       </c>
       <c r="F71">
-        <f>ROW()</f>
-        <v>71</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0.18007326007325822</v>
+        <f>INTERCEPT(E58:E71,F$1:F$14)</f>
+        <v>13671.234285714287</v>
       </c>
       <c r="H71">
         <f t="shared" si="2"/>
-        <v>13660.790036630038</v>
+        <v>0.18007326007325822</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
-        <v>13673.57523809524</v>
+        <f>RSQ(E58:E71,F$1:F$14)</f>
+        <v>3.6709360555072759E-4</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
-        <v>3.6709360555072759E-4</v>
+        <f>G71 + (F$2 * H71)</f>
+        <v>13671.41435897436</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2960,28 +3040,28 @@
         <v>13697.4</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13690.033333333333</v>
       </c>
       <c r="F72">
-        <f>ROW()</f>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
-        <v>-2.2131135531136144</v>
+        <f>INTERCEPT(E59:E72,F$1:F$14)</f>
+        <v>13694.325714285716</v>
       </c>
       <c r="H72">
         <f t="shared" si="2"/>
-        <v>13824.899413919418</v>
+        <v>-2.2131135531136144</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
-        <v>13665.555238095238</v>
+        <f>RSQ(E59:E72,F$1:F$14)</f>
+        <v>9.371409127336483E-2</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
-        <v>9.371409127336483E-2</v>
+        <f>G72 + (F$2 * H72)</f>
+        <v>13692.112600732602</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2998,28 +3078,28 @@
         <v>13697.4</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13697.4</v>
       </c>
       <c r="F73">
-        <f>ROW()</f>
-        <v>73</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
-        <v>-3.2507692307693117</v>
+        <f>INTERCEPT(E60:E73,F$1:F$14)</f>
+        <v>13705.646666666667</v>
       </c>
       <c r="H73">
         <f t="shared" si="2"/>
-        <v>13900.692820512826</v>
+        <v>-3.2507692307693117</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
-        <v>13663.386666666665</v>
+        <f>RSQ(E60:E73,F$1:F$14)</f>
+        <v>0.24709495509427667</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
-        <v>0.24709495509427667</v>
+        <f>G73 + (F$2 * H73)</f>
+        <v>13702.395897435897</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3036,28 +3116,28 @@
         <v>13637.1</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13655.833333333334</v>
       </c>
       <c r="F74">
-        <f>ROW()</f>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
-        <v>-3.7433699633700197</v>
+        <f>INTERCEPT(E61:E74,F$1:F$14)</f>
+        <v>13706.091428571428</v>
       </c>
       <c r="H74">
         <f t="shared" si="2"/>
-        <v>13934.436996337001</v>
+        <v>-3.7433699633700197</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
-        <v>13657.427619047619</v>
+        <f>RSQ(E61:E74,F$1:F$14)</f>
+        <v>0.30808709254256467</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
-        <v>0.30808709254256467</v>
+        <f>G74 + (F$2 * H74)</f>
+        <v>13702.348058608059</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3074,28 +3154,28 @@
         <v>13636.2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13636.5</v>
       </c>
       <c r="F75">
-        <f>ROW()</f>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
-        <v>-3.6131868131868612</v>
+        <f>INTERCEPT(E62:E75,F$1:F$14)</f>
+        <v>13698.928571428572</v>
       </c>
       <c r="H75">
         <f t="shared" si="2"/>
-        <v>13922.946153846158</v>
+        <v>-3.6131868131868612</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
-        <v>13651.957142857143</v>
+        <f>RSQ(E62:E75,F$1:F$14)</f>
+        <v>0.29779925021303255</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
-        <v>0.29779925021303255</v>
+        <f>G75 + (F$2 * H75)</f>
+        <v>13695.315384615385</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,28 +3192,28 @@
         <v>13654.1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13648.133333333333</v>
       </c>
       <c r="F76">
-        <f>ROW()</f>
-        <v>76</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
-        <v>-3.8641025641026348</v>
+        <f>INTERCEPT(E63:E76,F$1:F$14)</f>
+        <v>13697.461904761905</v>
       </c>
       <c r="H76">
         <f t="shared" si="2"/>
-        <v>13940.900366300371</v>
+        <v>-3.8641025641026348</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
-        <v>13647.228571428572</v>
+        <f>RSQ(E63:E76,F$1:F$14)</f>
+        <v>0.32893271865206514</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
-        <v>0.32893271865206514</v>
+        <f>G76 + (F$2 * H76)</f>
+        <v>13693.597802197803</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,28 +3230,28 @@
         <v>13636.2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13640.133333333333</v>
       </c>
       <c r="F77">
-        <f>ROW()</f>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
-        <v>-4.1617582417582666</v>
+        <f>INTERCEPT(E64:E77,F$1:F$14)</f>
+        <v>13695.746666666668</v>
       </c>
       <c r="H77">
         <f t="shared" si="2"/>
-        <v>13962.099194139197</v>
+        <v>-4.1617582417582666</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
-        <v>13641.64380952381</v>
+        <f>RSQ(E64:E77,F$1:F$14)</f>
+        <v>0.36413031135018736</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
-        <v>0.36413031135018736</v>
+        <f>G77 + (F$2 * H77)</f>
+        <v>13691.584908424909</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3188,28 +3268,28 @@
         <v>13663.6</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13652.6</v>
       </c>
       <c r="F78">
-        <f>ROW()</f>
-        <v>78</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
-        <v>-2.5346520146520382</v>
+        <f>INTERCEPT(E65:E78,F$1:F$14)</f>
+        <v>13679.499047619049</v>
       </c>
       <c r="H78">
         <f t="shared" si="2"/>
-        <v>13844.251428571431</v>
+        <v>-2.5346520146520382</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
-        <v>13646.548571428573</v>
+        <f>RSQ(E65:E78,F$1:F$14)</f>
+        <v>0.22069607029143296</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
-        <v>0.22069607029143296</v>
+        <f>G78 + (F$2 * H78)</f>
+        <v>13676.964395604396</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,28 +3306,28 @@
         <v>13639.5</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13647.533333333333</v>
       </c>
       <c r="F79">
-        <f>ROW()</f>
-        <v>79</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:G142" si="6">SLOPE(E66:E79,F66:F79)</f>
+        <f>INTERCEPT(E66:E79,F$1:F$14)</f>
+        <v>13667.33333333333</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79:H142" si="5">SLOPE(E66:E79,F$1:F$14)</f>
         <v>-1.3692307692307812</v>
       </c>
-      <c r="H79">
-        <f t="shared" ref="H79:H142" si="7">INTERCEPT(E66:E79,F66:F79)</f>
-        <v>13757.702564102563</v>
-      </c>
       <c r="I79">
-        <f t="shared" ref="I79:I142" si="8">H79 + G79 * F79</f>
-        <v>13649.533333333331</v>
+        <f>RSQ(E66:E79,F$1:F$14)</f>
+        <v>0.10183383052073054</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79:J142" si="9">RSQ(E66:E79,F66:F79)</f>
-        <v>0.10183383052073054</v>
+        <f>G79 + (F$2 * H79)</f>
+        <v>13665.964102564099</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3264,28 +3344,28 @@
         <v>13671.3</v>
       </c>
       <c r="E80">
+        <f t="shared" si="3"/>
+        <v>13660.699999999999</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <f>INTERCEPT(E67:E80,F$1:F$14)</f>
+        <v>13664.483809523808</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="5"/>
-        <v>13660.699999999999</v>
-      </c>
-      <c r="F80">
-        <f>ROW()</f>
-        <v>80</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="6"/>
         <v>-1.0055677655678126</v>
       </c>
-      <c r="H80">
-        <f t="shared" si="7"/>
-        <v>13731.856849816852</v>
-      </c>
       <c r="I80">
-        <f t="shared" si="8"/>
-        <v>13651.411428571426</v>
+        <f>RSQ(E67:E80,F$1:F$14)</f>
+        <v>5.5998458082075993E-2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="9"/>
-        <v>5.5998458082075993E-2</v>
+        <f>G80 + (F$2 * H80)</f>
+        <v>13663.478241758241</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3302,28 +3382,28 @@
         <v>13640.5</v>
       </c>
       <c r="E81">
+        <f t="shared" si="3"/>
+        <v>13650.766666666668</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G81">
+        <f>INTERCEPT(E68:E81,F$1:F$14)</f>
+        <v>13663.670476190477</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="5"/>
-        <v>13650.766666666668</v>
-      </c>
-      <c r="F81">
-        <f>ROW()</f>
-        <v>81</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="6"/>
         <v>-1.0221978021978231</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="7"/>
-        <v>13733.179926739927</v>
-      </c>
       <c r="I81">
-        <f t="shared" si="8"/>
-        <v>13650.381904761904</v>
+        <f>RSQ(E68:E81,F$1:F$14)</f>
+        <v>5.7767929176276912E-2</v>
       </c>
       <c r="J81">
-        <f t="shared" si="9"/>
-        <v>5.7767929176276912E-2</v>
+        <f>G81 + (F$2 * H81)</f>
+        <v>13662.648278388278</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3340,28 +3420,28 @@
         <v>13655</v>
       </c>
       <c r="E82">
+        <f t="shared" si="3"/>
+        <v>13649.433333333334</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="G82">
+        <f>INTERCEPT(E69:E82,F$1:F$14)</f>
+        <v>13662.688571428571</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="5"/>
-        <v>13649.433333333334</v>
-      </c>
-      <c r="F82">
-        <f>ROW()</f>
-        <v>82</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="6"/>
         <v>-1.0257142857142874</v>
       </c>
-      <c r="H82">
-        <f t="shared" si="7"/>
-        <v>13733.462857142857</v>
-      </c>
       <c r="I82">
-        <f t="shared" si="8"/>
-        <v>13649.354285714286</v>
+        <f>RSQ(E69:E82,F$1:F$14)</f>
+        <v>5.8143354776551824E-2</v>
       </c>
       <c r="J82">
-        <f t="shared" si="9"/>
-        <v>5.8143354776551824E-2</v>
+        <f>G82 + (F$2 * H82)</f>
+        <v>13661.662857142857</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3378,28 +3458,28 @@
         <v>13689</v>
       </c>
       <c r="E83">
+        <f t="shared" si="3"/>
+        <v>13677.666666666666</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <f>INTERCEPT(E70:E83,F$1:F$14)</f>
+        <v>13665.201904761903</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="5"/>
-        <v>13677.666666666666</v>
-      </c>
-      <c r="F83">
-        <f>ROW()</f>
-        <v>83</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="6"/>
         <v>-0.98271062271062648</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="7"/>
-        <v>13733.991648351648</v>
-      </c>
       <c r="I83">
-        <f t="shared" si="8"/>
-        <v>13652.426666666666</v>
+        <f>RSQ(E70:E83,F$1:F$14)</f>
+        <v>5.2670967003750173E-2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="9"/>
-        <v>5.2670967003750173E-2</v>
+        <f>G83 + (F$2 * H83)</f>
+        <v>13664.219194139192</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3416,28 +3496,28 @@
         <v>13689</v>
       </c>
       <c r="E84">
+        <f t="shared" si="3"/>
+        <v>13689</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <f>INTERCEPT(E71:E84,F$1:F$14)</f>
+        <v>13663.45142857143</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="5"/>
-        <v>13689</v>
-      </c>
-      <c r="F84">
-        <f>ROW()</f>
-        <v>84</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="6"/>
         <v>-0.31633699633700246</v>
       </c>
-      <c r="H84">
-        <f t="shared" si="7"/>
-        <v>13685.911355311357</v>
-      </c>
       <c r="I84">
-        <f t="shared" si="8"/>
-        <v>13659.339047619049</v>
+        <f>RSQ(E71:E84,F$1:F$14)</f>
+        <v>4.5956549553251456E-3</v>
       </c>
       <c r="J84">
-        <f t="shared" si="9"/>
-        <v>4.5956549553251456E-3</v>
+        <f>G84 + (F$2 * H84)</f>
+        <v>13663.135091575094</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3454,28 +3534,28 @@
         <v>13705.7</v>
       </c>
       <c r="E85">
+        <f t="shared" si="3"/>
+        <v>13700.533333333335</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <f>INTERCEPT(E72:E85,F$1:F$14)</f>
+        <v>13658.291428571431</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="5"/>
-        <v>13700.533333333335</v>
-      </c>
-      <c r="F85">
-        <f>ROW()</f>
-        <v>85</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="6"/>
         <v>0.8811721611722233</v>
       </c>
-      <c r="H85">
-        <f t="shared" si="7"/>
-        <v>13594.847032967029</v>
-      </c>
       <c r="I85">
-        <f t="shared" si="8"/>
-        <v>13669.746666666668</v>
+        <f>RSQ(E72:E85,F$1:F$14)</f>
+        <v>2.7672766852319165E-2</v>
       </c>
       <c r="J85">
-        <f t="shared" si="9"/>
-        <v>2.7672766852319165E-2</v>
+        <f>G85 + (F$2 * H85)</f>
+        <v>13659.172600732603</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3492,28 +3572,28 @@
         <v>13724.4</v>
       </c>
       <c r="E86">
+        <f t="shared" si="3"/>
+        <v>13723.199999999999</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="G86">
+        <f>INTERCEPT(E73:E86,F$1:F$14)</f>
+        <v>13644.095238095239</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="5"/>
-        <v>13723.199999999999</v>
-      </c>
-      <c r="F86">
-        <f>ROW()</f>
-        <v>86</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="6"/>
         <v>3.4296703296703375</v>
       </c>
-      <c r="H86">
-        <f t="shared" si="7"/>
-        <v>13393.729304029303</v>
-      </c>
       <c r="I86">
-        <f t="shared" si="8"/>
-        <v>13688.680952380952</v>
+        <f>RSQ(E73:E86,F$1:F$14)</f>
+        <v>0.29308546225499893</v>
       </c>
       <c r="J86">
-        <f t="shared" si="9"/>
-        <v>0.29308546225499893</v>
+        <f>G86 + (F$2 * H86)</f>
+        <v>13647.524908424908</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3530,28 +3610,28 @@
         <v>13740.5</v>
       </c>
       <c r="E87">
+        <f t="shared" si="3"/>
+        <v>13735.133333333333</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="G87">
+        <f>INTERCEPT(E74:E87,F$1:F$14)</f>
+        <v>13627.378095238095</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="5"/>
-        <v>13735.133333333333</v>
-      </c>
-      <c r="F87">
-        <f>ROW()</f>
-        <v>87</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="6"/>
         <v>6.4161904761904642</v>
       </c>
-      <c r="H87">
-        <f t="shared" si="7"/>
-        <v>13152.58</v>
-      </c>
       <c r="I87">
-        <f t="shared" si="8"/>
-        <v>13710.788571428569</v>
+        <f>RSQ(E74:E87,F$1:F$14)</f>
+        <v>0.73209334451620012</v>
       </c>
       <c r="J87">
-        <f t="shared" si="9"/>
-        <v>0.73209334451620012</v>
+        <f>G87 + (F$2 * H87)</f>
+        <v>13633.794285714286</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3568,28 +3648,28 @@
         <v>13744</v>
       </c>
       <c r="E88">
+        <f t="shared" si="3"/>
+        <v>13742.833333333334</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="G88">
+        <f>INTERCEPT(E75:E88,F$1:F$14)</f>
+        <v>13622.73523809524</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="5"/>
-        <v>13742.833333333334</v>
-      </c>
-      <c r="F88">
-        <f>ROW()</f>
-        <v>88</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="6"/>
         <v>8.0865201465201668</v>
       </c>
-      <c r="H88">
-        <f t="shared" si="7"/>
-        <v>13016.246227106227</v>
-      </c>
       <c r="I88">
-        <f t="shared" si="8"/>
-        <v>13727.86</v>
+        <f>RSQ(E75:E88,F$1:F$14)</f>
+        <v>0.8493281429034778</v>
       </c>
       <c r="J88">
-        <f t="shared" si="9"/>
-        <v>0.8493281429034778</v>
+        <f>G88 + (F$2 * H88)</f>
+        <v>13630.82175824176</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3606,28 +3686,28 @@
         <v>13750.6</v>
       </c>
       <c r="E89">
+        <f t="shared" si="3"/>
+        <v>13748.4</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="G89">
+        <f>INTERCEPT(E76:E89,F$1:F$14)</f>
+        <v>13625.465714285716</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="5"/>
-        <v>13748.4</v>
-      </c>
-      <c r="F89">
-        <f>ROW()</f>
-        <v>89</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="6"/>
         <v>8.8961172161172204</v>
       </c>
-      <c r="H89">
-        <f t="shared" si="7"/>
-        <v>12949.360805860806</v>
-      </c>
       <c r="I89">
-        <f t="shared" si="8"/>
-        <v>13741.115238095239</v>
+        <f>RSQ(E76:E89,F$1:F$14)</f>
+        <v>0.87998493067801264</v>
       </c>
       <c r="J89">
-        <f t="shared" si="9"/>
-        <v>0.87998493067801264</v>
+        <f>G89 + (F$2 * H89)</f>
+        <v>13634.361831501834</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3644,28 +3724,28 @@
         <v>13734.5</v>
       </c>
       <c r="E90">
+        <f t="shared" si="3"/>
+        <v>13736.5</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="G90">
+        <f>INTERCEPT(E77:E90,F$1:F$14)</f>
+        <v>13629.429523809524</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="5"/>
-        <v>13736.5</v>
-      </c>
-      <c r="F90">
-        <f>ROW()</f>
-        <v>90</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="6"/>
         <v>9.2573626373626343</v>
       </c>
-      <c r="H90">
-        <f t="shared" si="7"/>
-        <v>12916.612600732602</v>
-      </c>
       <c r="I90">
-        <f t="shared" si="8"/>
-        <v>13749.775238095239</v>
+        <f>RSQ(E77:E90,F$1:F$14)</f>
+        <v>0.90691631052110888</v>
       </c>
       <c r="J90">
-        <f t="shared" si="9"/>
-        <v>0.90691631052110888</v>
+        <f>G90 + (F$2 * H90)</f>
+        <v>13638.686886446887</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3682,28 +3762,28 @@
         <v>13743.3</v>
       </c>
       <c r="E91">
+        <f t="shared" si="3"/>
+        <v>13740.633333333331</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G91">
+        <f>INTERCEPT(E78:E91,F$1:F$14)</f>
+        <v>13637.731428571431</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="5"/>
-        <v>13740.633333333331</v>
-      </c>
-      <c r="F91">
-        <f>ROW()</f>
-        <v>91</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="6"/>
         <v>9.0845421245420575</v>
       </c>
-      <c r="H91">
-        <f t="shared" si="7"/>
-        <v>12929.137142857149</v>
-      </c>
       <c r="I91">
-        <f t="shared" si="8"/>
-        <v>13755.830476190476</v>
+        <f>RSQ(E78:E91,F$1:F$14)</f>
+        <v>0.89692202716737202</v>
       </c>
       <c r="J91">
-        <f t="shared" si="9"/>
-        <v>0.89692202716737202</v>
+        <f>G91 + (F$2 * H91)</f>
+        <v>13646.815970695972</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3720,28 +3800,28 @@
         <v>13750.6</v>
       </c>
       <c r="E92">
+        <f t="shared" si="3"/>
+        <v>13748.166666666666</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="G92">
+        <f>INTERCEPT(E79:E92,F$1:F$14)</f>
+        <v>13644.481904761906</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="5"/>
-        <v>13748.166666666666</v>
-      </c>
-      <c r="F92">
-        <f>ROW()</f>
-        <v>92</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="6"/>
         <v>9.096190476190408</v>
       </c>
-      <c r="H92">
-        <f t="shared" si="7"/>
-        <v>12925.882857142864</v>
-      </c>
       <c r="I92">
-        <f t="shared" si="8"/>
-        <v>13762.732380952382</v>
+        <f>RSQ(E79:E92,F$1:F$14)</f>
+        <v>0.89767214344477375</v>
       </c>
       <c r="J92">
-        <f t="shared" si="9"/>
-        <v>0.89767214344477375</v>
+        <f>G92 + (F$2 * H92)</f>
+        <v>13653.578095238096</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3758,28 +3838,28 @@
         <v>13724.4</v>
       </c>
       <c r="E93">
+        <f t="shared" si="3"/>
+        <v>13733.133333333333</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <f>INTERCEPT(E80:E93,F$1:F$14)</f>
+        <v>13657.128571428571</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="5"/>
-        <v>13733.133333333333</v>
-      </c>
-      <c r="F93">
-        <f>ROW()</f>
-        <v>93</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="6"/>
         <v>8.0912087912087109</v>
       </c>
-      <c r="H93">
-        <f t="shared" si="7"/>
-        <v>13009.831868131874</v>
-      </c>
       <c r="I93">
-        <f t="shared" si="8"/>
-        <v>13762.314285714285</v>
+        <f>RSQ(E80:E93,F$1:F$14)</f>
+        <v>0.81954428155212367</v>
       </c>
       <c r="J93">
-        <f t="shared" si="9"/>
-        <v>0.81954428155212367</v>
+        <f>G93 + (F$2 * H93)</f>
+        <v>13665.219780219781</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3796,28 +3876,28 @@
         <v>13706.3</v>
       </c>
       <c r="E94">
+        <f t="shared" si="3"/>
+        <v>13710.466666666665</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="G94">
+        <f>INTERCEPT(E81:E94,F$1:F$14)</f>
+        <v>13671.049523809525</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="5"/>
-        <v>13710.466666666665</v>
-      </c>
-      <c r="F94">
-        <f>ROW()</f>
-        <v>94</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="6"/>
         <v>6.4964102564101092</v>
       </c>
-      <c r="H94">
-        <f t="shared" si="7"/>
-        <v>13144.840293040306</v>
-      </c>
       <c r="I94">
-        <f t="shared" si="8"/>
-        <v>13755.502857142856</v>
+        <f>RSQ(E81:E94,F$1:F$14)</f>
+        <v>0.6157050443786829</v>
       </c>
       <c r="J94">
-        <f t="shared" si="9"/>
-        <v>0.6157050443786829</v>
+        <f>G94 + (F$2 * H94)</f>
+        <v>13677.545934065934</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3834,28 +3914,28 @@
         <v>13741.9</v>
       </c>
       <c r="E95">
+        <f t="shared" si="3"/>
+        <v>13730.033333333333</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <f>INTERCEPT(E82:E95,F$1:F$14)</f>
+        <v>13686.994285714283</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="5"/>
-        <v>13730.033333333333</v>
-      </c>
-      <c r="F95">
-        <f>ROW()</f>
-        <v>95</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="6"/>
         <v>4.9144322344321321</v>
       </c>
-      <c r="H95">
-        <f t="shared" si="7"/>
-        <v>13284.010842490849</v>
-      </c>
       <c r="I95">
-        <f t="shared" si="8"/>
-        <v>13750.881904761902</v>
+        <f>RSQ(E82:E95,F$1:F$14)</f>
+        <v>0.47701553536263736</v>
       </c>
       <c r="J95">
-        <f t="shared" si="9"/>
-        <v>0.47701553536263736</v>
+        <f>G95 + (F$2 * H95)</f>
+        <v>13691.908717948716</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3872,28 +3952,28 @@
         <v>13757.7</v>
       </c>
       <c r="E96">
+        <f t="shared" si="3"/>
+        <v>13752.866666666669</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="G96">
+        <f>INTERCEPT(E83:E96,F$1:F$14)</f>
+        <v>13702.975238095238</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="5"/>
-        <v>13752.866666666669</v>
-      </c>
-      <c r="F96">
-        <f>ROW()</f>
-        <v>96</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="6"/>
         <v>3.5924542124542143</v>
       </c>
-      <c r="H96">
-        <f t="shared" si="7"/>
-        <v>13404.801538461537</v>
-      </c>
       <c r="I96">
-        <f t="shared" si="8"/>
-        <v>13749.677142857141</v>
+        <f>RSQ(E83:E96,F$1:F$14)</f>
+        <v>0.41501612509402946</v>
       </c>
       <c r="J96">
-        <f t="shared" si="9"/>
-        <v>0.41501612509402946</v>
+        <f>G96 + (F$2 * H96)</f>
+        <v>13706.567692307692</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3910,28 +3990,28 @@
         <v>13776.9</v>
       </c>
       <c r="E97">
+        <f t="shared" si="3"/>
+        <v>13770.5</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="G97">
+        <f>INTERCEPT(E84:E97,F$1:F$14)</f>
+        <v>13711.829523809523</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="5"/>
-        <v>13770.5</v>
-      </c>
-      <c r="F97">
-        <f>ROW()</f>
-        <v>97</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="6"/>
         <v>3.2504029304029247</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="7"/>
-        <v>13438.795677655677</v>
-      </c>
       <c r="I97">
-        <f t="shared" si="8"/>
-        <v>13754.08476190476</v>
+        <f>RSQ(E84:E97,F$1:F$14)</f>
+        <v>0.39777294611172492</v>
       </c>
       <c r="J97">
-        <f t="shared" si="9"/>
-        <v>0.39777294611172492</v>
+        <f>G97 + (F$2 * H97)</f>
+        <v>13715.079926739927</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3948,28 +4028,28 @@
         <v>13857.2</v>
       </c>
       <c r="E98">
+        <f t="shared" si="3"/>
+        <v>13830.433333333334</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="G98">
+        <f>INTERCEPT(E85:E98,F$1:F$14)</f>
+        <v>13713.24857142857</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="5"/>
-        <v>13830.433333333334</v>
-      </c>
-      <c r="F98">
-        <f>ROW()</f>
-        <v>98</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="6"/>
         <v>4.5863003663003976</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="7"/>
-        <v>13323.413040293037</v>
-      </c>
       <c r="I98">
-        <f t="shared" si="8"/>
-        <v>13772.870476190476</v>
+        <f>RSQ(E85:E98,F$1:F$14)</f>
+        <v>0.39277870371754781</v>
       </c>
       <c r="J98">
-        <f t="shared" si="9"/>
-        <v>0.39277870371754781</v>
+        <f>G98 + (F$2 * H98)</f>
+        <v>13717.83487179487</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3986,28 +4066,28 @@
         <v>13839.2</v>
       </c>
       <c r="E99">
+        <f t="shared" si="3"/>
+        <v>13844.166666666666</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="G99">
+        <f>INTERCEPT(E86:E99,F$1:F$14)</f>
+        <v>13713.843809523809</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="5"/>
-        <v>13844.166666666666</v>
-      </c>
-      <c r="F99">
-        <f>ROW()</f>
-        <v>99</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="6"/>
         <v>6.0731135531136164</v>
       </c>
-      <c r="H99">
-        <f t="shared" si="7"/>
-        <v>13191.556043956038</v>
-      </c>
       <c r="I99">
-        <f t="shared" si="8"/>
-        <v>13792.794285714286</v>
+        <f>RSQ(E86:E99,F$1:F$14)</f>
+        <v>0.43876562855984452</v>
       </c>
       <c r="J99">
-        <f t="shared" si="9"/>
-        <v>0.43876562855984452</v>
+        <f>G99 + (F$2 * H99)</f>
+        <v>13719.916923076922</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4024,28 +4104,28 @@
         <v>13845</v>
       </c>
       <c r="E100">
+        <f t="shared" si="3"/>
+        <v>13840.333333333334</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="G100">
+        <f>INTERCEPT(E87:E100,F$1:F$14)</f>
+        <v>13712.50476190476</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="5"/>
-        <v>13840.333333333334</v>
-      </c>
-      <c r="F100">
-        <f>ROW()</f>
-        <v>100</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="6"/>
         <v>7.5663003663004247</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="7"/>
-        <v>13054.236630036623</v>
-      </c>
       <c r="I100">
-        <f t="shared" si="8"/>
-        <v>13810.866666666665</v>
+        <f>RSQ(E87:E100,F$1:F$14)</f>
+        <v>0.52499699144858392</v>
       </c>
       <c r="J100">
-        <f t="shared" si="9"/>
-        <v>0.52499699144858392</v>
+        <f>G100 + (F$2 * H100)</f>
+        <v>13720.071062271061</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4062,28 +4142,28 @@
         <v>13821.5</v>
       </c>
       <c r="E101">
+        <f t="shared" si="3"/>
+        <v>13829.133333333333</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <f>INTERCEPT(E88:E101,F$1:F$14)</f>
+        <v>13712.382857142857</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="5"/>
-        <v>13829.133333333333</v>
-      </c>
-      <c r="F101">
-        <f>ROW()</f>
-        <v>101</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="6"/>
         <v>8.6180219780220355</v>
       </c>
-      <c r="H101">
-        <f t="shared" si="7"/>
-        <v>12953.996923076917</v>
-      </c>
       <c r="I101">
-        <f t="shared" si="8"/>
-        <v>13824.417142857143</v>
+        <f>RSQ(E88:E101,F$1:F$14)</f>
+        <v>0.60299377360426987</v>
       </c>
       <c r="J101">
-        <f t="shared" si="9"/>
-        <v>0.60299377360426987</v>
+        <f>G101 + (F$2 * H101)</f>
+        <v>13721.000879120878</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4100,28 +4180,28 @@
         <v>13840.7</v>
       </c>
       <c r="E102">
+        <f t="shared" si="3"/>
+        <v>13832.666666666666</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="G102">
+        <f>INTERCEPT(E89:E102,F$1:F$14)</f>
+        <v>13712.342857142854</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="5"/>
-        <v>13832.666666666666</v>
-      </c>
-      <c r="F102">
-        <f>ROW()</f>
-        <v>102</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="6"/>
         <v>9.6113553113553785</v>
       </c>
-      <c r="H102">
-        <f t="shared" si="7"/>
-        <v>12856.932234432225</v>
-      </c>
       <c r="I102">
-        <f t="shared" si="8"/>
-        <v>13837.290476190474</v>
+        <f>RSQ(E89:E102,F$1:F$14)</f>
+        <v>0.67966566769489045</v>
       </c>
       <c r="J102">
-        <f t="shared" si="9"/>
-        <v>0.67966566769489045</v>
+        <f>G102 + (F$2 * H102)</f>
+        <v>13721.954212454209</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4138,28 +4218,28 @@
         <v>13853.2</v>
       </c>
       <c r="E103">
+        <f t="shared" si="3"/>
+        <v>13849.966666666667</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="G103">
+        <f>INTERCEPT(E90:E103,F$1:F$14)</f>
+        <v>13711.301904761905</v>
+      </c>
+      <c r="H103">
         <f t="shared" si="5"/>
-        <v>13849.966666666667</v>
-      </c>
-      <c r="F103">
-        <f>ROW()</f>
-        <v>103</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="6"/>
         <v>10.887619047619127</v>
       </c>
-      <c r="H103">
-        <f t="shared" si="7"/>
-        <v>12731.416190476184</v>
-      </c>
       <c r="I103">
-        <f t="shared" si="8"/>
-        <v>13852.840952380953</v>
+        <f>RSQ(E90:E103,F$1:F$14)</f>
+        <v>0.76757359433665806</v>
       </c>
       <c r="J103">
-        <f t="shared" si="9"/>
-        <v>0.76757359433665806</v>
+        <f>G103 + (F$2 * H103)</f>
+        <v>13722.189523809524</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4176,28 +4256,28 @@
         <v>13880.2</v>
       </c>
       <c r="E104">
+        <f t="shared" si="3"/>
+        <v>13871.433333333334</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="G104">
+        <f>INTERCEPT(E91:E104,F$1:F$14)</f>
+        <v>13714.109523809524</v>
+      </c>
+      <c r="H104">
         <f t="shared" si="5"/>
-        <v>13871.433333333334</v>
-      </c>
-      <c r="F104">
-        <f>ROW()</f>
-        <v>104</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="6"/>
         <v>11.938461538461654</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="7"/>
-        <v>12627.709523809513</v>
-      </c>
       <c r="I104">
-        <f t="shared" si="8"/>
-        <v>13869.309523809525</v>
+        <f>RSQ(E91:E104,F$1:F$14)</f>
+        <v>0.81587858738710139</v>
       </c>
       <c r="J104">
-        <f t="shared" si="9"/>
-        <v>0.81587858738710139</v>
+        <f>G104 + (F$2 * H104)</f>
+        <v>13726.047985347986</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4214,28 +4294,28 @@
         <v>13878.5</v>
       </c>
       <c r="E105">
+        <f t="shared" si="3"/>
+        <v>13882.833333333334</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="G105">
+        <f>INTERCEPT(E92:E105,F$1:F$14)</f>
+        <v>13718.288571428571</v>
+      </c>
+      <c r="H105">
         <f t="shared" si="5"/>
-        <v>13882.833333333334</v>
-      </c>
-      <c r="F105">
-        <f>ROW()</f>
-        <v>105</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="6"/>
         <v>12.85816849816857</v>
       </c>
-      <c r="H105">
-        <f t="shared" si="7"/>
-        <v>12535.337069597063</v>
-      </c>
       <c r="I105">
-        <f t="shared" si="8"/>
-        <v>13885.444761904762</v>
+        <f>RSQ(E92:E105,F$1:F$14)</f>
+        <v>0.854986227176465</v>
       </c>
       <c r="J105">
-        <f t="shared" si="9"/>
-        <v>0.854986227176465</v>
+        <f>G105 + (F$2 * H105)</f>
+        <v>13731.14673992674</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4252,28 +4332,28 @@
         <v>13854.8</v>
       </c>
       <c r="E106">
+        <f t="shared" si="3"/>
+        <v>13859.633333333331</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="G106">
+        <f>INTERCEPT(E93:E106,F$1:F$14)</f>
+        <v>13727.029523809526</v>
+      </c>
+      <c r="H106">
         <f t="shared" si="5"/>
-        <v>13859.633333333331</v>
-      </c>
-      <c r="F106">
-        <f>ROW()</f>
-        <v>106</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="6"/>
         <v>12.738315018315008</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="7"/>
-        <v>12542.366227106231</v>
-      </c>
       <c r="I106">
-        <f t="shared" si="8"/>
-        <v>13892.627619047622</v>
+        <f>RSQ(E93:E106,F$1:F$14)</f>
+        <v>0.84748585423325462</v>
       </c>
       <c r="J106">
-        <f t="shared" si="9"/>
-        <v>0.84748585423325462</v>
+        <f>G106 + (F$2 * H106)</f>
+        <v>13739.767838827842</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4290,28 +4370,28 @@
         <v>13845.6</v>
       </c>
       <c r="E107">
+        <f t="shared" si="3"/>
+        <v>13842.733333333332</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="G107">
+        <f>INTERCEPT(E94:E107,F$1:F$14)</f>
+        <v>13745.181904761906</v>
+      </c>
+      <c r="H107">
         <f t="shared" si="5"/>
-        <v>13842.733333333332</v>
-      </c>
-      <c r="F107">
-        <f>ROW()</f>
-        <v>107</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="6"/>
         <v>11.150036630036569</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="7"/>
-        <v>12697.078461538469</v>
-      </c>
       <c r="I107">
-        <f t="shared" si="8"/>
-        <v>13890.132380952382</v>
+        <f>RSQ(E94:E107,F$1:F$14)</f>
+        <v>0.74624721594159016</v>
       </c>
       <c r="J107">
-        <f t="shared" si="9"/>
-        <v>0.74624721594159016</v>
+        <f>G107 + (F$2 * H107)</f>
+        <v>13756.331941391943</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4328,28 +4408,28 @@
         <v>13806.3</v>
       </c>
       <c r="E108">
+        <f t="shared" si="3"/>
+        <v>13813.266666666668</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="G108">
+        <f>INTERCEPT(E95:E108,F$1:F$14)</f>
+        <v>13776.309523809525</v>
+      </c>
+      <c r="H108">
         <f t="shared" si="5"/>
-        <v>13813.266666666668</v>
-      </c>
-      <c r="F108">
-        <f>ROW()</f>
-        <v>108</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="6"/>
         <v>7.4908424908424358</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="7"/>
-        <v>13064.679487179492</v>
-      </c>
       <c r="I108">
-        <f t="shared" si="8"/>
-        <v>13873.690476190475</v>
+        <f>RSQ(E95:E108,F$1:F$14)</f>
+        <v>0.49718807324359998</v>
       </c>
       <c r="J108">
-        <f t="shared" si="9"/>
-        <v>0.49718807324359998</v>
+        <f>G108 + (F$2 * H108)</f>
+        <v>13783.800366300367</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4366,28 +4446,28 @@
         <v>13809</v>
       </c>
       <c r="E109">
+        <f t="shared" si="3"/>
+        <v>13802.366666666667</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="G109">
+        <f>INTERCEPT(E96:E109,F$1:F$14)</f>
+        <v>13806.029523809526</v>
+      </c>
+      <c r="H109">
         <f t="shared" si="5"/>
-        <v>13802.366666666667</v>
-      </c>
-      <c r="F109">
-        <f>ROW()</f>
-        <v>109</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="6"/>
         <v>3.7134065934065181</v>
       </c>
-      <c r="H109">
-        <f t="shared" si="7"/>
-        <v>13449.542490842499</v>
-      </c>
       <c r="I109">
-        <f t="shared" si="8"/>
-        <v>13854.30380952381</v>
+        <f>RSQ(E96:E109,F$1:F$14)</f>
+        <v>0.18678064173160874</v>
       </c>
       <c r="J109">
-        <f t="shared" si="9"/>
-        <v>0.18678064173160874</v>
+        <f>G109 + (F$2 * H109)</f>
+        <v>13809.742930402932</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4404,28 +4484,28 @@
         <v>13837.2</v>
       </c>
       <c r="E110">
+        <f t="shared" si="3"/>
+        <v>13823.566666666666</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="G110">
+        <f>INTERCEPT(E97:E110,F$1:F$14)</f>
+        <v>13828.869523809522</v>
+      </c>
+      <c r="H110">
         <f t="shared" si="5"/>
-        <v>13823.566666666666</v>
-      </c>
-      <c r="F110">
-        <f>ROW()</f>
-        <v>110</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="6"/>
         <v>0.97648351648346687</v>
       </c>
-      <c r="H110">
-        <f t="shared" si="7"/>
-        <v>13734.150622710626</v>
-      </c>
       <c r="I110">
-        <f t="shared" si="8"/>
-        <v>13841.563809523806</v>
+        <f>RSQ(E97:E110,F$1:F$14)</f>
+        <v>2.0646235822271954E-2</v>
       </c>
       <c r="J110">
-        <f t="shared" si="9"/>
-        <v>2.0646235822271954E-2</v>
+        <f>G110 + (F$2 * H110)</f>
+        <v>13829.846007326007</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4442,28 +4522,28 @@
         <v>13821.5</v>
       </c>
       <c r="E111">
+        <f t="shared" si="3"/>
+        <v>13819.833333333334</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="G111">
+        <f>INTERCEPT(E98:E111,F$1:F$14)</f>
+        <v>13849.118095238096</v>
+      </c>
+      <c r="H111">
         <f t="shared" si="5"/>
-        <v>13819.833333333334</v>
-      </c>
-      <c r="F111">
-        <f>ROW()</f>
-        <v>111</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="6"/>
         <v>-1.5965567765568067</v>
       </c>
-      <c r="H111">
-        <f t="shared" si="7"/>
-        <v>14005.580659340663</v>
-      </c>
       <c r="I111">
-        <f t="shared" si="8"/>
-        <v>13828.362857142858</v>
+        <f>RSQ(E98:E111,F$1:F$14)</f>
+        <v>9.0873481255765443E-2</v>
       </c>
       <c r="J111">
-        <f t="shared" si="9"/>
-        <v>9.0873481255765443E-2</v>
+        <f>G111 + (F$2 * H111)</f>
+        <v>13847.52153846154</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4480,28 +4560,28 @@
         <v>13805.8</v>
       </c>
       <c r="E112">
+        <f t="shared" si="3"/>
+        <v>13817.633333333331</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="G112">
+        <f>INTERCEPT(E99:E112,F$1:F$14)</f>
+        <v>13853.903809523808</v>
+      </c>
+      <c r="H112">
         <f t="shared" si="5"/>
-        <v>13817.633333333331</v>
-      </c>
-      <c r="F112">
-        <f>ROW()</f>
-        <v>112</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="6"/>
         <v>-2.4734798534799074</v>
       </c>
-      <c r="H112">
-        <f t="shared" si="7"/>
-        <v>14098.77831501832</v>
-      </c>
       <c r="I112">
-        <f t="shared" si="8"/>
-        <v>13821.74857142857</v>
+        <f>RSQ(E99:E112,F$1:F$14)</f>
+        <v>0.20632021376946577</v>
       </c>
       <c r="J112">
-        <f t="shared" si="9"/>
-        <v>0.20632021376946577</v>
+        <f>G112 + (F$2 * H112)</f>
+        <v>13851.430329670329</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4518,28 +4598,28 @@
         <v>13863.7</v>
       </c>
       <c r="E113">
+        <f t="shared" si="3"/>
+        <v>13844.4</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="G113">
+        <f>INTERCEPT(E100:E113,F$1:F$14)</f>
+        <v>13851.34095238095</v>
+      </c>
+      <c r="H113">
         <f t="shared" si="5"/>
-        <v>13844.4</v>
-      </c>
-      <c r="F113">
-        <f>ROW()</f>
-        <v>113</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="6"/>
         <v>-2.0766300366301089</v>
       </c>
-      <c r="H113">
-        <f t="shared" si="7"/>
-        <v>14059.00395604396</v>
-      </c>
       <c r="I113">
-        <f t="shared" si="8"/>
-        <v>13824.344761904758</v>
+        <f>RSQ(E100:E113,F$1:F$14)</f>
+        <v>0.1453615658562433</v>
       </c>
       <c r="J113">
-        <f t="shared" si="9"/>
-        <v>0.1453615658562433</v>
+        <f>G113 + (F$2 * H113)</f>
+        <v>13849.264322344319</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4556,28 +4636,28 @@
         <v>13857.9</v>
       </c>
       <c r="E114">
+        <f t="shared" si="3"/>
+        <v>13857.199999999999</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="G114">
+        <f>INTERCEPT(E101:E114,F$1:F$14)</f>
+        <v>13848.417142857143</v>
+      </c>
+      <c r="H114">
         <f t="shared" si="5"/>
-        <v>13857.199999999999</v>
-      </c>
-      <c r="F114">
-        <f>ROW()</f>
-        <v>114</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="6"/>
         <v>-1.4414652014652738</v>
       </c>
-      <c r="H114">
-        <f t="shared" si="7"/>
-        <v>13994.005128205135</v>
-      </c>
       <c r="I114">
-        <f t="shared" si="8"/>
-        <v>13829.678095238094</v>
+        <f>RSQ(E101:E114,F$1:F$14)</f>
+        <v>6.6603034754067439E-2</v>
       </c>
       <c r="J114">
-        <f t="shared" si="9"/>
-        <v>6.6603034754067439E-2</v>
+        <f>G114 + (F$2 * H114)</f>
+        <v>13846.975677655677</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4594,28 +4674,28 @@
         <v>13845.6</v>
       </c>
       <c r="E115">
+        <f t="shared" si="3"/>
+        <v>13851.366666666667</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="G115">
+        <f>INTERCEPT(E102:E115,F$1:F$14)</f>
+        <v>13849.841904761905</v>
+      </c>
+      <c r="H115">
         <f t="shared" si="5"/>
-        <v>13851.366666666667</v>
-      </c>
-      <c r="F115">
-        <f>ROW()</f>
-        <v>115</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="6"/>
         <v>-1.4163369963370505</v>
       </c>
-      <c r="H115">
-        <f t="shared" si="7"/>
-        <v>13994.308278388284</v>
-      </c>
       <c r="I115">
-        <f t="shared" si="8"/>
-        <v>13831.429523809524</v>
+        <f>RSQ(E102:E115,F$1:F$14)</f>
+        <v>6.4137089760396046E-2</v>
       </c>
       <c r="J115">
-        <f t="shared" si="9"/>
-        <v>6.4137089760396046E-2</v>
+        <f>G115 + (F$2 * H115)</f>
+        <v>13848.425567765567</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4632,28 +4712,28 @@
         <v>13852</v>
       </c>
       <c r="E116">
+        <f t="shared" si="3"/>
+        <v>13849.866666666667</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="G116">
+        <f>INTERCEPT(E103:E116,F$1:F$14)</f>
+        <v>13851.06380952381</v>
+      </c>
+      <c r="H116">
         <f t="shared" si="5"/>
-        <v>13849.866666666667</v>
-      </c>
-      <c r="F116">
-        <f>ROW()</f>
-        <v>116</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="6"/>
         <v>-1.4153113553114083</v>
       </c>
-      <c r="H116">
-        <f t="shared" si="7"/>
-        <v>13996.840879120886</v>
-      </c>
       <c r="I116">
-        <f t="shared" si="8"/>
-        <v>13832.664761904762</v>
+        <f>RSQ(E103:E116,F$1:F$14)</f>
+        <v>6.4039073626470044E-2</v>
       </c>
       <c r="J116">
-        <f t="shared" si="9"/>
-        <v>6.4039073626470044E-2</v>
+        <f>G116 + (F$2 * H116)</f>
+        <v>13849.648498168499</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4670,28 +4750,28 @@
         <v>13813.6</v>
       </c>
       <c r="E117">
+        <f t="shared" si="3"/>
+        <v>13818.866666666667</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="G117">
+        <f>INTERCEPT(E104:E117,F$1:F$14)</f>
+        <v>13851.377142857144</v>
+      </c>
+      <c r="H117">
         <f t="shared" si="5"/>
-        <v>13818.866666666667</v>
-      </c>
-      <c r="F117">
-        <f>ROW()</f>
-        <v>117</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="6"/>
         <v>-1.8052747252747445</v>
       </c>
-      <c r="H117">
-        <f t="shared" si="7"/>
-        <v>14039.125714285716</v>
-      </c>
       <c r="I117">
-        <f t="shared" si="8"/>
-        <v>13827.90857142857</v>
+        <f>RSQ(E104:E117,F$1:F$14)</f>
+        <v>9.8722218190820679E-2</v>
       </c>
       <c r="J117">
-        <f t="shared" si="9"/>
-        <v>9.8722218190820679E-2</v>
+        <f>G117 + (F$2 * H117)</f>
+        <v>13849.571868131869</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4708,28 +4788,28 @@
         <v>13832.7</v>
       </c>
       <c r="E118">
+        <f t="shared" si="3"/>
+        <v>13818.1</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="G118">
+        <f>INTERCEPT(E105:E118,F$1:F$14)</f>
+        <v>13844.75619047619</v>
+      </c>
+      <c r="H118">
         <f t="shared" si="5"/>
-        <v>13818.1</v>
-      </c>
-      <c r="F118">
-        <f>ROW()</f>
-        <v>118</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="6"/>
         <v>-1.3727472527472135</v>
       </c>
-      <c r="H118">
-        <f t="shared" si="7"/>
-        <v>13988.894652014646</v>
-      </c>
       <c r="I118">
-        <f t="shared" si="8"/>
-        <v>13826.910476190475</v>
+        <f>RSQ(E105:E118,F$1:F$14)</f>
+        <v>6.341367081093699E-2</v>
       </c>
       <c r="J118">
-        <f t="shared" si="9"/>
-        <v>6.341367081093699E-2</v>
+        <f>G118 + (F$2 * H118)</f>
+        <v>13843.383443223442</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4746,28 +4826,28 @@
         <v>13811.7</v>
       </c>
       <c r="E119">
+        <f t="shared" si="3"/>
+        <v>13819.800000000001</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="G119">
+        <f>INTERCEPT(E106:E119,F$1:F$14)</f>
+        <v>13833.159999999996</v>
+      </c>
+      <c r="H119">
         <f t="shared" si="5"/>
-        <v>13819.800000000001</v>
-      </c>
-      <c r="F119">
-        <f>ROW()</f>
-        <v>119</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="6"/>
         <v>-0.28139194139183238</v>
       </c>
-      <c r="H119">
-        <f t="shared" si="7"/>
-        <v>13862.987545787531</v>
-      </c>
       <c r="I119">
-        <f t="shared" si="8"/>
-        <v>13829.501904761903</v>
+        <f>RSQ(E106:E119,F$1:F$14)</f>
+        <v>3.981137206060548E-3</v>
       </c>
       <c r="J119">
-        <f t="shared" si="9"/>
-        <v>3.981137206060548E-3</v>
+        <f>G119 + (F$2 * H119)</f>
+        <v>13832.878608058605</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4784,28 +4864,28 @@
         <v>13811.9</v>
       </c>
       <c r="E120">
+        <f t="shared" si="3"/>
+        <v>13809.033333333333</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="G120">
+        <f>INTERCEPT(E107:E120,F$1:F$14)</f>
+        <v>13827.621904761902</v>
+      </c>
+      <c r="H120">
         <f t="shared" si="5"/>
-        <v>13809.033333333333</v>
-      </c>
-      <c r="F120">
-        <f>ROW()</f>
-        <v>120</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="6"/>
         <v>1.4578754578802285E-2</v>
       </c>
-      <c r="H120">
-        <f t="shared" si="7"/>
-        <v>13826.061978021969</v>
-      </c>
       <c r="I120">
-        <f t="shared" si="8"/>
-        <v>13827.811428571425</v>
+        <f>RSQ(E107:E120,F$1:F$14)</f>
+        <v>1.1974290281745409E-5</v>
       </c>
       <c r="J120">
-        <f t="shared" si="9"/>
-        <v>1.1974290281745409E-5</v>
+        <f>G120 + (F$2 * H120)</f>
+        <v>13827.63648351648</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4822,28 +4902,28 @@
         <v>13844.6</v>
       </c>
       <c r="E121">
+        <f t="shared" si="3"/>
+        <v>13833.633333333333</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G121">
+        <f>INTERCEPT(E108:E121,F$1:F$14)</f>
+        <v>13822.655238095234</v>
+      </c>
+      <c r="H121">
         <f t="shared" si="5"/>
-        <v>13833.633333333333</v>
-      </c>
-      <c r="F121">
-        <f>ROW()</f>
-        <v>121</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="6"/>
         <v>0.67868131868132109</v>
       </c>
-      <c r="H121">
-        <f t="shared" si="7"/>
-        <v>13749.357655677653</v>
-      </c>
       <c r="I121">
-        <f t="shared" si="8"/>
-        <v>13831.478095238093</v>
+        <f>RSQ(E108:E121,F$1:F$14)</f>
+        <v>2.7276932024547014E-2</v>
       </c>
       <c r="J121">
-        <f t="shared" si="9"/>
-        <v>2.7276932024547014E-2</v>
+        <f>G121 + (F$2 * H121)</f>
+        <v>13823.333919413915</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4860,28 +4940,28 @@
         <v>13826.7</v>
       </c>
       <c r="E122">
+        <f t="shared" si="3"/>
+        <v>13837.233333333332</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="G122">
+        <f>INTERCEPT(E109:E122,F$1:F$14)</f>
+        <v>13825.43619047619</v>
+      </c>
+      <c r="H122">
         <f t="shared" si="5"/>
-        <v>13837.233333333332</v>
-      </c>
-      <c r="F122">
-        <f>ROW()</f>
-        <v>122</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="6"/>
         <v>0.51421245421246731</v>
       </c>
-      <c r="H122">
-        <f t="shared" si="7"/>
-        <v>13769.387032967032</v>
-      </c>
       <c r="I122">
-        <f t="shared" si="8"/>
-        <v>13832.120952380952</v>
+        <f>RSQ(E109:E122,F$1:F$14)</f>
+        <v>1.6198631246733552E-2</v>
       </c>
       <c r="J122">
-        <f t="shared" si="9"/>
-        <v>1.6198631246733552E-2</v>
+        <f>G122 + (F$2 * H122)</f>
+        <v>13825.950402930403</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4898,28 +4978,28 @@
         <v>13816.8</v>
       </c>
       <c r="E123">
+        <f t="shared" si="3"/>
+        <v>13820.1</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="G123">
+        <f>INTERCEPT(E110:E123,F$1:F$14)</f>
+        <v>13833.974285714285</v>
+      </c>
+      <c r="H123">
         <f t="shared" si="5"/>
-        <v>13820.1</v>
-      </c>
-      <c r="F123">
-        <f>ROW()</f>
-        <v>123</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="6"/>
         <v>-0.60446886446881942</v>
       </c>
-      <c r="H123">
-        <f t="shared" si="7"/>
-        <v>13900.465860805854</v>
-      </c>
       <c r="I123">
-        <f t="shared" si="8"/>
-        <v>13826.11619047619</v>
+        <f>RSQ(E110:E123,F$1:F$14)</f>
+        <v>2.7086915478446816E-2</v>
       </c>
       <c r="J123">
-        <f t="shared" si="9"/>
-        <v>2.7086915478446816E-2</v>
+        <f>G123 + (F$2 * H123)</f>
+        <v>13833.369816849816</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4936,28 +5016,28 @@
         <v>13792</v>
       </c>
       <c r="E124">
+        <f t="shared" si="3"/>
+        <v>13800.266666666668</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="G124">
+        <f>INTERCEPT(E111:E124,F$1:F$14)</f>
+        <v>13839.228571428572</v>
+      </c>
+      <c r="H124">
         <f t="shared" si="5"/>
-        <v>13800.266666666668</v>
-      </c>
-      <c r="F124">
-        <f>ROW()</f>
-        <v>124</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="6"/>
         <v>-1.6688644688643943</v>
       </c>
-      <c r="H124">
-        <f t="shared" si="7"/>
-        <v>14024.472527472519</v>
-      </c>
       <c r="I124">
-        <f t="shared" si="8"/>
-        <v>13817.533333333335</v>
+        <f>RSQ(E111:E124,F$1:F$14)</f>
+        <v>0.16352035719234903</v>
       </c>
       <c r="J124">
-        <f t="shared" si="9"/>
-        <v>0.16352035719234903</v>
+        <f>G124 + (F$2 * H124)</f>
+        <v>13837.559706959708</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,28 +5054,28 @@
         <v>13752.4</v>
       </c>
       <c r="E125">
+        <f t="shared" si="3"/>
+        <v>13765.6</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="G125">
+        <f>INTERCEPT(E112:E125,F$1:F$14)</f>
+        <v>13848.845714285713</v>
+      </c>
+      <c r="H125">
         <f t="shared" si="5"/>
-        <v>13765.6</v>
-      </c>
-      <c r="F125">
-        <f>ROW()</f>
-        <v>125</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="6"/>
         <v>-3.744395604395494</v>
       </c>
-      <c r="H125">
-        <f t="shared" si="7"/>
-        <v>14268.218021978009</v>
-      </c>
       <c r="I125">
-        <f t="shared" si="8"/>
-        <v>13800.168571428572</v>
+        <f>RSQ(E112:E125,F$1:F$14)</f>
+        <v>0.42341873865165014</v>
       </c>
       <c r="J125">
-        <f t="shared" si="9"/>
-        <v>0.42341873865165014</v>
+        <f>G125 + (F$2 * H125)</f>
+        <v>13845.101318681318</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5012,28 +5092,28 @@
         <v>13750.8</v>
       </c>
       <c r="E126">
+        <f t="shared" si="3"/>
+        <v>13751.033333333333</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="G126">
+        <f>INTERCEPT(E113:E126,F$1:F$14)</f>
+        <v>13859.206666666667</v>
+      </c>
+      <c r="H126">
         <f t="shared" si="5"/>
-        <v>13751.033333333333</v>
-      </c>
-      <c r="F126">
-        <f>ROW()</f>
-        <v>126</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="6"/>
         <v>-6.0702564102563716</v>
       </c>
-      <c r="H126">
-        <f t="shared" si="7"/>
-        <v>14545.145641025636</v>
-      </c>
       <c r="I126">
-        <f t="shared" si="8"/>
-        <v>13780.293333333333</v>
+        <f>RSQ(E113:E126,F$1:F$14)</f>
+        <v>0.66703484063576612</v>
       </c>
       <c r="J126">
-        <f t="shared" si="9"/>
-        <v>0.66703484063576612</v>
+        <f>G126 + (F$2 * H126)</f>
+        <v>13853.136410256411</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5050,28 +5130,28 @@
         <v>13776</v>
       </c>
       <c r="E127">
+        <f t="shared" si="3"/>
+        <v>13770.866666666667</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="G127">
+        <f>INTERCEPT(E114:E127,F$1:F$14)</f>
+        <v>13857.750476190477</v>
+      </c>
+      <c r="H127">
         <f t="shared" si="5"/>
-        <v>13770.866666666667</v>
-      </c>
-      <c r="F127">
-        <f>ROW()</f>
-        <v>127</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="6"/>
         <v>-6.6542857142856837</v>
       </c>
-      <c r="H127">
-        <f t="shared" si="7"/>
-        <v>14616.339047619043</v>
-      </c>
       <c r="I127">
-        <f t="shared" si="8"/>
-        <v>13771.244761904762</v>
+        <f>RSQ(E114:E127,F$1:F$14)</f>
+        <v>0.72143973583579735</v>
       </c>
       <c r="J127">
-        <f t="shared" si="9"/>
-        <v>0.72143973583579735</v>
+        <f>G127 + (F$2 * H127)</f>
+        <v>13851.096190476192</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5088,28 +5168,28 @@
         <v>13760.8</v>
       </c>
       <c r="E128">
+        <f t="shared" si="3"/>
+        <v>13765.866666666667</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="G128">
+        <f>INTERCEPT(E115:E128,F$1:F$14)</f>
+        <v>13851.10761904762</v>
+      </c>
+      <c r="H128">
         <f t="shared" si="5"/>
-        <v>13765.866666666667</v>
-      </c>
-      <c r="F128">
-        <f>ROW()</f>
-        <v>128</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="6"/>
         <v>-6.6359706959707001</v>
       </c>
-      <c r="H128">
-        <f t="shared" si="7"/>
-        <v>14614.24424908425</v>
-      </c>
       <c r="I128">
-        <f t="shared" si="8"/>
-        <v>13764.84</v>
+        <f>RSQ(E115:E128,F$1:F$14)</f>
+        <v>0.72027824623828673</v>
       </c>
       <c r="J128">
-        <f t="shared" si="9"/>
-        <v>0.72027824623828673</v>
+        <f>G128 + (F$2 * H128)</f>
+        <v>13844.471648351649</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5126,28 +5206,28 @@
         <v>13751.6</v>
       </c>
       <c r="E129">
+        <f t="shared" si="3"/>
+        <v>13754.366666666667</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="G129">
+        <f>INTERCEPT(E116:E129,F$1:F$14)</f>
+        <v>13844.83619047619</v>
+      </c>
+      <c r="H129">
         <f t="shared" si="5"/>
-        <v>13754.366666666667</v>
-      </c>
-      <c r="F129">
-        <f>ROW()</f>
-        <v>129</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="6"/>
         <v>-6.7370695970696017</v>
       </c>
-      <c r="H129">
-        <f t="shared" si="7"/>
-        <v>14626.336263736264</v>
-      </c>
       <c r="I129">
-        <f t="shared" si="8"/>
-        <v>13757.254285714285</v>
+        <f>RSQ(E116:E129,F$1:F$14)</f>
+        <v>0.72576176889050881</v>
       </c>
       <c r="J129">
-        <f t="shared" si="9"/>
-        <v>0.72576176889050881</v>
+        <f>G129 + (F$2 * H129)</f>
+        <v>13838.09912087912</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5164,28 +5244,28 @@
         <v>13706.6</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="10">(B130+C130+D130)/3</f>
+        <f t="shared" ref="E130:E193" si="6">(B130+C130+D130)/3</f>
         <v>13721.6</v>
       </c>
       <c r="F130">
-        <f>ROW()</f>
-        <v>130</v>
+        <f t="shared" ref="F130:F193" si="7">ROW()-1</f>
+        <v>129</v>
       </c>
       <c r="G130">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E117:E130,F$1:F$14)</f>
+        <v>13839.966666666669</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="5"/>
         <v>-7.3974358974358951</v>
       </c>
-      <c r="H130">
-        <f t="shared" si="7"/>
-        <v>14705.466666666667</v>
-      </c>
       <c r="I130">
-        <f t="shared" si="8"/>
-        <v>13743.800000000001</v>
+        <f>RSQ(E117:E130,F$1:F$14)</f>
+        <v>0.73315635206110319</v>
       </c>
       <c r="J130">
-        <f t="shared" si="9"/>
-        <v>0.73315635206110319</v>
+        <f>G130 + (F$2 * H130)</f>
+        <v>13832.569230769233</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5202,28 +5282,28 @@
         <v>13706.6</v>
       </c>
       <c r="E131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13706.6</v>
       </c>
       <c r="F131">
-        <f>ROW()</f>
-        <v>131</v>
+        <f t="shared" si="7"/>
+        <v>130</v>
       </c>
       <c r="G131">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E118:E131,F$1:F$14)</f>
+        <v>13842.003809523811</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="5"/>
         <v>-8.9445421245421155</v>
       </c>
-      <c r="H131">
-        <f t="shared" si="7"/>
-        <v>14897.45978021978</v>
-      </c>
       <c r="I131">
-        <f t="shared" si="8"/>
-        <v>13725.724761904763</v>
+        <f>RSQ(E118:E131,F$1:F$14)</f>
+        <v>0.80445968752004748</v>
       </c>
       <c r="J131">
-        <f t="shared" si="9"/>
-        <v>0.80445968752004748</v>
+        <f>G131 + (F$2 * H131)</f>
+        <v>13833.059267399269</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5240,28 +5320,28 @@
         <v>13714.5</v>
       </c>
       <c r="E132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13712.4</v>
       </c>
       <c r="F132">
-        <f>ROW()</f>
-        <v>132</v>
+        <f t="shared" si="7"/>
+        <v>131</v>
       </c>
       <c r="G132">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E119:E132,F$1:F$14)</f>
+        <v>13840.389523809525</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="5"/>
         <v>-9.8577289377289379</v>
       </c>
-      <c r="H132">
-        <f t="shared" si="7"/>
-        <v>15013.459267399268</v>
-      </c>
       <c r="I132">
-        <f t="shared" si="8"/>
-        <v>13712.239047619049</v>
+        <f>RSQ(E119:E132,F$1:F$14)</f>
+        <v>0.85812582474828292</v>
       </c>
       <c r="J132">
-        <f t="shared" si="9"/>
-        <v>0.85812582474828292</v>
+        <f>G132 + (F$2 * H132)</f>
+        <v>13830.531794871797</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5278,28 +5358,28 @@
         <v>13757.1</v>
       </c>
       <c r="E133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13743.199999999999</v>
       </c>
       <c r="F133">
-        <f>ROW()</f>
-        <v>133</v>
+        <f t="shared" si="7"/>
+        <v>132</v>
       </c>
       <c r="G133">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E120:E133,F$1:F$14)</f>
+        <v>13831.749523809523</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="5"/>
         <v>-9.3702564102564114</v>
       </c>
-      <c r="H133">
-        <f t="shared" si="7"/>
-        <v>14956.180293040294</v>
-      </c>
       <c r="I133">
-        <f t="shared" si="8"/>
-        <v>13709.93619047619</v>
+        <f>RSQ(E120:E133,F$1:F$14)</f>
+        <v>0.81368381722624861</v>
       </c>
       <c r="J133">
-        <f t="shared" si="9"/>
-        <v>0.81368381722624861</v>
+        <f>G133 + (F$2 * H133)</f>
+        <v>13822.379267399267</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5316,28 +5396,28 @@
         <v>13765.7</v>
       </c>
       <c r="E134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13776.633333333333</v>
       </c>
       <c r="F134">
-        <f>ROW()</f>
-        <v>134</v>
+        <f t="shared" si="7"/>
+        <v>133</v>
       </c>
       <c r="G134">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E121:E134,F$1:F$14)</f>
+        <v>13820.176190476192</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="5"/>
         <v>-7.9457875457875629</v>
       </c>
-      <c r="H134">
-        <f t="shared" si="7"/>
-        <v>14781.616483516487</v>
-      </c>
       <c r="I134">
-        <f t="shared" si="8"/>
-        <v>13716.880952380954</v>
+        <f>RSQ(E121:E134,F$1:F$14)</f>
+        <v>0.62317214368828155</v>
       </c>
       <c r="J134">
-        <f t="shared" si="9"/>
-        <v>0.62317214368828155</v>
+        <f>G134 + (F$2 * H134)</f>
+        <v>13812.230402930403</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5354,28 +5434,28 @@
         <v>13757.1</v>
       </c>
       <c r="E135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13769.033333333333</v>
       </c>
       <c r="F135">
-        <f>ROW()</f>
-        <v>135</v>
+        <f t="shared" si="7"/>
+        <v>134</v>
       </c>
       <c r="G135">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E122:E135,F$1:F$14)</f>
+        <v>13801.517142857145</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="5"/>
         <v>-5.7850549450549789</v>
       </c>
-      <c r="H135">
-        <f t="shared" si="7"/>
-        <v>14507.293846153852</v>
-      </c>
       <c r="I135">
-        <f t="shared" si="8"/>
-        <v>13726.311428571431</v>
+        <f>RSQ(E122:E135,F$1:F$14)</f>
+        <v>0.41127880155538094</v>
       </c>
       <c r="J135">
-        <f t="shared" si="9"/>
-        <v>0.41127880155538094</v>
+        <f>G135 + (F$2 * H135)</f>
+        <v>13795.732087912091</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5392,28 +5472,28 @@
         <v>13739.5</v>
       </c>
       <c r="E136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13744.866666666667</v>
       </c>
       <c r="F136">
-        <f>ROW()</f>
-        <v>136</v>
+        <f t="shared" si="7"/>
+        <v>135</v>
       </c>
       <c r="G136">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E123:E136,F$1:F$14)</f>
+        <v>13782.745714285717</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
         <v>-3.9121611721612513</v>
       </c>
-      <c r="H136">
-        <f t="shared" si="7"/>
-        <v>14263.941538461549</v>
-      </c>
       <c r="I136">
-        <f t="shared" si="8"/>
-        <v>13731.887619047619</v>
+        <f>RSQ(E123:E136,F$1:F$14)</f>
+        <v>0.27012293204544274</v>
       </c>
       <c r="J136">
-        <f t="shared" si="9"/>
-        <v>0.27012293204544274</v>
+        <f>G136 + (F$2 * H136)</f>
+        <v>13778.833553113554</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5430,28 +5510,28 @@
         <v>13739.8</v>
       </c>
       <c r="E137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13739.799999999997</v>
       </c>
       <c r="F137">
-        <f>ROW()</f>
-        <v>137</v>
+        <f t="shared" si="7"/>
+        <v>136</v>
       </c>
       <c r="G137">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E124:E137,F$1:F$14)</f>
+        <v>13766.809523809525</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
         <v>-2.3428571428572869</v>
       </c>
-      <c r="H137">
-        <f t="shared" si="7"/>
-        <v>14057.323809523828</v>
-      </c>
       <c r="I137">
-        <f t="shared" si="8"/>
-        <v>13736.352380952379</v>
+        <f>RSQ(E124:E137,F$1:F$14)</f>
+        <v>0.1419909575764281</v>
       </c>
       <c r="J137">
-        <f t="shared" si="9"/>
-        <v>0.1419909575764281</v>
+        <f>G137 + (F$2 * H137)</f>
+        <v>13764.466666666667</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5468,28 +5548,28 @@
         <v>13698.8</v>
       </c>
       <c r="E138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13710.766666666668</v>
       </c>
       <c r="F138">
-        <f>ROW()</f>
-        <v>138</v>
+        <f t="shared" si="7"/>
+        <v>137</v>
       </c>
       <c r="G138">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E125:E138,F$1:F$14)</f>
+        <v>13757.563809523808</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
         <v>-1.9039560439560823</v>
       </c>
-      <c r="H138">
-        <f t="shared" si="7"/>
-        <v>13995.558315018319</v>
-      </c>
       <c r="I138">
-        <f t="shared" si="8"/>
-        <v>13732.81238095238</v>
+        <f>RSQ(E125:E138,F$1:F$14)</f>
+        <v>0.10969842978409197</v>
       </c>
       <c r="J138">
-        <f t="shared" si="9"/>
-        <v>0.10969842978409197</v>
+        <f>G138 + (F$2 * H138)</f>
+        <v>13755.659853479852</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5506,28 +5586,28 @@
         <v>13672.5</v>
       </c>
       <c r="E139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13680.766666666668</v>
       </c>
       <c r="F139">
-        <f>ROW()</f>
-        <v>139</v>
+        <f t="shared" si="7"/>
+        <v>138</v>
       </c>
       <c r="G139">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E126:E139,F$1:F$14)</f>
+        <v>13759.094285714285</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
         <v>-3.0716483516483244</v>
       </c>
-      <c r="H139">
-        <f t="shared" si="7"/>
-        <v>14146.121978021974</v>
-      </c>
       <c r="I139">
-        <f t="shared" si="8"/>
-        <v>13719.162857142857</v>
+        <f>RSQ(E126:E139,F$1:F$14)</f>
+        <v>0.19990768815933876</v>
       </c>
       <c r="J139">
-        <f t="shared" si="9"/>
-        <v>0.19990768815933876</v>
+        <f>G139 + (F$2 * H139)</f>
+        <v>13756.022637362637</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5544,28 +5624,28 @@
         <v>13671</v>
       </c>
       <c r="E140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13671.5</v>
       </c>
       <c r="F140">
-        <f>ROW()</f>
-        <v>140</v>
+        <f t="shared" si="7"/>
+        <v>139</v>
       </c>
       <c r="G140">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E127:E140,F$1:F$14)</f>
+        <v>13763.421904761903</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
         <v>-4.611428571428557</v>
       </c>
-      <c r="H140">
-        <f t="shared" si="7"/>
-        <v>14349.073333333328</v>
-      </c>
       <c r="I140">
-        <f t="shared" si="8"/>
-        <v>13703.47333333333</v>
+        <f>RSQ(E127:E140,F$1:F$14)</f>
+        <v>0.32871698936385318</v>
       </c>
       <c r="J140">
-        <f t="shared" si="9"/>
-        <v>0.32871698936385318</v>
+        <f>G140 + (F$2 * H140)</f>
+        <v>13758.810476190474</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5582,28 +5662,28 @@
         <v>13704.6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13693.833333333334</v>
       </c>
       <c r="F141">
-        <f>ROW()</f>
-        <v>141</v>
+        <f t="shared" si="7"/>
+        <v>140</v>
       </c>
       <c r="G141">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E128:E141,F$1:F$14)</f>
+        <v>13757.258095238094</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="5"/>
         <v>-4.5096703296702927</v>
       </c>
-      <c r="H141">
-        <f t="shared" si="7"/>
-        <v>14334.495897435892</v>
-      </c>
       <c r="I141">
-        <f t="shared" si="8"/>
-        <v>13698.632380952382</v>
+        <f>RSQ(E128:E141,F$1:F$14)</f>
+        <v>0.31990741633473407</v>
       </c>
       <c r="J141">
-        <f t="shared" si="9"/>
-        <v>0.31990741633473407</v>
+        <f>G141 + (F$2 * H141)</f>
+        <v>13752.748424908425</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5620,28 +5700,28 @@
         <v>13727.6</v>
       </c>
       <c r="E142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13723.133333333333</v>
       </c>
       <c r="F142">
-        <f>ROW()</f>
-        <v>142</v>
+        <f t="shared" si="7"/>
+        <v>141</v>
       </c>
       <c r="G142">
-        <f t="shared" si="6"/>
+        <f>INTERCEPT(E129:E142,F$1:F$14)</f>
+        <v>13746.973333333335</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="5"/>
         <v>-3.3969963369963008</v>
       </c>
-      <c r="H142">
-        <f t="shared" si="7"/>
-        <v>14185.185860805857</v>
-      </c>
       <c r="I142">
-        <f t="shared" si="8"/>
-        <v>13702.812380952382</v>
+        <f>RSQ(E129:E142,F$1:F$14)</f>
+        <v>0.20323574676807635</v>
       </c>
       <c r="J142">
-        <f t="shared" si="9"/>
-        <v>0.20323574676807635</v>
+        <f>G142 + (F$2 * H142)</f>
+        <v>13743.576336996339</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5658,28 +5738,28 @@
         <v>13693.3</v>
       </c>
       <c r="E143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13705.466666666665</v>
       </c>
       <c r="F143">
-        <f>ROW()</f>
-        <v>143</v>
+        <f t="shared" si="7"/>
+        <v>142</v>
       </c>
       <c r="G143">
-        <f t="shared" ref="G143:G200" si="11">SLOPE(E130:E143,F130:F143)</f>
+        <f>INTERCEPT(E130:E143,F$1:F$14)</f>
+        <v>13740.772380952385</v>
+      </c>
+      <c r="H143">
+        <f t="shared" ref="H143:H200" si="8">SLOPE(E130:E143,F$1:F$14)</f>
         <v>-2.9803663003662981</v>
       </c>
-      <c r="H143">
-        <f t="shared" ref="H143:H200" si="12">INTERCEPT(E130:E143,F130:F143)</f>
-        <v>14128.220000000003</v>
-      </c>
       <c r="I143">
-        <f t="shared" ref="I143:I199" si="13">H143 + G143 * F143</f>
-        <v>13702.027619047622</v>
+        <f>RSQ(E130:E143,F$1:F$14)</f>
+        <v>0.16489277420803686</v>
       </c>
       <c r="J143">
-        <f t="shared" ref="J143:J206" si="14">RSQ(E130:E143,F130:F143)</f>
-        <v>0.16489277420803686</v>
+        <f>G143 + (F$2 * H143)</f>
+        <v>13737.792014652019</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5696,28 +5776,28 @@
         <v>13673.1</v>
       </c>
       <c r="E144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13678.366666666667</v>
       </c>
       <c r="F144">
-        <f>ROW()</f>
-        <v>144</v>
+        <f t="shared" si="7"/>
+        <v>143</v>
       </c>
       <c r="G144">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E131:E144,F$1:F$14)</f>
+        <v>13745.633333333333</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="8"/>
         <v>-4.2032967032966795</v>
       </c>
-      <c r="H144">
-        <f t="shared" si="12"/>
-        <v>14296.265201465199</v>
-      </c>
       <c r="I144">
-        <f t="shared" si="13"/>
-        <v>13690.990476190478</v>
+        <f>RSQ(E131:E144,F$1:F$14)</f>
+        <v>0.28764503076077202</v>
       </c>
       <c r="J144">
-        <f t="shared" si="14"/>
-        <v>0.28764503076077202</v>
+        <f>G144 + (F$2 * H144)</f>
+        <v>13741.430036630036</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5734,28 +5814,28 @@
         <v>13695.4</v>
       </c>
       <c r="E145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13696.333333333334</v>
       </c>
       <c r="F145">
-        <f>ROW()</f>
-        <v>145</v>
+        <f t="shared" si="7"/>
+        <v>144</v>
       </c>
       <c r="G145">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E132:E145,F$1:F$14)</f>
+        <v>13751.491428571429</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="8"/>
         <v>-5.2173626373625765</v>
       </c>
-      <c r="H145">
-        <f t="shared" si="12"/>
-        <v>14440.18329670329</v>
-      </c>
       <c r="I145">
-        <f t="shared" si="13"/>
-        <v>13683.665714285717</v>
+        <f>RSQ(E132:E145,F$1:F$14)</f>
+        <v>0.43270103624793355</v>
       </c>
       <c r="J145">
-        <f t="shared" si="14"/>
-        <v>0.43270103624793355</v>
+        <f>G145 + (F$2 * H145)</f>
+        <v>13746.274065934067</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5772,28 +5852,28 @@
         <v>13747.5</v>
       </c>
       <c r="E146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13730.133333333333</v>
       </c>
       <c r="F146">
-        <f>ROW()</f>
-        <v>146</v>
+        <f t="shared" si="7"/>
+        <v>145</v>
       </c>
       <c r="G146">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E133:E146,F$1:F$14)</f>
+        <v>13751.53619047619</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="8"/>
         <v>-5.0293772893772379</v>
       </c>
-      <c r="H146">
-        <f t="shared" si="12"/>
-        <v>14420.443369963363</v>
-      </c>
       <c r="I146">
-        <f t="shared" si="13"/>
-        <v>13686.154285714287</v>
+        <f>RSQ(E133:E146,F$1:F$14)</f>
+        <v>0.3990607777665498</v>
       </c>
       <c r="J146">
-        <f t="shared" si="14"/>
-        <v>0.3990607777665498</v>
+        <f>G146 + (F$2 * H146)</f>
+        <v>13746.506813186814</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5810,28 +5890,28 @@
         <v>13701.7</v>
       </c>
       <c r="E147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13711.433333333334</v>
       </c>
       <c r="F147">
-        <f>ROW()</f>
-        <v>147</v>
+        <f t="shared" si="7"/>
+        <v>146</v>
       </c>
       <c r="G147">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E134:E147,F$1:F$14)</f>
+        <v>13745.42476190476</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="8"/>
         <v>-4.4382417582417091</v>
       </c>
-      <c r="H147">
-        <f t="shared" si="12"/>
-        <v>14340.14915750915</v>
-      </c>
       <c r="I147">
-        <f t="shared" si="13"/>
-        <v>13687.727619047619</v>
+        <f>RSQ(E134:E147,F$1:F$14)</f>
+        <v>0.32449890600300524</v>
       </c>
       <c r="J147">
-        <f t="shared" si="14"/>
-        <v>0.32449890600300524</v>
+        <f>G147 + (F$2 * H147)</f>
+        <v>13740.986520146518</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5848,28 +5928,28 @@
         <v>13726.1</v>
       </c>
       <c r="E148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13719.733333333332</v>
       </c>
       <c r="F148">
-        <f>ROW()</f>
-        <v>148</v>
+        <f t="shared" si="7"/>
+        <v>147</v>
       </c>
       <c r="G148">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E135:E148,F$1:F$14)</f>
+        <v>13727.904761904763</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="8"/>
         <v>-2.3681318681318722</v>
       </c>
-      <c r="H148">
-        <f t="shared" si="12"/>
-        <v>14047.602564102566</v>
-      </c>
       <c r="I148">
-        <f t="shared" si="13"/>
-        <v>13697.11904761905</v>
+        <f>RSQ(E135:E148,F$1:F$14)</f>
+        <v>0.12781656540999953</v>
       </c>
       <c r="J148">
-        <f t="shared" si="14"/>
-        <v>0.12781656540999953</v>
+        <f>G148 + (F$2 * H148)</f>
+        <v>13725.536630036631</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5886,28 +5966,28 @@
         <v>13747.4</v>
       </c>
       <c r="E149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13735.933333333334</v>
       </c>
       <c r="F149">
-        <f>ROW()</f>
-        <v>149</v>
+        <f t="shared" si="7"/>
+        <v>148</v>
       </c>
       <c r="G149">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E136:E149,F$1:F$14)</f>
+        <v>13709.07904761905</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="8"/>
         <v>0.16439560439561479</v>
       </c>
-      <c r="H149">
-        <f t="shared" si="12"/>
-        <v>13686.721245421248</v>
-      </c>
       <c r="I149">
-        <f t="shared" si="13"/>
-        <v>13711.216190476194</v>
+        <f>RSQ(E136:E149,F$1:F$14)</f>
+        <v>8.4719355408687121E-4</v>
       </c>
       <c r="J149">
-        <f t="shared" si="14"/>
-        <v>8.4719355408687121E-4</v>
+        <f>G149 + (F$2 * H149)</f>
+        <v>13709.243443223446</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5924,28 +6004,28 @@
         <v>13723.3</v>
       </c>
       <c r="E150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13732.966666666665</v>
       </c>
       <c r="F150">
-        <f>ROW()</f>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>149</v>
       </c>
       <c r="G150">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E137:E150,F$1:F$14)</f>
+        <v>13696.551428571431</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="8"/>
         <v>1.9609523809523535</v>
       </c>
-      <c r="H150">
-        <f t="shared" si="12"/>
-        <v>13427.900952380958</v>
-      </c>
       <c r="I150">
-        <f t="shared" si="13"/>
-        <v>13722.043809523811</v>
+        <f>RSQ(E137:E150,F$1:F$14)</f>
+        <v>0.13330390629591135</v>
       </c>
       <c r="J150">
-        <f t="shared" si="14"/>
-        <v>0.13330390629591135</v>
+        <f>G150 + (F$2 * H150)</f>
+        <v>13698.512380952383</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5962,28 +6042,28 @@
         <v>13781.6</v>
       </c>
       <c r="E151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13762.766666666665</v>
       </c>
       <c r="F151">
-        <f>ROW()</f>
-        <v>151</v>
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="G151">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E138:E151,F$1:F$14)</f>
+        <v>13681.725714285718</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="8"/>
         <v>4.4942124542122865</v>
       </c>
-      <c r="H151">
-        <f t="shared" si="12"/>
-        <v>13061.524395604423</v>
-      </c>
       <c r="I151">
-        <f t="shared" si="13"/>
-        <v>13740.150476190478</v>
+        <f>RSQ(E138:E151,F$1:F$14)</f>
+        <v>0.54357100448886686</v>
       </c>
       <c r="J151">
-        <f t="shared" si="14"/>
-        <v>0.54357100448886686</v>
+        <f>G151 + (F$2 * H151)</f>
+        <v>13686.21992673993</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -6000,28 +6080,28 @@
         <v>13796.9</v>
       </c>
       <c r="E152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13792.466666666667</v>
       </c>
       <c r="F152">
-        <f>ROW()</f>
-        <v>152</v>
+        <f t="shared" si="7"/>
+        <v>151</v>
       </c>
       <c r="G152">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E139:E152,F$1:F$14)</f>
+        <v>13672.457142857142</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="8"/>
         <v>6.8179487179486165</v>
       </c>
-      <c r="H152">
-        <f t="shared" si="12"/>
-        <v>12724.762271062284</v>
-      </c>
       <c r="I152">
-        <f t="shared" si="13"/>
-        <v>13761.090476190473</v>
+        <f>RSQ(E139:E152,F$1:F$14)</f>
+        <v>0.72316432322678659</v>
       </c>
       <c r="J152">
-        <f t="shared" si="14"/>
-        <v>0.72316432322678659</v>
+        <f>G152 + (F$2 * H152)</f>
+        <v>13679.275091575089</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -6038,28 +6118,28 @@
         <v>13796.9</v>
       </c>
       <c r="E153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13796.9</v>
       </c>
       <c r="F153">
-        <f>ROW()</f>
-        <v>153</v>
+        <f t="shared" si="7"/>
+        <v>152</v>
       </c>
       <c r="G153">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E140:E153,F$1:F$14)</f>
+        <v>13673.587619047621</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="8"/>
         <v>7.9202197802197256</v>
       </c>
-      <c r="H153">
-        <f t="shared" si="12"/>
-        <v>12564.756849816858</v>
-      </c>
       <c r="I153">
-        <f t="shared" si="13"/>
-        <v>13776.550476190476</v>
+        <f>RSQ(E140:E153,F$1:F$14)</f>
+        <v>0.75975069042193288</v>
       </c>
       <c r="J153">
-        <f t="shared" si="14"/>
-        <v>0.75975069042193288</v>
+        <f>G153 + (F$2 * H153)</f>
+        <v>13681.507838827842</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -6076,28 +6156,28 @@
         <v>13783.3</v>
       </c>
       <c r="E154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13796.366666666667</v>
       </c>
       <c r="F154">
-        <f>ROW()</f>
-        <v>154</v>
+        <f t="shared" si="7"/>
+        <v>153</v>
       </c>
       <c r="G154">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E141:E154,F$1:F$14)</f>
+        <v>13680.744761904762</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="8"/>
         <v>8.1912820512820144</v>
       </c>
-      <c r="H154">
-        <f t="shared" si="12"/>
-        <v>12525.773992673998</v>
-      </c>
       <c r="I154">
-        <f t="shared" si="13"/>
-        <v>13787.231428571427</v>
+        <f>RSQ(E141:E154,F$1:F$14)</f>
+        <v>0.76768701139052975</v>
       </c>
       <c r="J154">
-        <f t="shared" si="14"/>
-        <v>0.76768701139052975</v>
+        <f>G154 + (F$2 * H154)</f>
+        <v>13688.936043956044</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -6114,28 +6194,28 @@
         <v>13727.6</v>
       </c>
       <c r="E155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13744.833333333334</v>
       </c>
       <c r="F155">
-        <f>ROW()</f>
-        <v>155</v>
+        <f t="shared" si="7"/>
+        <v>154</v>
       </c>
       <c r="G155">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E142:E155,F$1:F$14)</f>
+        <v>13690.978095238095</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="8"/>
         <v>7.1773626373626511</v>
       </c>
-      <c r="H155">
-        <f t="shared" si="12"/>
-        <v>12671.792600732599</v>
-      </c>
       <c r="I155">
-        <f t="shared" si="13"/>
-        <v>13784.283809523809</v>
+        <f>RSQ(E142:E155,F$1:F$14)</f>
+        <v>0.64381490818500875</v>
       </c>
       <c r="J155">
-        <f t="shared" si="14"/>
-        <v>0.64381490818500875</v>
+        <f>G155 + (F$2 * H155)</f>
+        <v>13698.155457875459</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -6152,28 +6232,28 @@
         <v>13739.1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13737.1</v>
       </c>
       <c r="F156">
-        <f>ROW()</f>
-        <v>156</v>
+        <f t="shared" si="7"/>
+        <v>155</v>
       </c>
       <c r="G156">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E143:E156,F$1:F$14)</f>
+        <v>13695.180952380953</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="8"/>
         <v>6.6842490842491173</v>
       </c>
-      <c r="H156">
-        <f t="shared" si="12"/>
-        <v>12739.33333333333</v>
-      </c>
       <c r="I156">
-        <f t="shared" si="13"/>
-        <v>13782.076190476193</v>
+        <f>RSQ(E143:E156,F$1:F$14)</f>
+        <v>0.56534011190227651</v>
       </c>
       <c r="J156">
-        <f t="shared" si="14"/>
-        <v>0.56534011190227651</v>
+        <f>G156 + (F$2 * H156)</f>
+        <v>13701.865201465202</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -6190,28 +6270,28 @@
         <v>13720.4</v>
       </c>
       <c r="E157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13731.966666666667</v>
       </c>
       <c r="F157">
-        <f>ROW()</f>
-        <v>157</v>
+        <f t="shared" si="7"/>
+        <v>156</v>
       </c>
       <c r="G157">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E144:E157,F$1:F$14)</f>
+        <v>13705.417142857144</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="8"/>
         <v>5.400659340659355</v>
       </c>
-      <c r="H157">
-        <f t="shared" si="12"/>
-        <v>12927.722197802197</v>
-      </c>
       <c r="I157">
-        <f t="shared" si="13"/>
-        <v>13775.625714285716</v>
+        <f>RSQ(E144:E157,F$1:F$14)</f>
+        <v>0.39323984715355464</v>
       </c>
       <c r="J157">
-        <f t="shared" si="14"/>
-        <v>0.39323984715355464</v>
+        <f>G157 + (F$2 * H157)</f>
+        <v>13710.817802197804</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -6228,28 +6308,28 @@
         <v>13714.5</v>
       </c>
       <c r="E158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13714.4</v>
       </c>
       <c r="F158">
-        <f>ROW()</f>
-        <v>158</v>
+        <f t="shared" si="7"/>
+        <v>157</v>
       </c>
       <c r="G158">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E145:E158,F$1:F$14)</f>
+        <v>13726.160952380953</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="8"/>
         <v>2.6052747252747364</v>
       </c>
-      <c r="H158">
-        <f t="shared" si="12"/>
-        <v>13348.396117216116</v>
-      </c>
       <c r="I158">
-        <f t="shared" si="13"/>
-        <v>13760.029523809524</v>
+        <f>RSQ(E145:E158,F$1:F$14)</f>
+        <v>0.11353726131066037</v>
       </c>
       <c r="J158">
-        <f t="shared" si="14"/>
-        <v>0.11353726131066037</v>
+        <f>G158 + (F$2 * H158)</f>
+        <v>13728.766227106227</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6266,28 +6346,28 @@
         <v>13696.3</v>
       </c>
       <c r="E159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13701.6</v>
       </c>
       <c r="F159">
-        <f>ROW()</f>
-        <v>159</v>
+        <f t="shared" si="7"/>
+        <v>158</v>
       </c>
       <c r="G159">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E146:E159,F$1:F$14)</f>
+        <v>13744.263809523809</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="8"/>
         <v>-0.121904761904715</v>
       </c>
-      <c r="H159">
-        <f t="shared" si="12"/>
-        <v>13762.061904761898</v>
-      </c>
       <c r="I159">
-        <f t="shared" si="13"/>
-        <v>13742.679047619049</v>
+        <f>RSQ(E146:E159,F$1:F$14)</f>
+        <v>2.5741907836089606E-4</v>
       </c>
       <c r="J159">
-        <f t="shared" si="14"/>
-        <v>2.5741907836089606E-4</v>
+        <f>G159 + (F$2 * H159)</f>
+        <v>13744.141904761904</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -6304,28 +6384,28 @@
         <v>13747.1</v>
       </c>
       <c r="E160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13730.166666666666</v>
       </c>
       <c r="F160">
-        <f>ROW()</f>
-        <v>160</v>
+        <f t="shared" si="7"/>
+        <v>159</v>
       </c>
       <c r="G160">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E147:E160,F$1:F$14)</f>
+        <v>13749.595238095237</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="8"/>
         <v>-0.94175824175820977</v>
       </c>
-      <c r="H160">
-        <f t="shared" si="12"/>
-        <v>13888.033699633694</v>
-      </c>
       <c r="I160">
-        <f t="shared" si="13"/>
-        <v>13737.352380952379</v>
+        <f>RSQ(E147:E160,F$1:F$14)</f>
+        <v>1.5364117501123275E-2</v>
       </c>
       <c r="J160">
-        <f t="shared" si="14"/>
-        <v>1.5364117501123275E-2</v>
+        <f>G160 + (F$2 * H160)</f>
+        <v>13748.653479853478</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -6342,28 +6422,28 @@
         <v>13776.9</v>
       </c>
       <c r="E161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13766.966666666667</v>
       </c>
       <c r="F161">
-        <f>ROW()</f>
-        <v>161</v>
+        <f t="shared" si="7"/>
+        <v>160</v>
       </c>
       <c r="G161">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E148:E161,F$1:F$14)</f>
+        <v>13756.06476190476</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="8"/>
         <v>-1.3268131868131006</v>
       </c>
-      <c r="H161">
-        <f t="shared" si="12"/>
-        <v>13952.433113553099</v>
-      </c>
       <c r="I161">
-        <f t="shared" si="13"/>
-        <v>13738.816190476191</v>
+        <f>RSQ(E148:E161,F$1:F$14)</f>
+        <v>3.2200376212480675E-2</v>
       </c>
       <c r="J161">
-        <f t="shared" si="14"/>
-        <v>3.2200376212480675E-2</v>
+        <f>G161 + (F$2 * H161)</f>
+        <v>13754.737948717946</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -6380,28 +6460,28 @@
         <v>13783.7</v>
       </c>
       <c r="E162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13792.233333333332</v>
       </c>
       <c r="F162">
-        <f>ROW()</f>
-        <v>162</v>
+        <f t="shared" si="7"/>
+        <v>161</v>
       </c>
       <c r="G162">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E149:E162,F$1:F$14)</f>
+        <v>13758.861904761905</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="8"/>
         <v>-0.96043956043956047</v>
       </c>
-      <c r="H162">
-        <f t="shared" si="12"/>
-        <v>13901.9673992674</v>
-      </c>
       <c r="I162">
-        <f t="shared" si="13"/>
-        <v>13746.37619047619</v>
+        <f>RSQ(E149:E162,F$1:F$14)</f>
+        <v>1.5777503938824666E-2</v>
       </c>
       <c r="J162">
-        <f t="shared" si="14"/>
-        <v>1.5777503938824666E-2</v>
+        <f>G162 + (F$2 * H162)</f>
+        <v>13757.901465201465</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6418,28 +6498,28 @@
         <v>13763.1</v>
       </c>
       <c r="E163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13769.433333333334</v>
       </c>
       <c r="F163">
-        <f>ROW()</f>
-        <v>163</v>
+        <f t="shared" si="7"/>
+        <v>162</v>
       </c>
       <c r="G163">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E150:E163,F$1:F$14)</f>
+        <v>13761.70761904762</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="8"/>
         <v>-1.0301098901098198</v>
       </c>
-      <c r="H163">
-        <f t="shared" si="12"/>
-        <v>13916.224102564092</v>
-      </c>
       <c r="I163">
-        <f t="shared" si="13"/>
-        <v>13748.316190476191</v>
+        <f>RSQ(E150:E163,F$1:F$14)</f>
+        <v>1.8253625704247975E-2</v>
       </c>
       <c r="J163">
-        <f t="shared" si="14"/>
-        <v>1.8253625704247975E-2</v>
+        <f>G163 + (F$2 * H163)</f>
+        <v>13760.677509157511</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6456,28 +6536,28 @@
         <v>13756.1</v>
       </c>
       <c r="E164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13757.9</v>
       </c>
       <c r="F164">
-        <f>ROW()</f>
-        <v>164</v>
+        <f t="shared" si="7"/>
+        <v>163</v>
       </c>
       <c r="G164">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E151:E164,F$1:F$14)</f>
+        <v>13767.676190476192</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="8"/>
         <v>-1.6743589743589478</v>
       </c>
-      <c r="H164">
-        <f t="shared" si="12"/>
-        <v>14020.504395604392</v>
-      </c>
       <c r="I164">
-        <f t="shared" si="13"/>
-        <v>13745.909523809525</v>
+        <f>RSQ(E151:E164,F$1:F$14)</f>
+        <v>5.0207701336360946E-2</v>
       </c>
       <c r="J164">
-        <f t="shared" si="14"/>
-        <v>5.0207701336360946E-2</v>
+        <f>G164 + (F$2 * H164)</f>
+        <v>13766.001831501833</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6494,28 +6574,28 @@
         <v>13739.7</v>
       </c>
       <c r="E165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13745.166666666666</v>
       </c>
       <c r="F165">
-        <f>ROW()</f>
-        <v>165</v>
+        <f t="shared" si="7"/>
+        <v>164</v>
       </c>
       <c r="G165">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E152:E165,F$1:F$14)</f>
+        <v>13767.298095238095</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="8"/>
         <v>-1.8095970695971217</v>
       </c>
-      <c r="H165">
-        <f t="shared" si="12"/>
-        <v>14042.356849816857</v>
-      </c>
       <c r="I165">
-        <f t="shared" si="13"/>
-        <v>13743.773333333333</v>
+        <f>RSQ(E152:E165,F$1:F$14)</f>
+        <v>5.8290839549987782E-2</v>
       </c>
       <c r="J165">
-        <f t="shared" si="14"/>
-        <v>5.8290839549987782E-2</v>
+        <f>G165 + (F$2 * H165)</f>
+        <v>13765.488498168497</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6532,28 +6612,28 @@
         <v>13747.2</v>
       </c>
       <c r="E166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13744.700000000003</v>
       </c>
       <c r="F166">
-        <f>ROW()</f>
-        <v>166</v>
+        <f t="shared" si="7"/>
+        <v>165</v>
       </c>
       <c r="G166">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E153:E166,F$1:F$14)</f>
+        <v>13757.984761904761</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="8"/>
         <v>-0.90168498168494515</v>
       </c>
-      <c r="H166">
-        <f t="shared" si="12"/>
-        <v>13895.942564102559</v>
-      </c>
       <c r="I166">
-        <f t="shared" si="13"/>
-        <v>13746.262857142858</v>
+        <f>RSQ(E153:E166,F$1:F$14)</f>
+        <v>1.6266501584832865E-2</v>
       </c>
       <c r="J166">
-        <f t="shared" si="14"/>
-        <v>1.6266501584832865E-2</v>
+        <f>G166 + (F$2 * H166)</f>
+        <v>13757.083076923076</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -6570,28 +6650,28 @@
         <v>13766.8</v>
       </c>
       <c r="E167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13760.266666666668</v>
       </c>
       <c r="F167">
-        <f>ROW()</f>
-        <v>167</v>
+        <f t="shared" si="7"/>
+        <v>166</v>
       </c>
       <c r="G167">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E154:E167,F$1:F$14)</f>
+        <v>13744.260952380953</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="8"/>
         <v>0.80710622710628765</v>
       </c>
-      <c r="H167">
-        <f t="shared" si="12"/>
-        <v>13619.966593406585</v>
-      </c>
       <c r="I167">
-        <f t="shared" si="13"/>
-        <v>13754.753333333336</v>
+        <f>RSQ(E154:E167,F$1:F$14)</f>
+        <v>1.587299516039373E-2</v>
       </c>
       <c r="J167">
-        <f t="shared" si="14"/>
-        <v>1.587299516039373E-2</v>
+        <f>G167 + (F$2 * H167)</f>
+        <v>13745.06805860806</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -6608,28 +6688,28 @@
         <v>13784.2</v>
       </c>
       <c r="E168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13778.833333333334</v>
       </c>
       <c r="F168">
-        <f>ROW()</f>
-        <v>168</v>
+        <f t="shared" si="7"/>
+        <v>167</v>
       </c>
       <c r="G168">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E155:E168,F$1:F$14)</f>
+        <v>13727.520952380955</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="8"/>
         <v>3.1898168498169142</v>
       </c>
-      <c r="H168">
-        <f t="shared" si="12"/>
-        <v>13233.099340659333</v>
-      </c>
       <c r="I168">
-        <f t="shared" si="13"/>
-        <v>13768.988571428576</v>
+        <f>RSQ(E155:E168,F$1:F$14)</f>
+        <v>0.29012031959061058</v>
       </c>
       <c r="J168">
-        <f t="shared" si="14"/>
-        <v>0.29012031959061058</v>
+        <f>G168 + (F$2 * H168)</f>
+        <v>13730.710769230773</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -6646,28 +6726,28 @@
         <v>13785.8</v>
       </c>
       <c r="E169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13785.199999999999</v>
       </c>
       <c r="F169">
-        <f>ROW()</f>
-        <v>169</v>
+        <f t="shared" si="7"/>
+        <v>168</v>
       </c>
       <c r="G169">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E156:E169,F$1:F$14)</f>
+        <v>13724.276190476194</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="8"/>
         <v>4.1326007326007659</v>
       </c>
-      <c r="H169">
-        <f t="shared" si="12"/>
-        <v>13079.590476190475</v>
-      </c>
       <c r="I169">
-        <f t="shared" si="13"/>
-        <v>13778.000000000004</v>
+        <f>RSQ(E156:E169,F$1:F$14)</f>
+        <v>0.42160387303904001</v>
       </c>
       <c r="J169">
-        <f t="shared" si="14"/>
-        <v>0.42160387303904001</v>
+        <f>G169 + (F$2 * H169)</f>
+        <v>13728.408791208794</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6684,28 +6764,28 @@
         <v>13794.3</v>
       </c>
       <c r="E170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13791.733333333332</v>
       </c>
       <c r="F170">
-        <f>ROW()</f>
-        <v>170</v>
+        <f t="shared" si="7"/>
+        <v>169</v>
       </c>
       <c r="G170">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E157:E170,F$1:F$14)</f>
+        <v>13723.647619047622</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="8"/>
         <v>4.8296703296703178</v>
       </c>
-      <c r="H170">
-        <f t="shared" si="12"/>
-        <v>12965.389377289383</v>
-      </c>
       <c r="I170">
-        <f t="shared" si="13"/>
-        <v>13786.433333333336</v>
+        <f>RSQ(E157:E170,F$1:F$14)</f>
+        <v>0.50764798570383152</v>
       </c>
       <c r="J170">
-        <f t="shared" si="14"/>
-        <v>0.50764798570383152</v>
+        <f>G170 + (F$2 * H170)</f>
+        <v>13728.477289377293</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -6722,28 +6802,28 @@
         <v>13782.9</v>
       </c>
       <c r="E171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13792.733333333332</v>
       </c>
       <c r="F171">
-        <f>ROW()</f>
-        <v>171</v>
+        <f t="shared" si="7"/>
+        <v>170</v>
       </c>
       <c r="G171">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E158:E171,F$1:F$14)</f>
+        <v>13725.932380952385</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="8"/>
         <v>5.1459340659340214</v>
       </c>
-      <c r="H171">
-        <f t="shared" si="12"/>
-        <v>12912.874798534809</v>
-      </c>
       <c r="I171">
-        <f t="shared" si="13"/>
-        <v>13792.829523809527</v>
+        <f>RSQ(E158:E171,F$1:F$14)</f>
+        <v>0.54381644064203449</v>
       </c>
       <c r="J171">
-        <f t="shared" si="14"/>
-        <v>0.54381644064203449</v>
+        <f>G171 + (F$2 * H171)</f>
+        <v>13731.07831501832</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -6760,28 +6840,28 @@
         <v>13766.8</v>
       </c>
       <c r="E172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13772.166666666666</v>
       </c>
       <c r="F172">
-        <f>ROW()</f>
-        <v>172</v>
+        <f t="shared" si="7"/>
+        <v>171</v>
       </c>
       <c r="G172">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E159:E172,F$1:F$14)</f>
+        <v>13737.322857142857</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="8"/>
         <v>4.0283516483515793</v>
       </c>
-      <c r="H172">
-        <f t="shared" si="12"/>
-        <v>13096.814945054957</v>
-      </c>
       <c r="I172">
-        <f t="shared" si="13"/>
-        <v>13789.691428571428</v>
+        <f>RSQ(E159:E172,F$1:F$14)</f>
+        <v>0.41112386837628856</v>
       </c>
       <c r="J172">
-        <f t="shared" si="14"/>
-        <v>0.41112386837628856</v>
+        <f>G172 + (F$2 * H172)</f>
+        <v>13741.35120879121</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -6798,28 +6878,28 @@
         <v>13790.9</v>
       </c>
       <c r="E173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13782.866666666667</v>
       </c>
       <c r="F173">
-        <f>ROW()</f>
-        <v>173</v>
+        <f t="shared" si="7"/>
+        <v>172</v>
       </c>
       <c r="G173">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E160:E173,F$1:F$14)</f>
+        <v>13752.798095238097</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="8"/>
         <v>2.5405860805860336</v>
       </c>
-      <c r="H173">
-        <f t="shared" si="12"/>
-        <v>13346.304322344331</v>
-      </c>
       <c r="I173">
-        <f t="shared" si="13"/>
-        <v>13785.825714285715</v>
+        <f>RSQ(E160:E173,F$1:F$14)</f>
+        <v>0.29075843245827454</v>
       </c>
       <c r="J173">
-        <f t="shared" si="14"/>
-        <v>0.29075843245827454</v>
+        <f>G173 + (F$2 * H173)</f>
+        <v>13755.338681318683</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -6836,28 +6916,28 @@
         <v>13790.9</v>
       </c>
       <c r="E174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13790.9</v>
       </c>
       <c r="F174">
-        <f>ROW()</f>
-        <v>174</v>
+        <f t="shared" si="7"/>
+        <v>173</v>
       </c>
       <c r="G174">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E161:E174,F$1:F$14)</f>
+        <v>13761.515238095237</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="8"/>
         <v>1.8668864468863771</v>
       </c>
-      <c r="H174">
-        <f t="shared" si="12"/>
-        <v>13460.94652014653</v>
-      </c>
       <c r="I174">
-        <f t="shared" si="13"/>
-        <v>13785.784761904759</v>
+        <f>RSQ(E161:E174,F$1:F$14)</f>
+        <v>0.21311442658576382</v>
       </c>
       <c r="J174">
-        <f t="shared" si="14"/>
-        <v>0.21311442658576382</v>
+        <f>G174 + (F$2 * H174)</f>
+        <v>13763.382124542122</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6874,28 +6954,28 @@
         <v>13791.4</v>
       </c>
       <c r="E175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13798.866666666667</v>
       </c>
       <c r="F175">
-        <f>ROW()</f>
-        <v>175</v>
+        <f t="shared" si="7"/>
+        <v>174</v>
       </c>
       <c r="G175">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E162:E175,F$1:F$14)</f>
+        <v>13760.542857142855</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="8"/>
         <v>2.3670329670329231</v>
       </c>
-      <c r="H175">
-        <f t="shared" si="12"/>
-        <v>13377.083516483521</v>
-      </c>
       <c r="I175">
-        <f t="shared" si="13"/>
-        <v>13791.314285714283</v>
+        <f>RSQ(E162:E175,F$1:F$14)</f>
+        <v>0.30069151010247486</v>
       </c>
       <c r="J175">
-        <f t="shared" si="14"/>
-        <v>0.30069151010247486</v>
+        <f>G175 + (F$2 * H175)</f>
+        <v>13762.909890109888</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6912,28 +6992,28 @@
         <v>13813.4</v>
       </c>
       <c r="E176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13813.366666666667</v>
       </c>
       <c r="F176">
-        <f>ROW()</f>
-        <v>176</v>
+        <f t="shared" si="7"/>
+        <v>175</v>
       </c>
       <c r="G176">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E163:E176,F$1:F$14)</f>
+        <v>13751.605714285713</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="8"/>
         <v>3.9742124542123696</v>
       </c>
-      <c r="H176">
-        <f t="shared" si="12"/>
-        <v>13103.809084249098</v>
-      </c>
       <c r="I176">
-        <f t="shared" si="13"/>
-        <v>13803.270476190475</v>
+        <f>RSQ(E163:E176,F$1:F$14)</f>
+        <v>0.67251983214962296</v>
       </c>
       <c r="J176">
-        <f t="shared" si="14"/>
-        <v>0.67251983214962296</v>
+        <f>G176 + (F$2 * H176)</f>
+        <v>13755.579926739925</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6950,28 +7030,28 @@
         <v>13813.4</v>
       </c>
       <c r="E177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13814.266666666668</v>
       </c>
       <c r="F177">
-        <f>ROW()</f>
-        <v>177</v>
+        <f t="shared" si="7"/>
+        <v>176</v>
       </c>
       <c r="G177">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E164:E177,F$1:F$14)</f>
+        <v>13749.683809523809</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="8"/>
         <v>4.7625641025640952</v>
       </c>
-      <c r="H177">
-        <f t="shared" si="12"/>
-        <v>12968.623296703297</v>
-      </c>
       <c r="I177">
-        <f t="shared" si="13"/>
-        <v>13811.597142857143</v>
+        <f>RSQ(E164:E177,F$1:F$14)</f>
+        <v>0.7948964325347001</v>
       </c>
       <c r="J177">
-        <f t="shared" si="14"/>
-        <v>0.7948964325347001</v>
+        <f>G177 + (F$2 * H177)</f>
+        <v>13754.446373626373</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6988,28 +7068,28 @@
         <v>13813.5</v>
       </c>
       <c r="E178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13818</v>
       </c>
       <c r="F178">
-        <f>ROW()</f>
-        <v>178</v>
+        <f t="shared" si="7"/>
+        <v>177</v>
       </c>
       <c r="G178">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E165:E178,F$1:F$14)</f>
+        <v>13751.911428571429</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="8"/>
         <v>5.0802930402930189</v>
       </c>
-      <c r="H178">
-        <f t="shared" si="12"/>
-        <v>12913.663076923081</v>
-      </c>
       <c r="I178">
-        <f t="shared" si="13"/>
-        <v>13817.955238095239</v>
+        <f>RSQ(E165:E178,F$1:F$14)</f>
+        <v>0.82557021887264737</v>
       </c>
       <c r="J178">
-        <f t="shared" si="14"/>
-        <v>0.82557021887264737</v>
+        <f>G178 + (F$2 * H178)</f>
+        <v>13756.991721611723</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -7026,28 +7106,28 @@
         <v>13806.8</v>
       </c>
       <c r="E179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13812.233333333332</v>
       </c>
       <c r="F179">
-        <f>ROW()</f>
-        <v>179</v>
+        <f t="shared" si="7"/>
+        <v>178</v>
       </c>
       <c r="G179">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E166:E179,F$1:F$14)</f>
+        <v>13760.153333333334</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="8"/>
         <v>4.5493040293039391</v>
       </c>
-      <c r="H179">
-        <f t="shared" si="12"/>
-        <v>13004.968864468879</v>
-      </c>
       <c r="I179">
-        <f t="shared" si="13"/>
-        <v>13819.294285714284</v>
+        <f>RSQ(E166:E179,F$1:F$14)</f>
+        <v>0.79068132610976571</v>
       </c>
       <c r="J179">
-        <f t="shared" si="14"/>
-        <v>0.79068132610976571</v>
+        <f>G179 + (F$2 * H179)</f>
+        <v>13764.702637362638</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -7064,28 +7144,28 @@
         <v>13867.6</v>
       </c>
       <c r="E180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13849.199999999999</v>
       </c>
       <c r="F180">
-        <f>ROW()</f>
-        <v>180</v>
+        <f t="shared" si="7"/>
+        <v>179</v>
       </c>
       <c r="G180">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E167:E180,F$1:F$14)</f>
+        <v>13766.22</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="8"/>
         <v>4.7643223443223075</v>
       </c>
-      <c r="H180">
-        <f t="shared" si="12"/>
-        <v>12970.578168498174</v>
-      </c>
       <c r="I180">
-        <f t="shared" si="13"/>
-        <v>13828.156190476189</v>
+        <f>RSQ(E167:E180,F$1:F$14)</f>
+        <v>0.77246045799543039</v>
       </c>
       <c r="J180">
-        <f t="shared" si="14"/>
-        <v>0.77246045799543039</v>
+        <f>G180 + (F$2 * H180)</f>
+        <v>13770.984322344322</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -7102,28 +7182,28 @@
         <v>13839.9</v>
       </c>
       <c r="E181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13848.966666666667</v>
       </c>
       <c r="F181">
-        <f>ROW()</f>
-        <v>181</v>
+        <f t="shared" si="7"/>
+        <v>180</v>
       </c>
       <c r="G181">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E168:E181,F$1:F$14)</f>
+        <v>13770.85142857143</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="8"/>
         <v>5.0265201465201921</v>
       </c>
-      <c r="H181">
-        <f t="shared" si="12"/>
-        <v>12926.396043956038</v>
-      </c>
       <c r="I181">
-        <f t="shared" si="13"/>
-        <v>13836.196190476192</v>
+        <f>RSQ(E168:E181,F$1:F$14)</f>
+        <v>0.77248182163733914</v>
       </c>
       <c r="J181">
-        <f t="shared" si="14"/>
-        <v>0.77248182163733914</v>
+        <f>G181 + (F$2 * H181)</f>
+        <v>13775.877948717951</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -7140,28 +7220,28 @@
         <v>13829.9</v>
       </c>
       <c r="E182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13833.233333333332</v>
       </c>
       <c r="F182">
-        <f>ROW()</f>
-        <v>182</v>
+        <f t="shared" si="7"/>
+        <v>181</v>
       </c>
       <c r="G182">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E169:E182,F$1:F$14)</f>
+        <v>13774.510476190475</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="8"/>
         <v>5.0613919413919835</v>
       </c>
-      <c r="H182">
-        <f t="shared" si="12"/>
-        <v>12919.13523809523</v>
-      </c>
       <c r="I182">
-        <f t="shared" si="13"/>
-        <v>13840.308571428572</v>
+        <f>RSQ(E169:E182,F$1:F$14)</f>
+        <v>0.77680095168160324</v>
       </c>
       <c r="J182">
-        <f t="shared" si="14"/>
-        <v>0.77680095168160324</v>
+        <f>G182 + (F$2 * H182)</f>
+        <v>13779.571868131867</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -7178,28 +7258,28 @@
         <v>13816.8</v>
       </c>
       <c r="E183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13820.1</v>
       </c>
       <c r="F183">
-        <f>ROW()</f>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>182</v>
       </c>
       <c r="G183">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E170:E183,F$1:F$14)</f>
+        <v>13779.405714285715</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="8"/>
         <v>4.6917948717949196</v>
       </c>
-      <c r="H183">
-        <f t="shared" si="12"/>
-        <v>12981.800586080579</v>
-      </c>
       <c r="I183">
-        <f t="shared" si="13"/>
-        <v>13840.399047619048</v>
+        <f>RSQ(E170:E183,F$1:F$14)</f>
+        <v>0.70699904849510364</v>
       </c>
       <c r="J183">
-        <f t="shared" si="14"/>
-        <v>0.70699904849510364</v>
+        <f>G183 + (F$2 * H183)</f>
+        <v>13784.097509157509</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -7216,28 +7296,28 @@
         <v>13793.4</v>
       </c>
       <c r="E184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13801.199999999999</v>
       </c>
       <c r="F184">
-        <f>ROW()</f>
-        <v>184</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="G184">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E171:E184,F$1:F$14)</f>
+        <v>13785.591428571432</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="8"/>
         <v>3.8441758241758128</v>
       </c>
-      <c r="H184">
-        <f t="shared" si="12"/>
-        <v>13128.237362637366</v>
-      </c>
       <c r="I184">
-        <f t="shared" si="13"/>
-        <v>13835.565714285716</v>
+        <f>RSQ(E171:E184,F$1:F$14)</f>
+        <v>0.49276309504471016</v>
       </c>
       <c r="J184">
-        <f t="shared" si="14"/>
-        <v>0.49276309504471016</v>
+        <f>G184 + (F$2 * H184)</f>
+        <v>13789.435604395607</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -7254,28 +7334,28 @@
         <v>13756</v>
       </c>
       <c r="E185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13767.566666666666</v>
       </c>
       <c r="F185">
-        <f>ROW()</f>
-        <v>185</v>
+        <f t="shared" si="7"/>
+        <v>184</v>
       </c>
       <c r="G185">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E172:E185,F$1:F$14)</f>
+        <v>13795.605714285715</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="8"/>
         <v>2.0269597069596386</v>
       </c>
-      <c r="H185">
-        <f t="shared" si="12"/>
-        <v>13446.968644688659</v>
-      </c>
       <c r="I185">
-        <f t="shared" si="13"/>
-        <v>13821.956190476192</v>
+        <f>RSQ(E172:E185,F$1:F$14)</f>
+        <v>0.11249329126848788</v>
       </c>
       <c r="J185">
-        <f t="shared" si="14"/>
-        <v>0.11249329126848788</v>
+        <f>G185 + (F$2 * H185)</f>
+        <v>13797.632673992675</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -7292,28 +7372,28 @@
         <v>13710.3</v>
       </c>
       <c r="E186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13725.533333333333</v>
       </c>
       <c r="F186">
-        <f>ROW()</f>
-        <v>186</v>
+        <f t="shared" si="7"/>
+        <v>185</v>
       </c>
       <c r="G186">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E173:E186,F$1:F$14)</f>
+        <v>13815.580952380951</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="8"/>
         <v>-1.5586080586081412</v>
       </c>
-      <c r="H186">
-        <f t="shared" si="12"/>
-        <v>14085.22014652016</v>
-      </c>
       <c r="I186">
-        <f t="shared" si="13"/>
-        <v>13795.319047619045</v>
+        <f>RSQ(E173:E186,F$1:F$14)</f>
+        <v>4.0213214562558428E-2</v>
       </c>
       <c r="J186">
-        <f t="shared" si="14"/>
-        <v>4.0213214562558428E-2</v>
+        <f>G186 + (F$2 * H186)</f>
+        <v>13814.022344322342</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -7330,28 +7410,28 @@
         <v>13689.9</v>
       </c>
       <c r="E187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13693.533333333333</v>
       </c>
       <c r="F187">
-        <f>ROW()</f>
-        <v>187</v>
+        <f t="shared" si="7"/>
+        <v>186</v>
       </c>
       <c r="G187">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E174:E187,F$1:F$14)</f>
+        <v>13834.82380952381</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="8"/>
         <v>-5.5007326007326744</v>
       </c>
-      <c r="H187">
-        <f t="shared" si="12"/>
-        <v>14791.951282051295</v>
-      </c>
       <c r="I187">
-        <f t="shared" si="13"/>
-        <v>13763.314285714285</v>
+        <f>RSQ(E174:E187,F$1:F$14)</f>
+        <v>0.27328821960865762</v>
       </c>
       <c r="J187">
-        <f t="shared" si="14"/>
-        <v>0.27328821960865762</v>
+        <f>G187 + (F$2 * H187)</f>
+        <v>13829.323076923078</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -7368,28 +7448,28 @@
         <v>13733.8</v>
       </c>
       <c r="E188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13719.166666666666</v>
       </c>
       <c r="F188">
-        <f>ROW()</f>
-        <v>188</v>
+        <f t="shared" si="7"/>
+        <v>187</v>
       </c>
       <c r="G188">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E175:E188,F$1:F$14)</f>
+        <v>13846.289523809523</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="8"/>
         <v>-8.0529670329671141</v>
       </c>
-      <c r="H188">
-        <f t="shared" si="12"/>
-        <v>15255.558754578768</v>
-      </c>
       <c r="I188">
-        <f t="shared" si="13"/>
-        <v>13741.60095238095</v>
+        <f>RSQ(E175:E188,F$1:F$14)</f>
+        <v>0.47379954332243945</v>
       </c>
       <c r="J188">
-        <f t="shared" si="14"/>
-        <v>0.47379954332243945</v>
+        <f>G188 + (F$2 * H188)</f>
+        <v>13838.236556776556</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -7406,28 +7486,28 @@
         <v>13727.1</v>
       </c>
       <c r="E189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13731.9</v>
       </c>
       <c r="F189">
-        <f>ROW()</f>
-        <v>189</v>
+        <f t="shared" si="7"/>
+        <v>188</v>
       </c>
       <c r="G189">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E176:E189,F$1:F$14)</f>
+        <v>13851.974285714285</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="8"/>
         <v>-9.6634432234432879</v>
       </c>
-      <c r="H189">
-        <f t="shared" si="12"/>
-        <v>15552.740293040302</v>
-      </c>
       <c r="I189">
-        <f t="shared" si="13"/>
-        <v>13726.34952380952</v>
+        <f>RSQ(E176:E189,F$1:F$14)</f>
+        <v>0.61322770875266264</v>
       </c>
       <c r="J189">
-        <f t="shared" si="14"/>
-        <v>0.61322770875266264</v>
+        <f>G189 + (F$2 * H189)</f>
+        <v>13842.310842490841</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -7444,28 +7524,28 @@
         <v>13683.5</v>
       </c>
       <c r="E190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13695.133333333333</v>
       </c>
       <c r="F190">
-        <f>ROW()</f>
-        <v>190</v>
+        <f t="shared" si="7"/>
+        <v>189</v>
       </c>
       <c r="G190">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E177:E190,F$1:F$14)</f>
+        <v>13855.804761904759</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="8"/>
         <v>-11.552014652014691</v>
       </c>
-      <c r="H190">
-        <f t="shared" si="12"/>
-        <v>15900.511355311359</v>
-      </c>
       <c r="I190">
-        <f t="shared" si="13"/>
-        <v>13705.628571428568</v>
+        <f>RSQ(E177:E190,F$1:F$14)</f>
+        <v>0.72456332974298054</v>
       </c>
       <c r="J190">
-        <f t="shared" si="14"/>
-        <v>0.72456332974298054</v>
+        <f>G190 + (F$2 * H190)</f>
+        <v>13844.252747252745</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -7482,28 +7562,28 @@
         <v>13721.6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13707.833333333334</v>
       </c>
       <c r="F191">
-        <f>ROW()</f>
-        <v>191</v>
+        <f t="shared" si="7"/>
+        <v>190</v>
       </c>
       <c r="G191">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E178:E191,F$1:F$14)</f>
+        <v>13854.54857142857</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="8"/>
         <v>-12.528351648351592</v>
       </c>
-      <c r="H191">
-        <f t="shared" si="12"/>
-        <v>16084.595164835153</v>
-      </c>
       <c r="I191">
-        <f t="shared" si="13"/>
-        <v>13691.679999999998</v>
+        <f>RSQ(E178:E191,F$1:F$14)</f>
+        <v>0.78864836194583365</v>
       </c>
       <c r="J191">
-        <f t="shared" si="14"/>
-        <v>0.78864836194583365</v>
+        <f>G191 + (F$2 * H191)</f>
+        <v>13842.020219780217</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -7520,28 +7600,28 @@
         <v>13720.8</v>
       </c>
       <c r="E192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13734.533333333335</v>
       </c>
       <c r="F192">
-        <f>ROW()</f>
-        <v>192</v>
+        <f t="shared" si="7"/>
+        <v>191</v>
       </c>
       <c r="G192">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E179:E192,F$1:F$14)</f>
+        <v>13846.13333333333</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="8"/>
         <v>-12.150915750915626</v>
       </c>
-      <c r="H192">
-        <f t="shared" si="12"/>
-        <v>16021.147252747227</v>
-      </c>
       <c r="I192">
-        <f t="shared" si="13"/>
-        <v>13688.171428571426</v>
+        <f>RSQ(E179:E192,F$1:F$14)</f>
+        <v>0.75900894659672624</v>
       </c>
       <c r="J192">
-        <f t="shared" si="14"/>
-        <v>0.75900894659672624</v>
+        <f>G192 + (F$2 * H192)</f>
+        <v>13833.982417582414</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7558,28 +7638,28 @@
         <v>13729.6</v>
       </c>
       <c r="E193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>13723.800000000001</v>
       </c>
       <c r="F193">
-        <f>ROW()</f>
-        <v>193</v>
+        <f t="shared" si="7"/>
+        <v>192</v>
       </c>
       <c r="G193">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E180:E193,F$1:F$14)</f>
+        <v>13838.207619047616</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="8"/>
         <v>-11.903369963369835</v>
       </c>
-      <c r="H193">
-        <f t="shared" si="12"/>
-        <v>15980.814212454188</v>
-      </c>
       <c r="I193">
-        <f t="shared" si="13"/>
-        <v>13683.46380952381</v>
+        <f>RSQ(E180:E193,F$1:F$14)</f>
+        <v>0.74029971763120628</v>
       </c>
       <c r="J193">
-        <f t="shared" si="14"/>
-        <v>0.74029971763120628</v>
+        <f>G193 + (F$2 * H193)</f>
+        <v>13826.304249084247</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -7596,28 +7676,28 @@
         <v>13729.5</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E200" si="15">(B194+C194+D194)/3</f>
+        <f t="shared" ref="E194:E200" si="9">(B194+C194+D194)/3</f>
         <v>13722.266666666668</v>
       </c>
       <c r="F194">
-        <f>ROW()</f>
-        <v>194</v>
+        <f t="shared" ref="F194:F200" si="10">ROW()-1</f>
+        <v>193</v>
       </c>
       <c r="G194">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E181:E194,F$1:F$14)</f>
+        <v>13817.368571428568</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="8"/>
         <v>-10.092234432234282</v>
       </c>
-      <c r="H194">
-        <f t="shared" si="12"/>
-        <v>15644.063003662974</v>
-      </c>
       <c r="I194">
-        <f t="shared" si="13"/>
-        <v>13686.169523809524</v>
+        <f>RSQ(E181:E194,F$1:F$14)</f>
+        <v>0.64238877969317132</v>
       </c>
       <c r="J194">
-        <f t="shared" si="14"/>
-        <v>0.64238877969317132</v>
+        <f>G194 + (F$2 * H194)</f>
+        <v>13807.276336996334</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -7634,28 +7714,28 @@
         <v>13731.3</v>
       </c>
       <c r="E195">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13739.299999999997</v>
       </c>
       <c r="F195">
-        <f>ROW()</f>
-        <v>195</v>
+        <f t="shared" si="10"/>
+        <v>194</v>
       </c>
       <c r="G195">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E182:E195,F$1:F$14)</f>
+        <v>13791.022857142852</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="8"/>
         <v>-7.2441758241757288</v>
       </c>
-      <c r="H195">
-        <f t="shared" si="12"/>
-        <v>15109.462857142835</v>
-      </c>
       <c r="I195">
-        <f t="shared" si="13"/>
-        <v>13696.848571428567</v>
+        <f>RSQ(E182:E195,F$1:F$14)</f>
+        <v>0.4605997720437901</v>
       </c>
       <c r="J195">
-        <f t="shared" si="14"/>
-        <v>0.4605997720437901</v>
+        <f>G195 + (F$2 * H195)</f>
+        <v>13783.778681318676</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -7672,28 +7752,28 @@
         <v>13770.4</v>
       </c>
       <c r="E196">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13757.066666666666</v>
       </c>
       <c r="F196">
-        <f>ROW()</f>
-        <v>196</v>
+        <f t="shared" si="10"/>
+        <v>195</v>
       </c>
       <c r="G196">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E183:E196,F$1:F$14)</f>
+        <v>13764.008571428567</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="8"/>
         <v>-3.9251282051281753</v>
       </c>
-      <c r="H196">
-        <f t="shared" si="12"/>
-        <v>14482.307032967024</v>
-      </c>
       <c r="I196">
-        <f t="shared" si="13"/>
-        <v>13712.981904761902</v>
+        <f>RSQ(E183:E196,F$1:F$14)</f>
+        <v>0.19797820112480313</v>
       </c>
       <c r="J196">
-        <f t="shared" si="14"/>
-        <v>0.19797820112480313</v>
+        <f>G196 + (F$2 * H196)</f>
+        <v>13760.083443223439</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -7710,28 +7790,28 @@
         <v>13770.5</v>
       </c>
       <c r="E197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13770.466666666667</v>
       </c>
       <c r="F197">
-        <f>ROW()</f>
-        <v>197</v>
+        <f t="shared" si="10"/>
+        <v>196</v>
       </c>
       <c r="G197">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E184:E197,F$1:F$14)</f>
+        <v>13737.039047619046</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="8"/>
         <v>-0.32139194139187394</v>
       </c>
-      <c r="H197">
-        <f t="shared" si="12"/>
-        <v>13796.175164835151</v>
-      </c>
       <c r="I197">
-        <f t="shared" si="13"/>
-        <v>13732.860952380952</v>
+        <f>RSQ(E184:E197,F$1:F$14)</f>
+        <v>1.9762284516492007E-3</v>
       </c>
       <c r="J197">
-        <f t="shared" si="14"/>
-        <v>1.9762284516492007E-3</v>
+        <f>G197 + (F$2 * H197)</f>
+        <v>13736.717655677654</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -7748,28 +7828,28 @@
         <v>13727.9</v>
       </c>
       <c r="E198">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13752.066666666666</v>
       </c>
       <c r="F198">
-        <f>ROW()</f>
-        <v>198</v>
+        <f t="shared" si="10"/>
+        <v>197</v>
       </c>
       <c r="G198">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E185:E198,F$1:F$14)</f>
+        <v>13716.154285714283</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="8"/>
         <v>2.3517216117216266</v>
       </c>
-      <c r="H198">
-        <f t="shared" si="12"/>
-        <v>13281.085787545782</v>
-      </c>
       <c r="I198">
-        <f t="shared" si="13"/>
-        <v>13746.726666666664</v>
+        <f>RSQ(E185:E198,F$1:F$14)</f>
+        <v>0.16506813176703677</v>
       </c>
       <c r="J198">
-        <f t="shared" si="14"/>
-        <v>0.16506813176703677</v>
+        <f>G198 + (F$2 * H198)</f>
+        <v>13718.506007326005</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -7786,28 +7866,28 @@
         <v>13705.1</v>
       </c>
       <c r="E199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13712.699999999999</v>
       </c>
       <c r="F199">
-        <f>ROW()</f>
-        <v>199</v>
+        <f t="shared" si="10"/>
+        <v>198</v>
       </c>
       <c r="G199">
-        <f t="shared" si="11"/>
+        <f>INTERCEPT(E186:E199,F$1:F$14)</f>
+        <v>13707.974285714286</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="8"/>
         <v>3.0072527472527097</v>
       </c>
-      <c r="H199">
-        <f t="shared" si="12"/>
-        <v>13148.625274725282</v>
-      </c>
       <c r="I199">
-        <f t="shared" si="13"/>
-        <v>13747.068571428572</v>
+        <f>RSQ(E186:E199,F$1:F$14)</f>
+        <v>0.3188081723092045</v>
       </c>
       <c r="J199">
-        <f t="shared" si="14"/>
-        <v>0.3188081723092045</v>
+        <f>G199 + (F$2 * H199)</f>
+        <v>13710.981538461539</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -7824,158 +7904,470 @@
         <v>13770.5</v>
       </c>
       <c r="E200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13748.699999999999</v>
       </c>
       <c r="F200">
-        <f>ROW()</f>
-        <v>200</v>
+        <f t="shared" si="10"/>
+        <v>199</v>
       </c>
       <c r="G200">
+        <f>INTERCEPT(E187:E200,F$1:F$14)</f>
+        <v>13706.121904761907</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="8"/>
+        <v>3.5468131868131132</v>
+      </c>
+      <c r="I200">
+        <f>RSQ(E187:E200,F$1:F$14)</f>
+        <v>0.41720875134773433</v>
+      </c>
+      <c r="J200">
+        <f>G200 + (F$2 * H200)</f>
+        <v>13709.66871794872</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f>ROW()-199</f>
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <f>G$200 + (F201 * H$200)</f>
+        <v>13713.215531135533</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f t="shared" ref="F202:F213" si="11">ROW()-199</f>
+        <v>3</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <f>G$200 + (F202 * H$200)</f>
+        <v>13716.762344322346</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
         <f t="shared" si="11"/>
-        <v>3.5468131868131132</v>
-      </c>
-      <c r="H200">
-        <f t="shared" si="12"/>
-        <v>13042.867838827855</v>
-      </c>
-      <c r="I200">
-        <f>H$200 + G$200 * F200</f>
+        <v>4</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <f>G$200 + (F203 * H$200)</f>
+        <v>13720.30915750916</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <f>G$200 + (F204 * H$200)</f>
+        <v>13723.855970695973</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <f>G$200 + (F205 * H$200)</f>
+        <v>13727.402783882786</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <f>G$200 + (F206 * H$200)</f>
+        <v>13730.949597069599</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <f>G$200 + (F207 * H$200)</f>
+        <v>13734.496410256412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <f>G$200 + (F208 * H$200)</f>
+        <v>13738.043223443225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <f>G$200 + (F209 * H$200)</f>
+        <v>13741.590036630038</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <f>G$200 + (F210 * H$200)</f>
+        <v>13745.13684981685</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <f>G$200 + (F211 * H$200)</f>
+        <v>13748.683663003665</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <f>G$200 + (F212 * H$200)</f>
         <v>13752.230476190478</v>
       </c>
-      <c r="J200">
-        <f t="shared" si="14"/>
-        <v>0.41720875134773433</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F201">
-        <f>ROW()</f>
-        <v>201</v>
-      </c>
-      <c r="I201">
-        <f t="shared" ref="I201:I213" si="16">H$200 + G$200 * F201</f>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <f>G$200 + (F213 * H$200)</f>
         <v>13755.777289377291</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F202">
-        <f>ROW()</f>
-        <v>202</v>
-      </c>
-      <c r="I202">
-        <f t="shared" si="16"/>
-        <v>13759.324102564104</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F203">
-        <f>ROW()</f>
-        <v>203</v>
-      </c>
-      <c r="I203">
-        <f t="shared" si="16"/>
-        <v>13762.870915750917</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F204">
-        <f>ROW()</f>
-        <v>204</v>
-      </c>
-      <c r="I204">
-        <f t="shared" si="16"/>
-        <v>13766.417728937729</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F205">
-        <f>ROW()</f>
-        <v>205</v>
-      </c>
-      <c r="I205">
-        <f t="shared" si="16"/>
-        <v>13769.964542124544</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F206">
-        <f>ROW()</f>
-        <v>206</v>
-      </c>
-      <c r="I206">
-        <f t="shared" si="16"/>
-        <v>13773.511355311357</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F207">
-        <f>ROW()</f>
-        <v>207</v>
-      </c>
-      <c r="I207">
-        <f t="shared" si="16"/>
-        <v>13777.05816849817</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F208">
-        <f>ROW()</f>
-        <v>208</v>
-      </c>
-      <c r="I208">
-        <f t="shared" si="16"/>
-        <v>13780.604981684983</v>
-      </c>
-    </row>
-    <row r="209" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F209">
-        <f>ROW()</f>
-        <v>209</v>
-      </c>
-      <c r="I209">
-        <f t="shared" si="16"/>
-        <v>13784.151794871796</v>
-      </c>
-    </row>
-    <row r="210" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F210">
-        <f>ROW()</f>
-        <v>210</v>
-      </c>
-      <c r="I210">
-        <f t="shared" si="16"/>
-        <v>13787.698608058608</v>
-      </c>
-    </row>
-    <row r="211" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F211">
-        <f>ROW()</f>
-        <v>211</v>
-      </c>
-      <c r="I211">
-        <f t="shared" si="16"/>
-        <v>13791.245421245421</v>
-      </c>
-    </row>
-    <row r="212" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F212">
-        <f>ROW()</f>
-        <v>212</v>
-      </c>
-      <c r="I212">
-        <f t="shared" si="16"/>
-        <v>13794.792234432234</v>
-      </c>
-    </row>
-    <row r="213" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F213">
-        <f>ROW()</f>
-        <v>213</v>
-      </c>
-      <c r="I213">
-        <f t="shared" si="16"/>
-        <v>13798.339047619049</v>
       </c>
     </row>
   </sheetData>

--- a/resources/btc-linear_regression.xlsx
+++ b/resources/btc-linear_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6807D18-5C4C-4C4E-9DCE-0588A59149DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7569345-7482-4C5A-8A67-9342FEDBCF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14685" yWindow="0" windowWidth="14790" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="1980" windowWidth="19245" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C178" workbookViewId="0">
-      <selection activeCell="K202" sqref="K202"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <f>INTERCEPT(E1:E14,F$1:F$14)</f>
+        <f t="shared" ref="G14:G45" si="2">INTERCEPT(E1:E14,F$1:F$14)</f>
         <v>13320.960952380952</v>
       </c>
       <c r="H14">
@@ -852,11 +852,11 @@
         <v>-1.3284249084248185</v>
       </c>
       <c r="I14">
-        <f>RSQ(E1:E14,F$1:F$14)</f>
+        <f t="shared" ref="I14:I45" si="3">RSQ(E1:E14,F$1:F$14)</f>
         <v>2.6944237801660564E-2</v>
       </c>
       <c r="J14">
-        <f>G14 + (F$2 * H14)</f>
+        <f t="shared" ref="J14:J45" si="4">G14 + (F$2 * H14)</f>
         <v>13319.632527472528</v>
       </c>
     </row>
@@ -882,19 +882,19 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <f>INTERCEPT(E2:E15,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13314.253333333334</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H78" si="2">SLOPE(E2:E15,F$1:F$14)</f>
+        <f t="shared" ref="H15:H78" si="5">SLOPE(E2:E15,F$1:F$14)</f>
         <v>-0.46974358974345837</v>
       </c>
       <c r="I15">
-        <f>RSQ(E2:E15,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>3.471615048658313E-3</v>
       </c>
       <c r="J15">
-        <f>G15 + (F$2 * H15)</f>
+        <f t="shared" si="4"/>
         <v>13313.783589743591</v>
       </c>
     </row>
@@ -920,19 +920,19 @@
         <v>15</v>
       </c>
       <c r="G16">
-        <f>INTERCEPT(E3:E16,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13310.752380952383</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.10549450549466541</v>
       </c>
       <c r="I16">
-        <f>RSQ(E3:E16,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>1.743419502357621E-4</v>
       </c>
       <c r="J16">
-        <f>G16 + (F$2 * H16)</f>
+        <f t="shared" si="4"/>
         <v>13310.857875457878</v>
       </c>
     </row>
@@ -958,19 +958,19 @@
         <v>16</v>
       </c>
       <c r="G17">
-        <f>INTERCEPT(E4:E17,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13299.992380952381</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5110622710624699</v>
       </c>
       <c r="I17">
-        <f>RSQ(E4:E17,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>3.8523799993415167E-2</v>
       </c>
       <c r="J17">
-        <f>G17 + (F$2 * H17)</f>
+        <f t="shared" si="4"/>
         <v>13301.503443223442</v>
       </c>
     </row>
@@ -996,19 +996,19 @@
         <v>17</v>
       </c>
       <c r="G18">
-        <f>INTERCEPT(E5:E18,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13286.868571428569</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.3887179487181007</v>
       </c>
       <c r="I18">
-        <f>RSQ(E5:E18,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.20572661789185223</v>
       </c>
       <c r="J18">
-        <f>G18 + (F$2 * H18)</f>
+        <f t="shared" si="4"/>
         <v>13290.257289377287</v>
       </c>
     </row>
@@ -1034,19 +1034,19 @@
         <v>18</v>
       </c>
       <c r="G19">
-        <f>INTERCEPT(E6:E19,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13276.67619047619</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.4981684981685328</v>
       </c>
       <c r="I19">
-        <f>RSQ(E6:E19,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.41121409623544769</v>
       </c>
       <c r="J19">
-        <f>G19 + (F$2 * H19)</f>
+        <f t="shared" si="4"/>
         <v>13281.174358974358</v>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
         <v>19</v>
       </c>
       <c r="G20">
-        <f>INTERCEPT(E7:E20,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13280.601904761903</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.832673992673989</v>
       </c>
       <c r="I20">
-        <f>RSQ(E7:E20,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.29534284029851604</v>
       </c>
       <c r="J20">
-        <f>G20 + (F$2 * H20)</f>
+        <f t="shared" si="4"/>
         <v>13284.434578754577</v>
       </c>
     </row>
@@ -1110,19 +1110,19 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <f>INTERCEPT(E8:E21,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13291.96761904762</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.3148717948717943</v>
       </c>
       <c r="I21">
-        <f>RSQ(E8:E21,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.11859752419180812</v>
       </c>
       <c r="J21">
-        <f>G21 + (F$2 * H21)</f>
+        <f t="shared" si="4"/>
         <v>13294.282490842492</v>
       </c>
     </row>
@@ -1148,19 +1148,19 @@
         <v>21</v>
       </c>
       <c r="G22">
-        <f>INTERCEPT(E9:E22,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13315.19619047619</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.1045421245421505</v>
       </c>
       <c r="I22">
-        <f>RSQ(E9:E22,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>3.1830678130974899E-2</v>
       </c>
       <c r="J22">
-        <f>G22 + (F$2 * H22)</f>
+        <f t="shared" si="4"/>
         <v>13314.091648351648</v>
       </c>
     </row>
@@ -1186,19 +1186,19 @@
         <v>22</v>
       </c>
       <c r="G23">
-        <f>INTERCEPT(E10:E23,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13333.700000000003</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.8516483516484517</v>
       </c>
       <c r="I23">
-        <f>RSQ(E10:E23,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.28640091535123646</v>
       </c>
       <c r="J23">
-        <f>G23 + (F$2 * H23)</f>
+        <f t="shared" si="4"/>
         <v>13328.848351648354</v>
       </c>
     </row>
@@ -1224,19 +1224,19 @@
         <v>23</v>
       </c>
       <c r="G24">
-        <f>INTERCEPT(E11:E24,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13347.527619047622</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-7.7214652014653007</v>
       </c>
       <c r="I24">
-        <f>RSQ(E11:E24,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.54256285953890149</v>
       </c>
       <c r="J24">
-        <f>G24 + (F$2 * H24)</f>
+        <f t="shared" si="4"/>
         <v>13339.806153846157</v>
       </c>
     </row>
@@ -1262,19 +1262,19 @@
         <v>24</v>
       </c>
       <c r="G25">
-        <f>INTERCEPT(E12:E25,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13363.674285714287</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-11.211794871795012</v>
       </c>
       <c r="I25">
-        <f>RSQ(E12:E25,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.80815622042169044</v>
       </c>
       <c r="J25">
-        <f>G25 + (F$2 * H25)</f>
+        <f t="shared" si="4"/>
         <v>13352.462490842492</v>
       </c>
     </row>
@@ -1300,19 +1300,19 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <f>INTERCEPT(E13:E26,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13366.11904761905</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-13.34102564102578</v>
       </c>
       <c r="I26">
-        <f>RSQ(E13:E26,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.87216285228609813</v>
       </c>
       <c r="J26">
-        <f>G26 + (F$2 * H26)</f>
+        <f t="shared" si="4"/>
         <v>13352.778021978023</v>
       </c>
     </row>
@@ -1338,19 +1338,19 @@
         <v>26</v>
       </c>
       <c r="G27">
-        <f>INTERCEPT(E14:E27,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13357.965714285718</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-14.170549450549547</v>
       </c>
       <c r="I27">
-        <f>RSQ(E14:E27,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.88638572849045993</v>
       </c>
       <c r="J27">
-        <f>G27 + (F$2 * H27)</f>
+        <f t="shared" si="4"/>
         <v>13343.795164835168</v>
       </c>
     </row>
@@ -1376,19 +1376,19 @@
         <v>27</v>
       </c>
       <c r="G28">
-        <f>INTERCEPT(E15:E28,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13349.179047619049</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-14.416556776556847</v>
       </c>
       <c r="I28">
-        <f>RSQ(E15:E28,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.89719187026367575</v>
       </c>
       <c r="J28">
-        <f>G28 + (F$2 * H28)</f>
+        <f t="shared" si="4"/>
         <v>13334.762490842491</v>
       </c>
     </row>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <f>INTERCEPT(E16:E29,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13334.44</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-13.130329670329729</v>
       </c>
       <c r="I29">
-        <f>RSQ(E16:E29,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.80097607251466441</v>
       </c>
       <c r="J29">
-        <f>G29 + (F$2 * H29)</f>
+        <f t="shared" si="4"/>
         <v>13321.309670329671</v>
       </c>
     </row>
@@ -1452,19 +1452,19 @@
         <v>29</v>
       </c>
       <c r="G30">
-        <f>INTERCEPT(E17:E30,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13311.079047619047</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-10.107032967032954</v>
       </c>
       <c r="I30">
-        <f>RSQ(E17:E30,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.52979519994711621</v>
       </c>
       <c r="J30">
-        <f>G30 + (F$2 * H30)</f>
+        <f t="shared" si="4"/>
         <v>13300.972014652014</v>
       </c>
     </row>
@@ -1490,19 +1490,19 @@
         <v>30</v>
       </c>
       <c r="G31">
-        <f>INTERCEPT(E18:E31,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13282.769523809524</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.9802930402929757</v>
       </c>
       <c r="I31">
-        <f>RSQ(E18:E31,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.19808087501042557</v>
       </c>
       <c r="J31">
-        <f>G31 + (F$2 * H31)</f>
+        <f t="shared" si="4"/>
         <v>13276.789230769231</v>
       </c>
     </row>
@@ -1528,19 +1528,19 @@
         <v>31</v>
       </c>
       <c r="G32">
-        <f>INTERCEPT(E19:E32,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13246.372380952378</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.32468864468850528</v>
       </c>
       <c r="I32">
-        <f>RSQ(E19:E32,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>5.7086295983872944E-4</v>
       </c>
       <c r="J32">
-        <f>G32 + (F$2 * H32)</f>
+        <f t="shared" si="4"/>
         <v>13246.047692307689</v>
       </c>
     </row>
@@ -1566,19 +1566,19 @@
         <v>32</v>
       </c>
       <c r="G33">
-        <f>INTERCEPT(E20:E33,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13209.922857142852</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.4682783882785264</v>
       </c>
       <c r="I33">
-        <f>RSQ(E20:E33,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.14459574775999748</v>
       </c>
       <c r="J33">
-        <f>G33 + (F$2 * H33)</f>
+        <f t="shared" si="4"/>
         <v>13216.39113553113</v>
       </c>
     </row>
@@ -1604,19 +1604,19 @@
         <v>33</v>
       </c>
       <c r="G34">
-        <f>INTERCEPT(E21:E34,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13177.62571428571</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.998974358974458</v>
       </c>
       <c r="I34">
-        <f>RSQ(E21:E34,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.40045519399483726</v>
       </c>
       <c r="J34">
-        <f>G34 + (F$2 * H34)</f>
+        <f t="shared" si="4"/>
         <v>13190.624688644684</v>
       </c>
     </row>
@@ -1642,19 +1642,19 @@
         <v>34</v>
       </c>
       <c r="G35">
-        <f>INTERCEPT(E22:E35,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13150.13238095238</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.719194139194208</v>
       </c>
       <c r="I35">
-        <f>RSQ(E22:E35,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.65768640026728686</v>
       </c>
       <c r="J35">
-        <f>G35 + (F$2 * H35)</f>
+        <f t="shared" si="4"/>
         <v>13168.851575091574</v>
       </c>
     </row>
@@ -1680,19 +1680,19 @@
         <v>35</v>
       </c>
       <c r="G36">
-        <f>INTERCEPT(E23:E36,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13132.422857142856</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.640439560439653</v>
       </c>
       <c r="I36">
-        <f>RSQ(E23:E36,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.83001463718866719</v>
       </c>
       <c r="J36">
-        <f>G36 + (F$2 * H36)</f>
+        <f t="shared" si="4"/>
         <v>13156.063296703296</v>
       </c>
     </row>
@@ -1718,19 +1718,19 @@
         <v>36</v>
       </c>
       <c r="G37">
-        <f>INTERCEPT(E24:E37,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13134.348571428573</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>26.345641025641065</v>
       </c>
       <c r="I37">
-        <f>RSQ(E24:E37,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.89114178697741719</v>
       </c>
       <c r="J37">
-        <f>G37 + (F$2 * H37)</f>
+        <f t="shared" si="4"/>
         <v>13160.694212454213</v>
       </c>
     </row>
@@ -1756,19 +1756,19 @@
         <v>37</v>
       </c>
       <c r="G38">
-        <f>INTERCEPT(E25:E38,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13139.359999999999</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28.410549450549489</v>
       </c>
       <c r="I38">
-        <f>RSQ(E25:E38,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.94403868833425275</v>
       </c>
       <c r="J38">
-        <f>G38 + (F$2 * H38)</f>
+        <f t="shared" si="4"/>
         <v>13167.770549450548</v>
       </c>
     </row>
@@ -1794,19 +1794,19 @@
         <v>38</v>
       </c>
       <c r="G39">
-        <f>INTERCEPT(E26:E39,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13159.140952380954</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28.560000000000009</v>
       </c>
       <c r="I39">
-        <f>RSQ(E26:E39,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.94712561820635488</v>
       </c>
       <c r="J39">
-        <f>G39 + (F$2 * H39)</f>
+        <f t="shared" si="4"/>
         <v>13187.700952380954</v>
       </c>
     </row>
@@ -1832,19 +1832,19 @@
         <v>39</v>
       </c>
       <c r="G40">
-        <f>INTERCEPT(E27:E40,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13192.337142857144</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>26.955091575091551</v>
       </c>
       <c r="I40">
-        <f>RSQ(E27:E40,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.9218878050681889</v>
       </c>
       <c r="J40">
-        <f>G40 + (F$2 * H40)</f>
+        <f t="shared" si="4"/>
         <v>13219.292234432236</v>
       </c>
     </row>
@@ -1870,19 +1870,19 @@
         <v>40</v>
       </c>
       <c r="G41">
-        <f>INTERCEPT(E28:E41,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13233.995238095236</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24.3564102564102</v>
       </c>
       <c r="I41">
-        <f>RSQ(E28:E41,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.89963245511111489</v>
       </c>
       <c r="J41">
-        <f>G41 + (F$2 * H41)</f>
+        <f t="shared" si="4"/>
         <v>13258.351648351647</v>
       </c>
     </row>
@@ -1908,19 +1908,19 @@
         <v>41</v>
       </c>
       <c r="G42">
-        <f>INTERCEPT(E29:E42,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13277.881904761905</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.398021978021902</v>
       </c>
       <c r="I42">
-        <f>RSQ(E29:E42,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.8916265203820547</v>
       </c>
       <c r="J42">
-        <f>G42 + (F$2 * H42)</f>
+        <f t="shared" si="4"/>
         <v>13299.279926739928</v>
       </c>
     </row>
@@ -1946,19 +1946,19 @@
         <v>42</v>
       </c>
       <c r="G43">
-        <f>INTERCEPT(E30:E43,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13321.530476190474</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17.733406593406489</v>
       </c>
       <c r="I43">
-        <f>RSQ(E30:E43,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.85408393681064776</v>
       </c>
       <c r="J43">
-        <f>G43 + (F$2 * H43)</f>
+        <f t="shared" si="4"/>
         <v>13339.26388278388</v>
       </c>
     </row>
@@ -1984,19 +1984,19 @@
         <v>43</v>
       </c>
       <c r="G44">
-        <f>INTERCEPT(E31:E44,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13366.417142857143</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.911648351648319</v>
       </c>
       <c r="I44">
-        <f>RSQ(E31:E44,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.70171426531802483</v>
       </c>
       <c r="J44">
-        <f>G44 + (F$2 * H44)</f>
+        <f t="shared" si="4"/>
         <v>13379.328791208791</v>
       </c>
     </row>
@@ -2022,19 +2022,19 @@
         <v>44</v>
       </c>
       <c r="G45">
-        <f>INTERCEPT(E32:E45,F$1:F$14)</f>
+        <f t="shared" si="2"/>
         <v>13410.979047619046</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.5035897435897194</v>
       </c>
       <c r="I45">
-        <f>RSQ(E32:E45,F$1:F$14)</f>
+        <f t="shared" si="3"/>
         <v>0.41460329289052644</v>
       </c>
       <c r="J45">
-        <f>G45 + (F$2 * H45)</f>
+        <f t="shared" si="4"/>
         <v>13418.482637362637</v>
       </c>
     </row>
@@ -2060,19 +2060,19 @@
         <v>45</v>
       </c>
       <c r="G46">
-        <f>INTERCEPT(E33:E46,F$1:F$14)</f>
+        <f t="shared" ref="G46:G77" si="6">INTERCEPT(E33:E46,F$1:F$14)</f>
         <v>13448.041904761903</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9001465201465342</v>
       </c>
       <c r="I46">
-        <f>RSQ(E33:E46,F$1:F$14)</f>
+        <f t="shared" ref="I46:I77" si="7">RSQ(E33:E46,F$1:F$14)</f>
         <v>0.12005173303716181</v>
       </c>
       <c r="J46">
-        <f>G46 + (F$2 * H46)</f>
+        <f t="shared" ref="J46:J77" si="8">G46 + (F$2 * H46)</f>
         <v>13450.942051282051</v>
       </c>
     </row>
@@ -2098,19 +2098,19 @@
         <v>46</v>
       </c>
       <c r="G47">
-        <f>INTERCEPT(E34:E47,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13465.326666666664</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.67355311355319059</v>
       </c>
       <c r="I47">
-        <f>RSQ(E34:E47,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>7.8847306478801067E-3</v>
       </c>
       <c r="J47">
-        <f>G47 + (F$2 * H47)</f>
+        <f t="shared" si="8"/>
         <v>13466.000219780217</v>
       </c>
     </row>
@@ -2136,19 +2136,19 @@
         <v>47</v>
       </c>
       <c r="G48">
-        <f>INTERCEPT(E35:E48,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13474.871428571429</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.34835164835162036</v>
       </c>
       <c r="I48">
-        <f>RSQ(E35:E48,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>2.3514324439747963E-3</v>
       </c>
       <c r="J48">
-        <f>G48 + (F$2 * H48)</f>
+        <f t="shared" si="8"/>
         <v>13474.523076923077</v>
       </c>
     </row>
@@ -2174,19 +2174,19 @@
         <v>48</v>
       </c>
       <c r="G49">
-        <f>INTERCEPT(E36:E49,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13487.678095238096</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.8241025641026412</v>
       </c>
       <c r="I49">
-        <f>RSQ(E36:E49,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>7.8998060542566501E-2</v>
       </c>
       <c r="J49">
-        <f>G49 + (F$2 * H49)</f>
+        <f t="shared" si="8"/>
         <v>13485.853992673994</v>
       </c>
     </row>
@@ -2212,19 +2212,19 @@
         <v>49</v>
       </c>
       <c r="G50">
-        <f>INTERCEPT(E37:E50,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13492.044761904763</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.2636630036630248</v>
       </c>
       <c r="I50">
-        <f>RSQ(E37:E50,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.12561600082964125</v>
       </c>
       <c r="J50">
-        <f>G50 + (F$2 * H50)</f>
+        <f t="shared" si="8"/>
         <v>13489.7810989011</v>
       </c>
     </row>
@@ -2250,19 +2250,19 @@
         <v>50</v>
       </c>
       <c r="G51">
-        <f>INTERCEPT(E38:E51,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13491.089523809524</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.9877655677655739</v>
       </c>
       <c r="I51">
-        <f>RSQ(E38:E51,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>9.5775827149981563E-2</v>
       </c>
       <c r="J51">
-        <f>G51 + (F$2 * H51)</f>
+        <f t="shared" si="8"/>
         <v>13489.101758241757</v>
       </c>
     </row>
@@ -2288,19 +2288,19 @@
         <v>51</v>
       </c>
       <c r="G52">
-        <f>INTERCEPT(E39:E52,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13484.597142857143</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.33509157509160414</v>
       </c>
       <c r="I52">
-        <f>RSQ(E39:E52,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>2.0304022158475401E-3</v>
       </c>
       <c r="J52">
-        <f>G52 + (F$2 * H52)</f>
+        <f t="shared" si="8"/>
         <v>13484.262051282052</v>
       </c>
     </row>
@@ -2326,19 +2326,19 @@
         <v>52</v>
       </c>
       <c r="G53">
-        <f>INTERCEPT(E40:E53,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13474.32857142857</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.244322344322299</v>
       </c>
       <c r="I53">
-        <f>RSQ(E40:E53,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>5.670833364284255E-2</v>
       </c>
       <c r="J53">
-        <f>G53 + (F$2 * H53)</f>
+        <f t="shared" si="8"/>
         <v>13476.572893772893</v>
       </c>
     </row>
@@ -2364,19 +2364,19 @@
         <v>53</v>
       </c>
       <c r="G54">
-        <f>INTERCEPT(E41:E54,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13464.46095238095</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.6913553113553172</v>
       </c>
       <c r="I54">
-        <f>RSQ(E41:E54,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.18592694098693738</v>
       </c>
       <c r="J54">
-        <f>G54 + (F$2 * H54)</f>
+        <f t="shared" si="8"/>
         <v>13469.152307692306</v>
       </c>
     </row>
@@ -2402,19 +2402,19 @@
         <v>54</v>
       </c>
       <c r="G55">
-        <f>INTERCEPT(E42:E55,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13450.206666666665</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.6352380952380665</v>
       </c>
       <c r="I55">
-        <f>RSQ(E42:E55,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.3962770844603879</v>
       </c>
       <c r="J55">
-        <f>G55 + (F$2 * H55)</f>
+        <f t="shared" si="8"/>
         <v>13457.841904761903</v>
       </c>
     </row>
@@ -2440,19 +2440,19 @@
         <v>55</v>
       </c>
       <c r="G56">
-        <f>INTERCEPT(E43:E56,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13430.927619047621</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11.326886446886476</v>
       </c>
       <c r="I56">
-        <f>RSQ(E43:E56,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.70518435352519226</v>
       </c>
       <c r="J56">
-        <f>G56 + (F$2 * H56)</f>
+        <f t="shared" si="8"/>
         <v>13442.254505494508</v>
       </c>
     </row>
@@ -2478,19 +2478,19 @@
         <v>56</v>
       </c>
       <c r="G57">
-        <f>INTERCEPT(E44:E57,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13421.350476190475</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13.660366300366306</v>
       </c>
       <c r="I57">
-        <f>RSQ(E44:E57,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.89702833289314787</v>
       </c>
       <c r="J57">
-        <f>G57 + (F$2 * H57)</f>
+        <f t="shared" si="8"/>
         <v>13435.010842490841</v>
       </c>
     </row>
@@ -2516,19 +2516,19 @@
         <v>57</v>
       </c>
       <c r="G58">
-        <f>INTERCEPT(E45:E58,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13427.165714285713</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14.13384615384618</v>
       </c>
       <c r="I58">
-        <f>RSQ(E45:E58,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.92292820225570982</v>
       </c>
       <c r="J58">
-        <f>G58 + (F$2 * H58)</f>
+        <f t="shared" si="8"/>
         <v>13441.299560439558</v>
       </c>
     </row>
@@ -2554,19 +2554,19 @@
         <v>58</v>
       </c>
       <c r="G59">
-        <f>INTERCEPT(E46:E59,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13438.675238095237</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14.564249084249113</v>
       </c>
       <c r="I59">
-        <f>RSQ(E46:E59,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.92723511222760246</v>
       </c>
       <c r="J59">
-        <f>G59 + (F$2 * H59)</f>
+        <f t="shared" si="8"/>
         <v>13453.239487179486</v>
       </c>
     </row>
@@ -2592,19 +2592,19 @@
         <v>59</v>
       </c>
       <c r="G60">
-        <f>INTERCEPT(E47:E60,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13447.362857142856</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.040146520146571</v>
       </c>
       <c r="I60">
-        <f>RSQ(E47:E60,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.91002346576421433</v>
       </c>
       <c r="J60">
-        <f>G60 + (F$2 * H60)</f>
+        <f t="shared" si="8"/>
         <v>13463.403003663003</v>
       </c>
     </row>
@@ -2630,19 +2630,19 @@
         <v>60</v>
       </c>
       <c r="G61">
-        <f>INTERCEPT(E48:E61,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13456.077142857144</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17.700952380952486</v>
       </c>
       <c r="I61">
-        <f>RSQ(E48:E61,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.90157840983352089</v>
       </c>
       <c r="J61">
-        <f>G61 + (F$2 * H61)</f>
+        <f t="shared" si="8"/>
         <v>13473.778095238096</v>
       </c>
     </row>
@@ -2668,19 +2668,19 @@
         <v>61</v>
       </c>
       <c r="G62">
-        <f>INTERCEPT(E49:E62,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13469.825714285715</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17.966373626373727</v>
       </c>
       <c r="I62">
-        <f>RSQ(E49:E62,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.90737238418193844</v>
       </c>
       <c r="J62">
-        <f>G62 + (F$2 * H62)</f>
+        <f t="shared" si="8"/>
         <v>13487.792087912088</v>
       </c>
     </row>
@@ -2706,19 +2706,19 @@
         <v>62</v>
       </c>
       <c r="G63">
-        <f>INTERCEPT(E50:E63,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13490.40380952381</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17.201611721611823</v>
       </c>
       <c r="I63">
-        <f>RSQ(E50:E63,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.89159877178487168</v>
       </c>
       <c r="J63">
-        <f>G63 + (F$2 * H63)</f>
+        <f t="shared" si="8"/>
         <v>13507.605421245422</v>
       </c>
     </row>
@@ -2744,19 +2744,19 @@
         <v>63</v>
       </c>
       <c r="G64">
-        <f>INTERCEPT(E51:E64,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13510.489523809523</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.880732600732678</v>
       </c>
       <c r="I64">
-        <f>RSQ(E51:E64,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.88961051246106704</v>
       </c>
       <c r="J64">
-        <f>G64 + (F$2 * H64)</f>
+        <f t="shared" si="8"/>
         <v>13527.370256410255</v>
       </c>
     </row>
@@ -2782,19 +2782,19 @@
         <v>64</v>
       </c>
       <c r="G65">
-        <f>INTERCEPT(E52:E65,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13537.769523809524</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15.142051282051378</v>
       </c>
       <c r="I65">
-        <f>RSQ(E52:E65,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.86601241136387352</v>
       </c>
       <c r="J65">
-        <f>G65 + (F$2 * H65)</f>
+        <f t="shared" si="8"/>
         <v>13552.911575091575</v>
       </c>
     </row>
@@ -2812,27 +2812,27 @@
         <v>13654.2</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="3">(B66+C66+D66)/3</f>
+        <f t="shared" ref="E66:E129" si="9">(B66+C66+D66)/3</f>
         <v>13667.5</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F129" si="4">ROW()-1</f>
+        <f t="shared" ref="F66:F129" si="10">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="G66">
-        <f>INTERCEPT(E53:E66,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13562.560952380953</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.763150183150239</v>
       </c>
       <c r="I66">
-        <f>RSQ(E53:E66,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.73919489506274005</v>
       </c>
       <c r="J66">
-        <f>G66 + (F$2 * H66)</f>
+        <f t="shared" si="8"/>
         <v>13575.324102564104</v>
       </c>
     </row>
@@ -2850,27 +2850,27 @@
         <v>13668.4</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13663.666666666666</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="G67">
-        <f>INTERCEPT(E54:E67,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13581.188571428569</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.892967032967011</v>
       </c>
       <c r="I67">
-        <f>RSQ(E54:E67,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.60487708171737309</v>
       </c>
       <c r="J67">
-        <f>G67 + (F$2 * H67)</f>
+        <f t="shared" si="8"/>
         <v>13592.081538461536</v>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
         <v>13661.1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13663.5</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="G68">
-        <f>INTERCEPT(E55:E68,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13602.166666666666</v>
       </c>
       <c r="H68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.6494505494505134</v>
       </c>
       <c r="I68">
-        <f>RSQ(E55:E68,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.44672198428964782</v>
       </c>
       <c r="J68">
-        <f>G68 + (F$2 * H68)</f>
+        <f t="shared" si="8"/>
         <v>13610.816117216116</v>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
         <v>13638.4</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13638.566666666668</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="G69">
-        <f>INTERCEPT(E56:E69,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13627</v>
       </c>
       <c r="H69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.4791208791208268</v>
       </c>
       <c r="I69">
-        <f>RSQ(E56:E69,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.2134063288653828</v>
       </c>
       <c r="J69">
-        <f>G69 + (F$2 * H69)</f>
+        <f t="shared" si="8"/>
         <v>13632.479120879121</v>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
         <v>13660</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13652.866666666667</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="G70">
-        <f>INTERCEPT(E57:E70,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13647.375238095241</v>
       </c>
       <c r="H70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9781684981684999</v>
       </c>
       <c r="I70">
-        <f>RSQ(E57:E70,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>7.3868616687706723E-2</v>
       </c>
       <c r="J70">
-        <f>G70 + (F$2 * H70)</f>
+        <f t="shared" si="8"/>
         <v>13650.353406593409</v>
       </c>
     </row>
@@ -3002,27 +3002,27 @@
         <v>13665.7</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13663.800000000001</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="G71">
-        <f>INTERCEPT(E58:E71,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13671.234285714287</v>
       </c>
       <c r="H71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18007326007325822</v>
       </c>
       <c r="I71">
-        <f>RSQ(E58:E71,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>3.6709360555072759E-4</v>
       </c>
       <c r="J71">
-        <f>G71 + (F$2 * H71)</f>
+        <f t="shared" si="8"/>
         <v>13671.41435897436</v>
       </c>
     </row>
@@ -3040,27 +3040,27 @@
         <v>13697.4</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13690.033333333333</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="G72">
-        <f>INTERCEPT(E59:E72,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13694.325714285716</v>
       </c>
       <c r="H72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.2131135531136144</v>
       </c>
       <c r="I72">
-        <f>RSQ(E59:E72,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>9.371409127336483E-2</v>
       </c>
       <c r="J72">
-        <f>G72 + (F$2 * H72)</f>
+        <f t="shared" si="8"/>
         <v>13692.112600732602</v>
       </c>
     </row>
@@ -3078,27 +3078,27 @@
         <v>13697.4</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13697.4</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="G73">
-        <f>INTERCEPT(E60:E73,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13705.646666666667</v>
       </c>
       <c r="H73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.2507692307693117</v>
       </c>
       <c r="I73">
-        <f>RSQ(E60:E73,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.24709495509427667</v>
       </c>
       <c r="J73">
-        <f>G73 + (F$2 * H73)</f>
+        <f t="shared" si="8"/>
         <v>13702.395897435897</v>
       </c>
     </row>
@@ -3116,27 +3116,27 @@
         <v>13637.1</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13655.833333333334</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="G74">
-        <f>INTERCEPT(E61:E74,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13706.091428571428</v>
       </c>
       <c r="H74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.7433699633700197</v>
       </c>
       <c r="I74">
-        <f>RSQ(E61:E74,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.30808709254256467</v>
       </c>
       <c r="J74">
-        <f>G74 + (F$2 * H74)</f>
+        <f t="shared" si="8"/>
         <v>13702.348058608059</v>
       </c>
     </row>
@@ -3154,27 +3154,27 @@
         <v>13636.2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13636.5</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="G75">
-        <f>INTERCEPT(E62:E75,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13698.928571428572</v>
       </c>
       <c r="H75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.6131868131868612</v>
       </c>
       <c r="I75">
-        <f>RSQ(E62:E75,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.29779925021303255</v>
       </c>
       <c r="J75">
-        <f>G75 + (F$2 * H75)</f>
+        <f t="shared" si="8"/>
         <v>13695.315384615385</v>
       </c>
     </row>
@@ -3192,27 +3192,27 @@
         <v>13654.1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13648.133333333333</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="G76">
-        <f>INTERCEPT(E63:E76,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13697.461904761905</v>
       </c>
       <c r="H76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.8641025641026348</v>
       </c>
       <c r="I76">
-        <f>RSQ(E63:E76,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.32893271865206514</v>
       </c>
       <c r="J76">
-        <f>G76 + (F$2 * H76)</f>
+        <f t="shared" si="8"/>
         <v>13693.597802197803</v>
       </c>
     </row>
@@ -3230,27 +3230,27 @@
         <v>13636.2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13640.133333333333</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="G77">
-        <f>INTERCEPT(E64:E77,F$1:F$14)</f>
+        <f t="shared" si="6"/>
         <v>13695.746666666668</v>
       </c>
       <c r="H77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.1617582417582666</v>
       </c>
       <c r="I77">
-        <f>RSQ(E64:E77,F$1:F$14)</f>
+        <f t="shared" si="7"/>
         <v>0.36413031135018736</v>
       </c>
       <c r="J77">
-        <f>G77 + (F$2 * H77)</f>
+        <f t="shared" si="8"/>
         <v>13691.584908424909</v>
       </c>
     </row>
@@ -3268,27 +3268,27 @@
         <v>13663.6</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13652.6</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="G78">
-        <f>INTERCEPT(E65:E78,F$1:F$14)</f>
+        <f t="shared" ref="G78:G109" si="11">INTERCEPT(E65:E78,F$1:F$14)</f>
         <v>13679.499047619049</v>
       </c>
       <c r="H78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.5346520146520382</v>
       </c>
       <c r="I78">
-        <f>RSQ(E65:E78,F$1:F$14)</f>
+        <f t="shared" ref="I78:I109" si="12">RSQ(E65:E78,F$1:F$14)</f>
         <v>0.22069607029143296</v>
       </c>
       <c r="J78">
-        <f>G78 + (F$2 * H78)</f>
+        <f t="shared" ref="J78:J109" si="13">G78 + (F$2 * H78)</f>
         <v>13676.964395604396</v>
       </c>
     </row>
@@ -3306,27 +3306,27 @@
         <v>13639.5</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13647.533333333333</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="G79">
-        <f>INTERCEPT(E66:E79,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13667.33333333333</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79:H142" si="5">SLOPE(E66:E79,F$1:F$14)</f>
+        <f t="shared" ref="H79:H142" si="14">SLOPE(E66:E79,F$1:F$14)</f>
         <v>-1.3692307692307812</v>
       </c>
       <c r="I79">
-        <f>RSQ(E66:E79,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.10183383052073054</v>
       </c>
       <c r="J79">
-        <f>G79 + (F$2 * H79)</f>
+        <f t="shared" si="13"/>
         <v>13665.964102564099</v>
       </c>
     </row>
@@ -3344,27 +3344,27 @@
         <v>13671.3</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13660.699999999999</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="G80">
-        <f>INTERCEPT(E67:E80,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13664.483809523808</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.0055677655678126</v>
       </c>
       <c r="I80">
-        <f>RSQ(E67:E80,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>5.5998458082075993E-2</v>
       </c>
       <c r="J80">
-        <f>G80 + (F$2 * H80)</f>
+        <f t="shared" si="13"/>
         <v>13663.478241758241</v>
       </c>
     </row>
@@ -3382,27 +3382,27 @@
         <v>13640.5</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13650.766666666668</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="G81">
-        <f>INTERCEPT(E68:E81,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13663.670476190477</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.0221978021978231</v>
       </c>
       <c r="I81">
-        <f>RSQ(E68:E81,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>5.7767929176276912E-2</v>
       </c>
       <c r="J81">
-        <f>G81 + (F$2 * H81)</f>
+        <f t="shared" si="13"/>
         <v>13662.648278388278</v>
       </c>
     </row>
@@ -3420,27 +3420,27 @@
         <v>13655</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13649.433333333334</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="G82">
-        <f>INTERCEPT(E69:E82,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13662.688571428571</v>
       </c>
       <c r="H82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.0257142857142874</v>
       </c>
       <c r="I82">
-        <f>RSQ(E69:E82,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>5.8143354776551824E-2</v>
       </c>
       <c r="J82">
-        <f>G82 + (F$2 * H82)</f>
+        <f t="shared" si="13"/>
         <v>13661.662857142857</v>
       </c>
     </row>
@@ -3458,27 +3458,27 @@
         <v>13689</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13677.666666666666</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="G83">
-        <f>INTERCEPT(E70:E83,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13665.201904761903</v>
       </c>
       <c r="H83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-0.98271062271062648</v>
       </c>
       <c r="I83">
-        <f>RSQ(E70:E83,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>5.2670967003750173E-2</v>
       </c>
       <c r="J83">
-        <f>G83 + (F$2 * H83)</f>
+        <f t="shared" si="13"/>
         <v>13664.219194139192</v>
       </c>
     </row>
@@ -3496,27 +3496,27 @@
         <v>13689</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13689</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="G84">
-        <f>INTERCEPT(E71:E84,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13663.45142857143</v>
       </c>
       <c r="H84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-0.31633699633700246</v>
       </c>
       <c r="I84">
-        <f>RSQ(E71:E84,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>4.5956549553251456E-3</v>
       </c>
       <c r="J84">
-        <f>G84 + (F$2 * H84)</f>
+        <f t="shared" si="13"/>
         <v>13663.135091575094</v>
       </c>
     </row>
@@ -3534,27 +3534,27 @@
         <v>13705.7</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13700.533333333335</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="G85">
-        <f>INTERCEPT(E72:E85,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13658.291428571431</v>
       </c>
       <c r="H85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.8811721611722233</v>
       </c>
       <c r="I85">
-        <f>RSQ(E72:E85,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>2.7672766852319165E-2</v>
       </c>
       <c r="J85">
-        <f>G85 + (F$2 * H85)</f>
+        <f t="shared" si="13"/>
         <v>13659.172600732603</v>
       </c>
     </row>
@@ -3572,27 +3572,27 @@
         <v>13724.4</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13723.199999999999</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="G86">
-        <f>INTERCEPT(E73:E86,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13644.095238095239</v>
       </c>
       <c r="H86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.4296703296703375</v>
       </c>
       <c r="I86">
-        <f>RSQ(E73:E86,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.29308546225499893</v>
       </c>
       <c r="J86">
-        <f>G86 + (F$2 * H86)</f>
+        <f t="shared" si="13"/>
         <v>13647.524908424908</v>
       </c>
     </row>
@@ -3610,27 +3610,27 @@
         <v>13740.5</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13735.133333333333</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="G87">
-        <f>INTERCEPT(E74:E87,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13627.378095238095</v>
       </c>
       <c r="H87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.4161904761904642</v>
       </c>
       <c r="I87">
-        <f>RSQ(E74:E87,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.73209334451620012</v>
       </c>
       <c r="J87">
-        <f>G87 + (F$2 * H87)</f>
+        <f t="shared" si="13"/>
         <v>13633.794285714286</v>
       </c>
     </row>
@@ -3648,27 +3648,27 @@
         <v>13744</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13742.833333333334</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="G88">
-        <f>INTERCEPT(E75:E88,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13622.73523809524</v>
       </c>
       <c r="H88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8.0865201465201668</v>
       </c>
       <c r="I88">
-        <f>RSQ(E75:E88,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.8493281429034778</v>
       </c>
       <c r="J88">
-        <f>G88 + (F$2 * H88)</f>
+        <f t="shared" si="13"/>
         <v>13630.82175824176</v>
       </c>
     </row>
@@ -3686,27 +3686,27 @@
         <v>13750.6</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13748.4</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="G89">
-        <f>INTERCEPT(E76:E89,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13625.465714285716</v>
       </c>
       <c r="H89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8.8961172161172204</v>
       </c>
       <c r="I89">
-        <f>RSQ(E76:E89,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.87998493067801264</v>
       </c>
       <c r="J89">
-        <f>G89 + (F$2 * H89)</f>
+        <f t="shared" si="13"/>
         <v>13634.361831501834</v>
       </c>
     </row>
@@ -3724,27 +3724,27 @@
         <v>13734.5</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13736.5</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="G90">
-        <f>INTERCEPT(E77:E90,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13629.429523809524</v>
       </c>
       <c r="H90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>9.2573626373626343</v>
       </c>
       <c r="I90">
-        <f>RSQ(E77:E90,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.90691631052110888</v>
       </c>
       <c r="J90">
-        <f>G90 + (F$2 * H90)</f>
+        <f t="shared" si="13"/>
         <v>13638.686886446887</v>
       </c>
     </row>
@@ -3762,27 +3762,27 @@
         <v>13743.3</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13740.633333333331</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="G91">
-        <f>INTERCEPT(E78:E91,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13637.731428571431</v>
       </c>
       <c r="H91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>9.0845421245420575</v>
       </c>
       <c r="I91">
-        <f>RSQ(E78:E91,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.89692202716737202</v>
       </c>
       <c r="J91">
-        <f>G91 + (F$2 * H91)</f>
+        <f t="shared" si="13"/>
         <v>13646.815970695972</v>
       </c>
     </row>
@@ -3800,27 +3800,27 @@
         <v>13750.6</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13748.166666666666</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="G92">
-        <f>INTERCEPT(E79:E92,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13644.481904761906</v>
       </c>
       <c r="H92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>9.096190476190408</v>
       </c>
       <c r="I92">
-        <f>RSQ(E79:E92,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.89767214344477375</v>
       </c>
       <c r="J92">
-        <f>G92 + (F$2 * H92)</f>
+        <f t="shared" si="13"/>
         <v>13653.578095238096</v>
       </c>
     </row>
@@ -3838,27 +3838,27 @@
         <v>13724.4</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13733.133333333333</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="G93">
-        <f>INTERCEPT(E80:E93,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13657.128571428571</v>
       </c>
       <c r="H93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8.0912087912087109</v>
       </c>
       <c r="I93">
-        <f>RSQ(E80:E93,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.81954428155212367</v>
       </c>
       <c r="J93">
-        <f>G93 + (F$2 * H93)</f>
+        <f t="shared" si="13"/>
         <v>13665.219780219781</v>
       </c>
     </row>
@@ -3876,27 +3876,27 @@
         <v>13706.3</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13710.466666666665</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="G94">
-        <f>INTERCEPT(E81:E94,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13671.049523809525</v>
       </c>
       <c r="H94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.4964102564101092</v>
       </c>
       <c r="I94">
-        <f>RSQ(E81:E94,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.6157050443786829</v>
       </c>
       <c r="J94">
-        <f>G94 + (F$2 * H94)</f>
+        <f t="shared" si="13"/>
         <v>13677.545934065934</v>
       </c>
     </row>
@@ -3914,27 +3914,27 @@
         <v>13741.9</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13730.033333333333</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="G95">
-        <f>INTERCEPT(E82:E95,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13686.994285714283</v>
       </c>
       <c r="H95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.9144322344321321</v>
       </c>
       <c r="I95">
-        <f>RSQ(E82:E95,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.47701553536263736</v>
       </c>
       <c r="J95">
-        <f>G95 + (F$2 * H95)</f>
+        <f t="shared" si="13"/>
         <v>13691.908717948716</v>
       </c>
     </row>
@@ -3952,27 +3952,27 @@
         <v>13757.7</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13752.866666666669</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="G96">
-        <f>INTERCEPT(E83:E96,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13702.975238095238</v>
       </c>
       <c r="H96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.5924542124542143</v>
       </c>
       <c r="I96">
-        <f>RSQ(E83:E96,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.41501612509402946</v>
       </c>
       <c r="J96">
-        <f>G96 + (F$2 * H96)</f>
+        <f t="shared" si="13"/>
         <v>13706.567692307692</v>
       </c>
     </row>
@@ -3990,27 +3990,27 @@
         <v>13776.9</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13770.5</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="G97">
-        <f>INTERCEPT(E84:E97,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13711.829523809523</v>
       </c>
       <c r="H97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.2504029304029247</v>
       </c>
       <c r="I97">
-        <f>RSQ(E84:E97,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.39777294611172492</v>
       </c>
       <c r="J97">
-        <f>G97 + (F$2 * H97)</f>
+        <f t="shared" si="13"/>
         <v>13715.079926739927</v>
       </c>
     </row>
@@ -4028,27 +4028,27 @@
         <v>13857.2</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13830.433333333334</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="G98">
-        <f>INTERCEPT(E85:E98,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13713.24857142857</v>
       </c>
       <c r="H98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.5863003663003976</v>
       </c>
       <c r="I98">
-        <f>RSQ(E85:E98,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.39277870371754781</v>
       </c>
       <c r="J98">
-        <f>G98 + (F$2 * H98)</f>
+        <f t="shared" si="13"/>
         <v>13717.83487179487</v>
       </c>
     </row>
@@ -4066,27 +4066,27 @@
         <v>13839.2</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13844.166666666666</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="G99">
-        <f>INTERCEPT(E86:E99,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13713.843809523809</v>
       </c>
       <c r="H99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.0731135531136164</v>
       </c>
       <c r="I99">
-        <f>RSQ(E86:E99,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.43876562855984452</v>
       </c>
       <c r="J99">
-        <f>G99 + (F$2 * H99)</f>
+        <f t="shared" si="13"/>
         <v>13719.916923076922</v>
       </c>
     </row>
@@ -4104,27 +4104,27 @@
         <v>13845</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13840.333333333334</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="G100">
-        <f>INTERCEPT(E87:E100,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13712.50476190476</v>
       </c>
       <c r="H100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.5663003663004247</v>
       </c>
       <c r="I100">
-        <f>RSQ(E87:E100,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.52499699144858392</v>
       </c>
       <c r="J100">
-        <f>G100 + (F$2 * H100)</f>
+        <f t="shared" si="13"/>
         <v>13720.071062271061</v>
       </c>
     </row>
@@ -4142,27 +4142,27 @@
         <v>13821.5</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13829.133333333333</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G101">
-        <f>INTERCEPT(E88:E101,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13712.382857142857</v>
       </c>
       <c r="H101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8.6180219780220355</v>
       </c>
       <c r="I101">
-        <f>RSQ(E88:E101,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.60299377360426987</v>
       </c>
       <c r="J101">
-        <f>G101 + (F$2 * H101)</f>
+        <f t="shared" si="13"/>
         <v>13721.000879120878</v>
       </c>
     </row>
@@ -4180,27 +4180,27 @@
         <v>13840.7</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13832.666666666666</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="G102">
-        <f>INTERCEPT(E89:E102,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13712.342857142854</v>
       </c>
       <c r="H102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>9.6113553113553785</v>
       </c>
       <c r="I102">
-        <f>RSQ(E89:E102,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.67966566769489045</v>
       </c>
       <c r="J102">
-        <f>G102 + (F$2 * H102)</f>
+        <f t="shared" si="13"/>
         <v>13721.954212454209</v>
       </c>
     </row>
@@ -4218,27 +4218,27 @@
         <v>13853.2</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13849.966666666667</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="G103">
-        <f>INTERCEPT(E90:E103,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13711.301904761905</v>
       </c>
       <c r="H103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>10.887619047619127</v>
       </c>
       <c r="I103">
-        <f>RSQ(E90:E103,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.76757359433665806</v>
       </c>
       <c r="J103">
-        <f>G103 + (F$2 * H103)</f>
+        <f t="shared" si="13"/>
         <v>13722.189523809524</v>
       </c>
     </row>
@@ -4256,27 +4256,27 @@
         <v>13880.2</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13871.433333333334</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="G104">
-        <f>INTERCEPT(E91:E104,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13714.109523809524</v>
       </c>
       <c r="H104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>11.938461538461654</v>
       </c>
       <c r="I104">
-        <f>RSQ(E91:E104,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.81587858738710139</v>
       </c>
       <c r="J104">
-        <f>G104 + (F$2 * H104)</f>
+        <f t="shared" si="13"/>
         <v>13726.047985347986</v>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
         <v>13878.5</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13882.833333333334</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="G105">
-        <f>INTERCEPT(E92:E105,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13718.288571428571</v>
       </c>
       <c r="H105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>12.85816849816857</v>
       </c>
       <c r="I105">
-        <f>RSQ(E92:E105,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.854986227176465</v>
       </c>
       <c r="J105">
-        <f>G105 + (F$2 * H105)</f>
+        <f t="shared" si="13"/>
         <v>13731.14673992674</v>
       </c>
     </row>
@@ -4332,27 +4332,27 @@
         <v>13854.8</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13859.633333333331</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="G106">
-        <f>INTERCEPT(E93:E106,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13727.029523809526</v>
       </c>
       <c r="H106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>12.738315018315008</v>
       </c>
       <c r="I106">
-        <f>RSQ(E93:E106,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.84748585423325462</v>
       </c>
       <c r="J106">
-        <f>G106 + (F$2 * H106)</f>
+        <f t="shared" si="13"/>
         <v>13739.767838827842</v>
       </c>
     </row>
@@ -4370,27 +4370,27 @@
         <v>13845.6</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13842.733333333332</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="G107">
-        <f>INTERCEPT(E94:E107,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13745.181904761906</v>
       </c>
       <c r="H107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>11.150036630036569</v>
       </c>
       <c r="I107">
-        <f>RSQ(E94:E107,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.74624721594159016</v>
       </c>
       <c r="J107">
-        <f>G107 + (F$2 * H107)</f>
+        <f t="shared" si="13"/>
         <v>13756.331941391943</v>
       </c>
     </row>
@@ -4408,27 +4408,27 @@
         <v>13806.3</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13813.266666666668</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="G108">
-        <f>INTERCEPT(E95:E108,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13776.309523809525</v>
       </c>
       <c r="H108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.4908424908424358</v>
       </c>
       <c r="I108">
-        <f>RSQ(E95:E108,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.49718807324359998</v>
       </c>
       <c r="J108">
-        <f>G108 + (F$2 * H108)</f>
+        <f t="shared" si="13"/>
         <v>13783.800366300367</v>
       </c>
     </row>
@@ -4446,27 +4446,27 @@
         <v>13809</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13802.366666666667</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="G109">
-        <f>INTERCEPT(E96:E109,F$1:F$14)</f>
+        <f t="shared" si="11"/>
         <v>13806.029523809526</v>
       </c>
       <c r="H109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.7134065934065181</v>
       </c>
       <c r="I109">
-        <f>RSQ(E96:E109,F$1:F$14)</f>
+        <f t="shared" si="12"/>
         <v>0.18678064173160874</v>
       </c>
       <c r="J109">
-        <f>G109 + (F$2 * H109)</f>
+        <f t="shared" si="13"/>
         <v>13809.742930402932</v>
       </c>
     </row>
@@ -4484,27 +4484,27 @@
         <v>13837.2</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13823.566666666666</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="G110">
-        <f>INTERCEPT(E97:E110,F$1:F$14)</f>
+        <f t="shared" ref="G110:G141" si="15">INTERCEPT(E97:E110,F$1:F$14)</f>
         <v>13828.869523809522</v>
       </c>
       <c r="H110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.97648351648346687</v>
       </c>
       <c r="I110">
-        <f>RSQ(E97:E110,F$1:F$14)</f>
+        <f t="shared" ref="I110:I141" si="16">RSQ(E97:E110,F$1:F$14)</f>
         <v>2.0646235822271954E-2</v>
       </c>
       <c r="J110">
-        <f>G110 + (F$2 * H110)</f>
+        <f t="shared" ref="J110:J141" si="17">G110 + (F$2 * H110)</f>
         <v>13829.846007326007</v>
       </c>
     </row>
@@ -4522,27 +4522,27 @@
         <v>13821.5</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13819.833333333334</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G111">
-        <f>INTERCEPT(E98:E111,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13849.118095238096</v>
       </c>
       <c r="H111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.5965567765568067</v>
       </c>
       <c r="I111">
-        <f>RSQ(E98:E111,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>9.0873481255765443E-2</v>
       </c>
       <c r="J111">
-        <f>G111 + (F$2 * H111)</f>
+        <f t="shared" si="17"/>
         <v>13847.52153846154</v>
       </c>
     </row>
@@ -4560,27 +4560,27 @@
         <v>13805.8</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13817.633333333331</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="G112">
-        <f>INTERCEPT(E99:E112,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13853.903809523808</v>
       </c>
       <c r="H112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-2.4734798534799074</v>
       </c>
       <c r="I112">
-        <f>RSQ(E99:E112,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.20632021376946577</v>
       </c>
       <c r="J112">
-        <f>G112 + (F$2 * H112)</f>
+        <f t="shared" si="17"/>
         <v>13851.430329670329</v>
       </c>
     </row>
@@ -4598,27 +4598,27 @@
         <v>13863.7</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13844.4</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="G113">
-        <f>INTERCEPT(E100:E113,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13851.34095238095</v>
       </c>
       <c r="H113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-2.0766300366301089</v>
       </c>
       <c r="I113">
-        <f>RSQ(E100:E113,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.1453615658562433</v>
       </c>
       <c r="J113">
-        <f>G113 + (F$2 * H113)</f>
+        <f t="shared" si="17"/>
         <v>13849.264322344319</v>
       </c>
     </row>
@@ -4636,27 +4636,27 @@
         <v>13857.9</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13857.199999999999</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="G114">
-        <f>INTERCEPT(E101:E114,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13848.417142857143</v>
       </c>
       <c r="H114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.4414652014652738</v>
       </c>
       <c r="I114">
-        <f>RSQ(E101:E114,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>6.6603034754067439E-2</v>
       </c>
       <c r="J114">
-        <f>G114 + (F$2 * H114)</f>
+        <f t="shared" si="17"/>
         <v>13846.975677655677</v>
       </c>
     </row>
@@ -4674,27 +4674,27 @@
         <v>13845.6</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13851.366666666667</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="G115">
-        <f>INTERCEPT(E102:E115,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13849.841904761905</v>
       </c>
       <c r="H115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.4163369963370505</v>
       </c>
       <c r="I115">
-        <f>RSQ(E102:E115,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>6.4137089760396046E-2</v>
       </c>
       <c r="J115">
-        <f>G115 + (F$2 * H115)</f>
+        <f t="shared" si="17"/>
         <v>13848.425567765567</v>
       </c>
     </row>
@@ -4712,27 +4712,27 @@
         <v>13852</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13849.866666666667</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="G116">
-        <f>INTERCEPT(E103:E116,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13851.06380952381</v>
       </c>
       <c r="H116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.4153113553114083</v>
       </c>
       <c r="I116">
-        <f>RSQ(E103:E116,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>6.4039073626470044E-2</v>
       </c>
       <c r="J116">
-        <f>G116 + (F$2 * H116)</f>
+        <f t="shared" si="17"/>
         <v>13849.648498168499</v>
       </c>
     </row>
@@ -4750,27 +4750,27 @@
         <v>13813.6</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13818.866666666667</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="G117">
-        <f>INTERCEPT(E104:E117,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13851.377142857144</v>
       </c>
       <c r="H117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.8052747252747445</v>
       </c>
       <c r="I117">
-        <f>RSQ(E104:E117,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>9.8722218190820679E-2</v>
       </c>
       <c r="J117">
-        <f>G117 + (F$2 * H117)</f>
+        <f t="shared" si="17"/>
         <v>13849.571868131869</v>
       </c>
     </row>
@@ -4788,27 +4788,27 @@
         <v>13832.7</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13818.1</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
       <c r="G118">
-        <f>INTERCEPT(E105:E118,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13844.75619047619</v>
       </c>
       <c r="H118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.3727472527472135</v>
       </c>
       <c r="I118">
-        <f>RSQ(E105:E118,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>6.341367081093699E-2</v>
       </c>
       <c r="J118">
-        <f>G118 + (F$2 * H118)</f>
+        <f t="shared" si="17"/>
         <v>13843.383443223442</v>
       </c>
     </row>
@@ -4826,27 +4826,27 @@
         <v>13811.7</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13819.800000000001</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="G119">
-        <f>INTERCEPT(E106:E119,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13833.159999999996</v>
       </c>
       <c r="H119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-0.28139194139183238</v>
       </c>
       <c r="I119">
-        <f>RSQ(E106:E119,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>3.981137206060548E-3</v>
       </c>
       <c r="J119">
-        <f>G119 + (F$2 * H119)</f>
+        <f t="shared" si="17"/>
         <v>13832.878608058605</v>
       </c>
     </row>
@@ -4864,27 +4864,27 @@
         <v>13811.9</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13809.033333333333</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="G120">
-        <f>INTERCEPT(E107:E120,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13827.621904761902</v>
       </c>
       <c r="H120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.4578754578802285E-2</v>
       </c>
       <c r="I120">
-        <f>RSQ(E107:E120,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>1.1974290281745409E-5</v>
       </c>
       <c r="J120">
-        <f>G120 + (F$2 * H120)</f>
+        <f t="shared" si="17"/>
         <v>13827.63648351648</v>
       </c>
     </row>
@@ -4902,27 +4902,27 @@
         <v>13844.6</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13833.633333333333</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="G121">
-        <f>INTERCEPT(E108:E121,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13822.655238095234</v>
       </c>
       <c r="H121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.67868131868132109</v>
       </c>
       <c r="I121">
-        <f>RSQ(E108:E121,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>2.7276932024547014E-2</v>
       </c>
       <c r="J121">
-        <f>G121 + (F$2 * H121)</f>
+        <f t="shared" si="17"/>
         <v>13823.333919413915</v>
       </c>
     </row>
@@ -4940,27 +4940,27 @@
         <v>13826.7</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13837.233333333332</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="G122">
-        <f>INTERCEPT(E109:E122,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13825.43619047619</v>
       </c>
       <c r="H122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.51421245421246731</v>
       </c>
       <c r="I122">
-        <f>RSQ(E109:E122,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>1.6198631246733552E-2</v>
       </c>
       <c r="J122">
-        <f>G122 + (F$2 * H122)</f>
+        <f t="shared" si="17"/>
         <v>13825.950402930403</v>
       </c>
     </row>
@@ -4978,27 +4978,27 @@
         <v>13816.8</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13820.1</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="G123">
-        <f>INTERCEPT(E110:E123,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13833.974285714285</v>
       </c>
       <c r="H123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-0.60446886446881942</v>
       </c>
       <c r="I123">
-        <f>RSQ(E110:E123,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>2.7086915478446816E-2</v>
       </c>
       <c r="J123">
-        <f>G123 + (F$2 * H123)</f>
+        <f t="shared" si="17"/>
         <v>13833.369816849816</v>
       </c>
     </row>
@@ -5016,27 +5016,27 @@
         <v>13792</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13800.266666666668</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="G124">
-        <f>INTERCEPT(E111:E124,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13839.228571428572</v>
       </c>
       <c r="H124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.6688644688643943</v>
       </c>
       <c r="I124">
-        <f>RSQ(E111:E124,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.16352035719234903</v>
       </c>
       <c r="J124">
-        <f>G124 + (F$2 * H124)</f>
+        <f t="shared" si="17"/>
         <v>13837.559706959708</v>
       </c>
     </row>
@@ -5054,27 +5054,27 @@
         <v>13752.4</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13765.6</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="G125">
-        <f>INTERCEPT(E112:E125,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13848.845714285713</v>
       </c>
       <c r="H125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-3.744395604395494</v>
       </c>
       <c r="I125">
-        <f>RSQ(E112:E125,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.42341873865165014</v>
       </c>
       <c r="J125">
-        <f>G125 + (F$2 * H125)</f>
+        <f t="shared" si="17"/>
         <v>13845.101318681318</v>
       </c>
     </row>
@@ -5092,27 +5092,27 @@
         <v>13750.8</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13751.033333333333</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="G126">
-        <f>INTERCEPT(E113:E126,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13859.206666666667</v>
       </c>
       <c r="H126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-6.0702564102563716</v>
       </c>
       <c r="I126">
-        <f>RSQ(E113:E126,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.66703484063576612</v>
       </c>
       <c r="J126">
-        <f>G126 + (F$2 * H126)</f>
+        <f t="shared" si="17"/>
         <v>13853.136410256411</v>
       </c>
     </row>
@@ -5130,27 +5130,27 @@
         <v>13776</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13770.866666666667</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>126</v>
       </c>
       <c r="G127">
-        <f>INTERCEPT(E114:E127,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13857.750476190477</v>
       </c>
       <c r="H127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-6.6542857142856837</v>
       </c>
       <c r="I127">
-        <f>RSQ(E114:E127,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.72143973583579735</v>
       </c>
       <c r="J127">
-        <f>G127 + (F$2 * H127)</f>
+        <f t="shared" si="17"/>
         <v>13851.096190476192</v>
       </c>
     </row>
@@ -5168,27 +5168,27 @@
         <v>13760.8</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13765.866666666667</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>127</v>
       </c>
       <c r="G128">
-        <f>INTERCEPT(E115:E128,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13851.10761904762</v>
       </c>
       <c r="H128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-6.6359706959707001</v>
       </c>
       <c r="I128">
-        <f>RSQ(E115:E128,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.72027824623828673</v>
       </c>
       <c r="J128">
-        <f>G128 + (F$2 * H128)</f>
+        <f t="shared" si="17"/>
         <v>13844.471648351649</v>
       </c>
     </row>
@@ -5206,27 +5206,27 @@
         <v>13751.6</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13754.366666666667</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="G129">
-        <f>INTERCEPT(E116:E129,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13844.83619047619</v>
       </c>
       <c r="H129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-6.7370695970696017</v>
       </c>
       <c r="I129">
-        <f>RSQ(E116:E129,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.72576176889050881</v>
       </c>
       <c r="J129">
-        <f>G129 + (F$2 * H129)</f>
+        <f t="shared" si="17"/>
         <v>13838.09912087912</v>
       </c>
     </row>
@@ -5244,27 +5244,27 @@
         <v>13706.6</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="6">(B130+C130+D130)/3</f>
+        <f t="shared" ref="E130:E193" si="18">(B130+C130+D130)/3</f>
         <v>13721.6</v>
       </c>
       <c r="F130">
-        <f t="shared" ref="F130:F193" si="7">ROW()-1</f>
+        <f t="shared" ref="F130:F193" si="19">ROW()-1</f>
         <v>129</v>
       </c>
       <c r="G130">
-        <f>INTERCEPT(E117:E130,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13839.966666666669</v>
       </c>
       <c r="H130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-7.3974358974358951</v>
       </c>
       <c r="I130">
-        <f>RSQ(E117:E130,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.73315635206110319</v>
       </c>
       <c r="J130">
-        <f>G130 + (F$2 * H130)</f>
+        <f t="shared" si="17"/>
         <v>13832.569230769233</v>
       </c>
     </row>
@@ -5282,27 +5282,27 @@
         <v>13706.6</v>
       </c>
       <c r="E131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13706.6</v>
       </c>
       <c r="F131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="G131">
-        <f>INTERCEPT(E118:E131,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13842.003809523811</v>
       </c>
       <c r="H131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-8.9445421245421155</v>
       </c>
       <c r="I131">
-        <f>RSQ(E118:E131,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.80445968752004748</v>
       </c>
       <c r="J131">
-        <f>G131 + (F$2 * H131)</f>
+        <f t="shared" si="17"/>
         <v>13833.059267399269</v>
       </c>
     </row>
@@ -5320,27 +5320,27 @@
         <v>13714.5</v>
       </c>
       <c r="E132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13712.4</v>
       </c>
       <c r="F132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>131</v>
       </c>
       <c r="G132">
-        <f>INTERCEPT(E119:E132,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13840.389523809525</v>
       </c>
       <c r="H132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-9.8577289377289379</v>
       </c>
       <c r="I132">
-        <f>RSQ(E119:E132,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.85812582474828292</v>
       </c>
       <c r="J132">
-        <f>G132 + (F$2 * H132)</f>
+        <f t="shared" si="17"/>
         <v>13830.531794871797</v>
       </c>
     </row>
@@ -5358,27 +5358,27 @@
         <v>13757.1</v>
       </c>
       <c r="E133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13743.199999999999</v>
       </c>
       <c r="F133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>132</v>
       </c>
       <c r="G133">
-        <f>INTERCEPT(E120:E133,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13831.749523809523</v>
       </c>
       <c r="H133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-9.3702564102564114</v>
       </c>
       <c r="I133">
-        <f>RSQ(E120:E133,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.81368381722624861</v>
       </c>
       <c r="J133">
-        <f>G133 + (F$2 * H133)</f>
+        <f t="shared" si="17"/>
         <v>13822.379267399267</v>
       </c>
     </row>
@@ -5396,27 +5396,27 @@
         <v>13765.7</v>
       </c>
       <c r="E134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13776.633333333333</v>
       </c>
       <c r="F134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>133</v>
       </c>
       <c r="G134">
-        <f>INTERCEPT(E121:E134,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13820.176190476192</v>
       </c>
       <c r="H134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-7.9457875457875629</v>
       </c>
       <c r="I134">
-        <f>RSQ(E121:E134,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.62317214368828155</v>
       </c>
       <c r="J134">
-        <f>G134 + (F$2 * H134)</f>
+        <f t="shared" si="17"/>
         <v>13812.230402930403</v>
       </c>
     </row>
@@ -5434,27 +5434,27 @@
         <v>13757.1</v>
       </c>
       <c r="E135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13769.033333333333</v>
       </c>
       <c r="F135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>134</v>
       </c>
       <c r="G135">
-        <f>INTERCEPT(E122:E135,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13801.517142857145</v>
       </c>
       <c r="H135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-5.7850549450549789</v>
       </c>
       <c r="I135">
-        <f>RSQ(E122:E135,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.41127880155538094</v>
       </c>
       <c r="J135">
-        <f>G135 + (F$2 * H135)</f>
+        <f t="shared" si="17"/>
         <v>13795.732087912091</v>
       </c>
     </row>
@@ -5472,27 +5472,27 @@
         <v>13739.5</v>
       </c>
       <c r="E136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13744.866666666667</v>
       </c>
       <c r="F136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>135</v>
       </c>
       <c r="G136">
-        <f>INTERCEPT(E123:E136,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13782.745714285717</v>
       </c>
       <c r="H136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-3.9121611721612513</v>
       </c>
       <c r="I136">
-        <f>RSQ(E123:E136,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.27012293204544274</v>
       </c>
       <c r="J136">
-        <f>G136 + (F$2 * H136)</f>
+        <f t="shared" si="17"/>
         <v>13778.833553113554</v>
       </c>
     </row>
@@ -5510,27 +5510,27 @@
         <v>13739.8</v>
       </c>
       <c r="E137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13739.799999999997</v>
       </c>
       <c r="F137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>136</v>
       </c>
       <c r="G137">
-        <f>INTERCEPT(E124:E137,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13766.809523809525</v>
       </c>
       <c r="H137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-2.3428571428572869</v>
       </c>
       <c r="I137">
-        <f>RSQ(E124:E137,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.1419909575764281</v>
       </c>
       <c r="J137">
-        <f>G137 + (F$2 * H137)</f>
+        <f t="shared" si="17"/>
         <v>13764.466666666667</v>
       </c>
     </row>
@@ -5548,27 +5548,27 @@
         <v>13698.8</v>
       </c>
       <c r="E138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13710.766666666668</v>
       </c>
       <c r="F138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>137</v>
       </c>
       <c r="G138">
-        <f>INTERCEPT(E125:E138,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13757.563809523808</v>
       </c>
       <c r="H138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.9039560439560823</v>
       </c>
       <c r="I138">
-        <f>RSQ(E125:E138,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.10969842978409197</v>
       </c>
       <c r="J138">
-        <f>G138 + (F$2 * H138)</f>
+        <f t="shared" si="17"/>
         <v>13755.659853479852</v>
       </c>
     </row>
@@ -5586,27 +5586,27 @@
         <v>13672.5</v>
       </c>
       <c r="E139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13680.766666666668</v>
       </c>
       <c r="F139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>138</v>
       </c>
       <c r="G139">
-        <f>INTERCEPT(E126:E139,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13759.094285714285</v>
       </c>
       <c r="H139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-3.0716483516483244</v>
       </c>
       <c r="I139">
-        <f>RSQ(E126:E139,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.19990768815933876</v>
       </c>
       <c r="J139">
-        <f>G139 + (F$2 * H139)</f>
+        <f t="shared" si="17"/>
         <v>13756.022637362637</v>
       </c>
     </row>
@@ -5624,27 +5624,27 @@
         <v>13671</v>
       </c>
       <c r="E140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13671.5</v>
       </c>
       <c r="F140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>139</v>
       </c>
       <c r="G140">
-        <f>INTERCEPT(E127:E140,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13763.421904761903</v>
       </c>
       <c r="H140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-4.611428571428557</v>
       </c>
       <c r="I140">
-        <f>RSQ(E127:E140,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.32871698936385318</v>
       </c>
       <c r="J140">
-        <f>G140 + (F$2 * H140)</f>
+        <f t="shared" si="17"/>
         <v>13758.810476190474</v>
       </c>
     </row>
@@ -5662,27 +5662,27 @@
         <v>13704.6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13693.833333333334</v>
       </c>
       <c r="F141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="G141">
-        <f>INTERCEPT(E128:E141,F$1:F$14)</f>
+        <f t="shared" si="15"/>
         <v>13757.258095238094</v>
       </c>
       <c r="H141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-4.5096703296702927</v>
       </c>
       <c r="I141">
-        <f>RSQ(E128:E141,F$1:F$14)</f>
+        <f t="shared" si="16"/>
         <v>0.31990741633473407</v>
       </c>
       <c r="J141">
-        <f>G141 + (F$2 * H141)</f>
+        <f t="shared" si="17"/>
         <v>13752.748424908425</v>
       </c>
     </row>
@@ -5700,27 +5700,27 @@
         <v>13727.6</v>
       </c>
       <c r="E142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13723.133333333333</v>
       </c>
       <c r="F142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>141</v>
       </c>
       <c r="G142">
-        <f>INTERCEPT(E129:E142,F$1:F$14)</f>
+        <f t="shared" ref="G142:G173" si="20">INTERCEPT(E129:E142,F$1:F$14)</f>
         <v>13746.973333333335</v>
       </c>
       <c r="H142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-3.3969963369963008</v>
       </c>
       <c r="I142">
-        <f>RSQ(E129:E142,F$1:F$14)</f>
+        <f t="shared" ref="I142:I173" si="21">RSQ(E129:E142,F$1:F$14)</f>
         <v>0.20323574676807635</v>
       </c>
       <c r="J142">
-        <f>G142 + (F$2 * H142)</f>
+        <f t="shared" ref="J142:J173" si="22">G142 + (F$2 * H142)</f>
         <v>13743.576336996339</v>
       </c>
     </row>
@@ -5738,27 +5738,27 @@
         <v>13693.3</v>
       </c>
       <c r="E143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13705.466666666665</v>
       </c>
       <c r="F143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>142</v>
       </c>
       <c r="G143">
-        <f>INTERCEPT(E130:E143,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13740.772380952385</v>
       </c>
       <c r="H143">
-        <f t="shared" ref="H143:H200" si="8">SLOPE(E130:E143,F$1:F$14)</f>
+        <f t="shared" ref="H143:H200" si="23">SLOPE(E130:E143,F$1:F$14)</f>
         <v>-2.9803663003662981</v>
       </c>
       <c r="I143">
-        <f>RSQ(E130:E143,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.16489277420803686</v>
       </c>
       <c r="J143">
-        <f>G143 + (F$2 * H143)</f>
+        <f t="shared" si="22"/>
         <v>13737.792014652019</v>
       </c>
     </row>
@@ -5776,27 +5776,27 @@
         <v>13673.1</v>
       </c>
       <c r="E144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13678.366666666667</v>
       </c>
       <c r="F144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>143</v>
       </c>
       <c r="G144">
-        <f>INTERCEPT(E131:E144,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13745.633333333333</v>
       </c>
       <c r="H144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-4.2032967032966795</v>
       </c>
       <c r="I144">
-        <f>RSQ(E131:E144,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.28764503076077202</v>
       </c>
       <c r="J144">
-        <f>G144 + (F$2 * H144)</f>
+        <f t="shared" si="22"/>
         <v>13741.430036630036</v>
       </c>
     </row>
@@ -5814,27 +5814,27 @@
         <v>13695.4</v>
       </c>
       <c r="E145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13696.333333333334</v>
       </c>
       <c r="F145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>144</v>
       </c>
       <c r="G145">
-        <f>INTERCEPT(E132:E145,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13751.491428571429</v>
       </c>
       <c r="H145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-5.2173626373625765</v>
       </c>
       <c r="I145">
-        <f>RSQ(E132:E145,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.43270103624793355</v>
       </c>
       <c r="J145">
-        <f>G145 + (F$2 * H145)</f>
+        <f t="shared" si="22"/>
         <v>13746.274065934067</v>
       </c>
     </row>
@@ -5852,27 +5852,27 @@
         <v>13747.5</v>
       </c>
       <c r="E146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13730.133333333333</v>
       </c>
       <c r="F146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>145</v>
       </c>
       <c r="G146">
-        <f>INTERCEPT(E133:E146,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13751.53619047619</v>
       </c>
       <c r="H146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-5.0293772893772379</v>
       </c>
       <c r="I146">
-        <f>RSQ(E133:E146,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.3990607777665498</v>
       </c>
       <c r="J146">
-        <f>G146 + (F$2 * H146)</f>
+        <f t="shared" si="22"/>
         <v>13746.506813186814</v>
       </c>
     </row>
@@ -5890,27 +5890,27 @@
         <v>13701.7</v>
       </c>
       <c r="E147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13711.433333333334</v>
       </c>
       <c r="F147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>146</v>
       </c>
       <c r="G147">
-        <f>INTERCEPT(E134:E147,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13745.42476190476</v>
       </c>
       <c r="H147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-4.4382417582417091</v>
       </c>
       <c r="I147">
-        <f>RSQ(E134:E147,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.32449890600300524</v>
       </c>
       <c r="J147">
-        <f>G147 + (F$2 * H147)</f>
+        <f t="shared" si="22"/>
         <v>13740.986520146518</v>
       </c>
     </row>
@@ -5928,27 +5928,27 @@
         <v>13726.1</v>
       </c>
       <c r="E148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13719.733333333332</v>
       </c>
       <c r="F148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>147</v>
       </c>
       <c r="G148">
-        <f>INTERCEPT(E135:E148,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13727.904761904763</v>
       </c>
       <c r="H148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-2.3681318681318722</v>
       </c>
       <c r="I148">
-        <f>RSQ(E135:E148,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.12781656540999953</v>
       </c>
       <c r="J148">
-        <f>G148 + (F$2 * H148)</f>
+        <f t="shared" si="22"/>
         <v>13725.536630036631</v>
       </c>
     </row>
@@ -5966,27 +5966,27 @@
         <v>13747.4</v>
       </c>
       <c r="E149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13735.933333333334</v>
       </c>
       <c r="F149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>148</v>
       </c>
       <c r="G149">
-        <f>INTERCEPT(E136:E149,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13709.07904761905</v>
       </c>
       <c r="H149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0.16439560439561479</v>
       </c>
       <c r="I149">
-        <f>RSQ(E136:E149,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>8.4719355408687121E-4</v>
       </c>
       <c r="J149">
-        <f>G149 + (F$2 * H149)</f>
+        <f t="shared" si="22"/>
         <v>13709.243443223446</v>
       </c>
     </row>
@@ -6004,27 +6004,27 @@
         <v>13723.3</v>
       </c>
       <c r="E150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13732.966666666665</v>
       </c>
       <c r="F150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>149</v>
       </c>
       <c r="G150">
-        <f>INTERCEPT(E137:E150,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13696.551428571431</v>
       </c>
       <c r="H150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1.9609523809523535</v>
       </c>
       <c r="I150">
-        <f>RSQ(E137:E150,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.13330390629591135</v>
       </c>
       <c r="J150">
-        <f>G150 + (F$2 * H150)</f>
+        <f t="shared" si="22"/>
         <v>13698.512380952383</v>
       </c>
     </row>
@@ -6042,27 +6042,27 @@
         <v>13781.6</v>
       </c>
       <c r="E151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13762.766666666665</v>
       </c>
       <c r="F151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="G151">
-        <f>INTERCEPT(E138:E151,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13681.725714285718</v>
       </c>
       <c r="H151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.4942124542122865</v>
       </c>
       <c r="I151">
-        <f>RSQ(E138:E151,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.54357100448886686</v>
       </c>
       <c r="J151">
-        <f>G151 + (F$2 * H151)</f>
+        <f t="shared" si="22"/>
         <v>13686.21992673993</v>
       </c>
     </row>
@@ -6080,27 +6080,27 @@
         <v>13796.9</v>
       </c>
       <c r="E152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13792.466666666667</v>
       </c>
       <c r="F152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="G152">
-        <f>INTERCEPT(E139:E152,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13672.457142857142</v>
       </c>
       <c r="H152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>6.8179487179486165</v>
       </c>
       <c r="I152">
-        <f>RSQ(E139:E152,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.72316432322678659</v>
       </c>
       <c r="J152">
-        <f>G152 + (F$2 * H152)</f>
+        <f t="shared" si="22"/>
         <v>13679.275091575089</v>
       </c>
     </row>
@@ -6118,27 +6118,27 @@
         <v>13796.9</v>
       </c>
       <c r="E153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13796.9</v>
       </c>
       <c r="F153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>152</v>
       </c>
       <c r="G153">
-        <f>INTERCEPT(E140:E153,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13673.587619047621</v>
       </c>
       <c r="H153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>7.9202197802197256</v>
       </c>
       <c r="I153">
-        <f>RSQ(E140:E153,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.75975069042193288</v>
       </c>
       <c r="J153">
-        <f>G153 + (F$2 * H153)</f>
+        <f t="shared" si="22"/>
         <v>13681.507838827842</v>
       </c>
     </row>
@@ -6156,27 +6156,27 @@
         <v>13783.3</v>
       </c>
       <c r="E154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13796.366666666667</v>
       </c>
       <c r="F154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>153</v>
       </c>
       <c r="G154">
-        <f>INTERCEPT(E141:E154,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13680.744761904762</v>
       </c>
       <c r="H154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>8.1912820512820144</v>
       </c>
       <c r="I154">
-        <f>RSQ(E141:E154,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.76768701139052975</v>
       </c>
       <c r="J154">
-        <f>G154 + (F$2 * H154)</f>
+        <f t="shared" si="22"/>
         <v>13688.936043956044</v>
       </c>
     </row>
@@ -6194,27 +6194,27 @@
         <v>13727.6</v>
       </c>
       <c r="E155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13744.833333333334</v>
       </c>
       <c r="F155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>154</v>
       </c>
       <c r="G155">
-        <f>INTERCEPT(E142:E155,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13690.978095238095</v>
       </c>
       <c r="H155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>7.1773626373626511</v>
       </c>
       <c r="I155">
-        <f>RSQ(E142:E155,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.64381490818500875</v>
       </c>
       <c r="J155">
-        <f>G155 + (F$2 * H155)</f>
+        <f t="shared" si="22"/>
         <v>13698.155457875459</v>
       </c>
     </row>
@@ -6232,27 +6232,27 @@
         <v>13739.1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13737.1</v>
       </c>
       <c r="F156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>155</v>
       </c>
       <c r="G156">
-        <f>INTERCEPT(E143:E156,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13695.180952380953</v>
       </c>
       <c r="H156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>6.6842490842491173</v>
       </c>
       <c r="I156">
-        <f>RSQ(E143:E156,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.56534011190227651</v>
       </c>
       <c r="J156">
-        <f>G156 + (F$2 * H156)</f>
+        <f t="shared" si="22"/>
         <v>13701.865201465202</v>
       </c>
     </row>
@@ -6270,27 +6270,27 @@
         <v>13720.4</v>
       </c>
       <c r="E157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13731.966666666667</v>
       </c>
       <c r="F157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>156</v>
       </c>
       <c r="G157">
-        <f>INTERCEPT(E144:E157,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13705.417142857144</v>
       </c>
       <c r="H157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>5.400659340659355</v>
       </c>
       <c r="I157">
-        <f>RSQ(E144:E157,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.39323984715355464</v>
       </c>
       <c r="J157">
-        <f>G157 + (F$2 * H157)</f>
+        <f t="shared" si="22"/>
         <v>13710.817802197804</v>
       </c>
     </row>
@@ -6308,27 +6308,27 @@
         <v>13714.5</v>
       </c>
       <c r="E158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13714.4</v>
       </c>
       <c r="F158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>157</v>
       </c>
       <c r="G158">
-        <f>INTERCEPT(E145:E158,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13726.160952380953</v>
       </c>
       <c r="H158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>2.6052747252747364</v>
       </c>
       <c r="I158">
-        <f>RSQ(E145:E158,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.11353726131066037</v>
       </c>
       <c r="J158">
-        <f>G158 + (F$2 * H158)</f>
+        <f t="shared" si="22"/>
         <v>13728.766227106227</v>
       </c>
     </row>
@@ -6346,27 +6346,27 @@
         <v>13696.3</v>
       </c>
       <c r="E159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13701.6</v>
       </c>
       <c r="F159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>158</v>
       </c>
       <c r="G159">
-        <f>INTERCEPT(E146:E159,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13744.263809523809</v>
       </c>
       <c r="H159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-0.121904761904715</v>
       </c>
       <c r="I159">
-        <f>RSQ(E146:E159,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>2.5741907836089606E-4</v>
       </c>
       <c r="J159">
-        <f>G159 + (F$2 * H159)</f>
+        <f t="shared" si="22"/>
         <v>13744.141904761904</v>
       </c>
     </row>
@@ -6384,27 +6384,27 @@
         <v>13747.1</v>
       </c>
       <c r="E160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13730.166666666666</v>
       </c>
       <c r="F160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>159</v>
       </c>
       <c r="G160">
-        <f>INTERCEPT(E147:E160,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13749.595238095237</v>
       </c>
       <c r="H160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-0.94175824175820977</v>
       </c>
       <c r="I160">
-        <f>RSQ(E147:E160,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>1.5364117501123275E-2</v>
       </c>
       <c r="J160">
-        <f>G160 + (F$2 * H160)</f>
+        <f t="shared" si="22"/>
         <v>13748.653479853478</v>
       </c>
     </row>
@@ -6422,27 +6422,27 @@
         <v>13776.9</v>
       </c>
       <c r="E161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13766.966666666667</v>
       </c>
       <c r="F161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>160</v>
       </c>
       <c r="G161">
-        <f>INTERCEPT(E148:E161,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13756.06476190476</v>
       </c>
       <c r="H161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-1.3268131868131006</v>
       </c>
       <c r="I161">
-        <f>RSQ(E148:E161,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>3.2200376212480675E-2</v>
       </c>
       <c r="J161">
-        <f>G161 + (F$2 * H161)</f>
+        <f t="shared" si="22"/>
         <v>13754.737948717946</v>
       </c>
     </row>
@@ -6460,27 +6460,27 @@
         <v>13783.7</v>
       </c>
       <c r="E162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13792.233333333332</v>
       </c>
       <c r="F162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>161</v>
       </c>
       <c r="G162">
-        <f>INTERCEPT(E149:E162,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13758.861904761905</v>
       </c>
       <c r="H162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-0.96043956043956047</v>
       </c>
       <c r="I162">
-        <f>RSQ(E149:E162,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>1.5777503938824666E-2</v>
       </c>
       <c r="J162">
-        <f>G162 + (F$2 * H162)</f>
+        <f t="shared" si="22"/>
         <v>13757.901465201465</v>
       </c>
     </row>
@@ -6498,27 +6498,27 @@
         <v>13763.1</v>
       </c>
       <c r="E163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13769.433333333334</v>
       </c>
       <c r="F163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>162</v>
       </c>
       <c r="G163">
-        <f>INTERCEPT(E150:E163,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13761.70761904762</v>
       </c>
       <c r="H163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-1.0301098901098198</v>
       </c>
       <c r="I163">
-        <f>RSQ(E150:E163,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>1.8253625704247975E-2</v>
       </c>
       <c r="J163">
-        <f>G163 + (F$2 * H163)</f>
+        <f t="shared" si="22"/>
         <v>13760.677509157511</v>
       </c>
     </row>
@@ -6536,27 +6536,27 @@
         <v>13756.1</v>
       </c>
       <c r="E164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13757.9</v>
       </c>
       <c r="F164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>163</v>
       </c>
       <c r="G164">
-        <f>INTERCEPT(E151:E164,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13767.676190476192</v>
       </c>
       <c r="H164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-1.6743589743589478</v>
       </c>
       <c r="I164">
-        <f>RSQ(E151:E164,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>5.0207701336360946E-2</v>
       </c>
       <c r="J164">
-        <f>G164 + (F$2 * H164)</f>
+        <f t="shared" si="22"/>
         <v>13766.001831501833</v>
       </c>
     </row>
@@ -6574,27 +6574,27 @@
         <v>13739.7</v>
       </c>
       <c r="E165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13745.166666666666</v>
       </c>
       <c r="F165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>164</v>
       </c>
       <c r="G165">
-        <f>INTERCEPT(E152:E165,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13767.298095238095</v>
       </c>
       <c r="H165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-1.8095970695971217</v>
       </c>
       <c r="I165">
-        <f>RSQ(E152:E165,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>5.8290839549987782E-2</v>
       </c>
       <c r="J165">
-        <f>G165 + (F$2 * H165)</f>
+        <f t="shared" si="22"/>
         <v>13765.488498168497</v>
       </c>
     </row>
@@ -6612,27 +6612,27 @@
         <v>13747.2</v>
       </c>
       <c r="E166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13744.700000000003</v>
       </c>
       <c r="F166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>165</v>
       </c>
       <c r="G166">
-        <f>INTERCEPT(E153:E166,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13757.984761904761</v>
       </c>
       <c r="H166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-0.90168498168494515</v>
       </c>
       <c r="I166">
-        <f>RSQ(E153:E166,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>1.6266501584832865E-2</v>
       </c>
       <c r="J166">
-        <f>G166 + (F$2 * H166)</f>
+        <f t="shared" si="22"/>
         <v>13757.083076923076</v>
       </c>
     </row>
@@ -6650,27 +6650,27 @@
         <v>13766.8</v>
       </c>
       <c r="E167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13760.266666666668</v>
       </c>
       <c r="F167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>166</v>
       </c>
       <c r="G167">
-        <f>INTERCEPT(E154:E167,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13744.260952380953</v>
       </c>
       <c r="H167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0.80710622710628765</v>
       </c>
       <c r="I167">
-        <f>RSQ(E154:E167,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>1.587299516039373E-2</v>
       </c>
       <c r="J167">
-        <f>G167 + (F$2 * H167)</f>
+        <f t="shared" si="22"/>
         <v>13745.06805860806</v>
       </c>
     </row>
@@ -6688,27 +6688,27 @@
         <v>13784.2</v>
       </c>
       <c r="E168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13778.833333333334</v>
       </c>
       <c r="F168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>167</v>
       </c>
       <c r="G168">
-        <f>INTERCEPT(E155:E168,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13727.520952380955</v>
       </c>
       <c r="H168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>3.1898168498169142</v>
       </c>
       <c r="I168">
-        <f>RSQ(E155:E168,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.29012031959061058</v>
       </c>
       <c r="J168">
-        <f>G168 + (F$2 * H168)</f>
+        <f t="shared" si="22"/>
         <v>13730.710769230773</v>
       </c>
     </row>
@@ -6726,27 +6726,27 @@
         <v>13785.8</v>
       </c>
       <c r="E169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13785.199999999999</v>
       </c>
       <c r="F169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>168</v>
       </c>
       <c r="G169">
-        <f>INTERCEPT(E156:E169,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13724.276190476194</v>
       </c>
       <c r="H169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.1326007326007659</v>
       </c>
       <c r="I169">
-        <f>RSQ(E156:E169,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.42160387303904001</v>
       </c>
       <c r="J169">
-        <f>G169 + (F$2 * H169)</f>
+        <f t="shared" si="22"/>
         <v>13728.408791208794</v>
       </c>
     </row>
@@ -6764,27 +6764,27 @@
         <v>13794.3</v>
       </c>
       <c r="E170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13791.733333333332</v>
       </c>
       <c r="F170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>169</v>
       </c>
       <c r="G170">
-        <f>INTERCEPT(E157:E170,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13723.647619047622</v>
       </c>
       <c r="H170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.8296703296703178</v>
       </c>
       <c r="I170">
-        <f>RSQ(E157:E170,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.50764798570383152</v>
       </c>
       <c r="J170">
-        <f>G170 + (F$2 * H170)</f>
+        <f t="shared" si="22"/>
         <v>13728.477289377293</v>
       </c>
     </row>
@@ -6802,27 +6802,27 @@
         <v>13782.9</v>
       </c>
       <c r="E171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13792.733333333332</v>
       </c>
       <c r="F171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>170</v>
       </c>
       <c r="G171">
-        <f>INTERCEPT(E158:E171,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13725.932380952385</v>
       </c>
       <c r="H171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>5.1459340659340214</v>
       </c>
       <c r="I171">
-        <f>RSQ(E158:E171,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.54381644064203449</v>
       </c>
       <c r="J171">
-        <f>G171 + (F$2 * H171)</f>
+        <f t="shared" si="22"/>
         <v>13731.07831501832</v>
       </c>
     </row>
@@ -6840,27 +6840,27 @@
         <v>13766.8</v>
       </c>
       <c r="E172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13772.166666666666</v>
       </c>
       <c r="F172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>171</v>
       </c>
       <c r="G172">
-        <f>INTERCEPT(E159:E172,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13737.322857142857</v>
       </c>
       <c r="H172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.0283516483515793</v>
       </c>
       <c r="I172">
-        <f>RSQ(E159:E172,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.41112386837628856</v>
       </c>
       <c r="J172">
-        <f>G172 + (F$2 * H172)</f>
+        <f t="shared" si="22"/>
         <v>13741.35120879121</v>
       </c>
     </row>
@@ -6878,27 +6878,27 @@
         <v>13790.9</v>
       </c>
       <c r="E173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13782.866666666667</v>
       </c>
       <c r="F173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>172</v>
       </c>
       <c r="G173">
-        <f>INTERCEPT(E160:E173,F$1:F$14)</f>
+        <f t="shared" si="20"/>
         <v>13752.798095238097</v>
       </c>
       <c r="H173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>2.5405860805860336</v>
       </c>
       <c r="I173">
-        <f>RSQ(E160:E173,F$1:F$14)</f>
+        <f t="shared" si="21"/>
         <v>0.29075843245827454</v>
       </c>
       <c r="J173">
-        <f>G173 + (F$2 * H173)</f>
+        <f t="shared" si="22"/>
         <v>13755.338681318683</v>
       </c>
     </row>
@@ -6916,27 +6916,27 @@
         <v>13790.9</v>
       </c>
       <c r="E174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13790.9</v>
       </c>
       <c r="F174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>173</v>
       </c>
       <c r="G174">
-        <f>INTERCEPT(E161:E174,F$1:F$14)</f>
+        <f t="shared" ref="G174:G205" si="24">INTERCEPT(E161:E174,F$1:F$14)</f>
         <v>13761.515238095237</v>
       </c>
       <c r="H174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1.8668864468863771</v>
       </c>
       <c r="I174">
-        <f>RSQ(E161:E174,F$1:F$14)</f>
+        <f t="shared" ref="I174:I205" si="25">RSQ(E161:E174,F$1:F$14)</f>
         <v>0.21311442658576382</v>
       </c>
       <c r="J174">
-        <f>G174 + (F$2 * H174)</f>
+        <f t="shared" ref="J174:J200" si="26">G174 + (F$2 * H174)</f>
         <v>13763.382124542122</v>
       </c>
     </row>
@@ -6954,27 +6954,27 @@
         <v>13791.4</v>
       </c>
       <c r="E175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13798.866666666667</v>
       </c>
       <c r="F175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>174</v>
       </c>
       <c r="G175">
-        <f>INTERCEPT(E162:E175,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13760.542857142855</v>
       </c>
       <c r="H175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>2.3670329670329231</v>
       </c>
       <c r="I175">
-        <f>RSQ(E162:E175,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.30069151010247486</v>
       </c>
       <c r="J175">
-        <f>G175 + (F$2 * H175)</f>
+        <f t="shared" si="26"/>
         <v>13762.909890109888</v>
       </c>
     </row>
@@ -6992,27 +6992,27 @@
         <v>13813.4</v>
       </c>
       <c r="E176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13813.366666666667</v>
       </c>
       <c r="F176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>175</v>
       </c>
       <c r="G176">
-        <f>INTERCEPT(E163:E176,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13751.605714285713</v>
       </c>
       <c r="H176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>3.9742124542123696</v>
       </c>
       <c r="I176">
-        <f>RSQ(E163:E176,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.67251983214962296</v>
       </c>
       <c r="J176">
-        <f>G176 + (F$2 * H176)</f>
+        <f t="shared" si="26"/>
         <v>13755.579926739925</v>
       </c>
     </row>
@@ -7030,27 +7030,27 @@
         <v>13813.4</v>
       </c>
       <c r="E177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13814.266666666668</v>
       </c>
       <c r="F177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>176</v>
       </c>
       <c r="G177">
-        <f>INTERCEPT(E164:E177,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13749.683809523809</v>
       </c>
       <c r="H177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.7625641025640952</v>
       </c>
       <c r="I177">
-        <f>RSQ(E164:E177,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.7948964325347001</v>
       </c>
       <c r="J177">
-        <f>G177 + (F$2 * H177)</f>
+        <f t="shared" si="26"/>
         <v>13754.446373626373</v>
       </c>
     </row>
@@ -7068,27 +7068,27 @@
         <v>13813.5</v>
       </c>
       <c r="E178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13818</v>
       </c>
       <c r="F178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>177</v>
       </c>
       <c r="G178">
-        <f>INTERCEPT(E165:E178,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13751.911428571429</v>
       </c>
       <c r="H178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>5.0802930402930189</v>
       </c>
       <c r="I178">
-        <f>RSQ(E165:E178,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.82557021887264737</v>
       </c>
       <c r="J178">
-        <f>G178 + (F$2 * H178)</f>
+        <f t="shared" si="26"/>
         <v>13756.991721611723</v>
       </c>
     </row>
@@ -7106,27 +7106,27 @@
         <v>13806.8</v>
       </c>
       <c r="E179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13812.233333333332</v>
       </c>
       <c r="F179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>178</v>
       </c>
       <c r="G179">
-        <f>INTERCEPT(E166:E179,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13760.153333333334</v>
       </c>
       <c r="H179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.5493040293039391</v>
       </c>
       <c r="I179">
-        <f>RSQ(E166:E179,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.79068132610976571</v>
       </c>
       <c r="J179">
-        <f>G179 + (F$2 * H179)</f>
+        <f t="shared" si="26"/>
         <v>13764.702637362638</v>
       </c>
     </row>
@@ -7144,27 +7144,27 @@
         <v>13867.6</v>
       </c>
       <c r="E180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13849.199999999999</v>
       </c>
       <c r="F180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>179</v>
       </c>
       <c r="G180">
-        <f>INTERCEPT(E167:E180,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13766.22</v>
       </c>
       <c r="H180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.7643223443223075</v>
       </c>
       <c r="I180">
-        <f>RSQ(E167:E180,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.77246045799543039</v>
       </c>
       <c r="J180">
-        <f>G180 + (F$2 * H180)</f>
+        <f t="shared" si="26"/>
         <v>13770.984322344322</v>
       </c>
     </row>
@@ -7182,27 +7182,27 @@
         <v>13839.9</v>
       </c>
       <c r="E181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13848.966666666667</v>
       </c>
       <c r="F181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>180</v>
       </c>
       <c r="G181">
-        <f>INTERCEPT(E168:E181,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13770.85142857143</v>
       </c>
       <c r="H181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>5.0265201465201921</v>
       </c>
       <c r="I181">
-        <f>RSQ(E168:E181,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.77248182163733914</v>
       </c>
       <c r="J181">
-        <f>G181 + (F$2 * H181)</f>
+        <f t="shared" si="26"/>
         <v>13775.877948717951</v>
       </c>
     </row>
@@ -7220,27 +7220,27 @@
         <v>13829.9</v>
       </c>
       <c r="E182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13833.233333333332</v>
       </c>
       <c r="F182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>181</v>
       </c>
       <c r="G182">
-        <f>INTERCEPT(E169:E182,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13774.510476190475</v>
       </c>
       <c r="H182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>5.0613919413919835</v>
       </c>
       <c r="I182">
-        <f>RSQ(E169:E182,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.77680095168160324</v>
       </c>
       <c r="J182">
-        <f>G182 + (F$2 * H182)</f>
+        <f t="shared" si="26"/>
         <v>13779.571868131867</v>
       </c>
     </row>
@@ -7258,27 +7258,27 @@
         <v>13816.8</v>
       </c>
       <c r="E183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13820.1</v>
       </c>
       <c r="F183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>182</v>
       </c>
       <c r="G183">
-        <f>INTERCEPT(E170:E183,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13779.405714285715</v>
       </c>
       <c r="H183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>4.6917948717949196</v>
       </c>
       <c r="I183">
-        <f>RSQ(E170:E183,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.70699904849510364</v>
       </c>
       <c r="J183">
-        <f>G183 + (F$2 * H183)</f>
+        <f t="shared" si="26"/>
         <v>13784.097509157509</v>
       </c>
     </row>
@@ -7296,27 +7296,27 @@
         <v>13793.4</v>
       </c>
       <c r="E184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13801.199999999999</v>
       </c>
       <c r="F184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>183</v>
       </c>
       <c r="G184">
-        <f>INTERCEPT(E171:E184,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13785.591428571432</v>
       </c>
       <c r="H184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>3.8441758241758128</v>
       </c>
       <c r="I184">
-        <f>RSQ(E171:E184,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.49276309504471016</v>
       </c>
       <c r="J184">
-        <f>G184 + (F$2 * H184)</f>
+        <f t="shared" si="26"/>
         <v>13789.435604395607</v>
       </c>
     </row>
@@ -7334,27 +7334,27 @@
         <v>13756</v>
       </c>
       <c r="E185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13767.566666666666</v>
       </c>
       <c r="F185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>184</v>
       </c>
       <c r="G185">
-        <f>INTERCEPT(E172:E185,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13795.605714285715</v>
       </c>
       <c r="H185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>2.0269597069596386</v>
       </c>
       <c r="I185">
-        <f>RSQ(E172:E185,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.11249329126848788</v>
       </c>
       <c r="J185">
-        <f>G185 + (F$2 * H185)</f>
+        <f t="shared" si="26"/>
         <v>13797.632673992675</v>
       </c>
     </row>
@@ -7372,27 +7372,27 @@
         <v>13710.3</v>
       </c>
       <c r="E186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13725.533333333333</v>
       </c>
       <c r="F186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>185</v>
       </c>
       <c r="G186">
-        <f>INTERCEPT(E173:E186,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13815.580952380951</v>
       </c>
       <c r="H186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-1.5586080586081412</v>
       </c>
       <c r="I186">
-        <f>RSQ(E173:E186,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>4.0213214562558428E-2</v>
       </c>
       <c r="J186">
-        <f>G186 + (F$2 * H186)</f>
+        <f t="shared" si="26"/>
         <v>13814.022344322342</v>
       </c>
     </row>
@@ -7410,27 +7410,27 @@
         <v>13689.9</v>
       </c>
       <c r="E187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13693.533333333333</v>
       </c>
       <c r="F187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>186</v>
       </c>
       <c r="G187">
-        <f>INTERCEPT(E174:E187,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13834.82380952381</v>
       </c>
       <c r="H187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-5.5007326007326744</v>
       </c>
       <c r="I187">
-        <f>RSQ(E174:E187,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.27328821960865762</v>
       </c>
       <c r="J187">
-        <f>G187 + (F$2 * H187)</f>
+        <f t="shared" si="26"/>
         <v>13829.323076923078</v>
       </c>
     </row>
@@ -7448,27 +7448,27 @@
         <v>13733.8</v>
       </c>
       <c r="E188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13719.166666666666</v>
       </c>
       <c r="F188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>187</v>
       </c>
       <c r="G188">
-        <f>INTERCEPT(E175:E188,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13846.289523809523</v>
       </c>
       <c r="H188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-8.0529670329671141</v>
       </c>
       <c r="I188">
-        <f>RSQ(E175:E188,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.47379954332243945</v>
       </c>
       <c r="J188">
-        <f>G188 + (F$2 * H188)</f>
+        <f t="shared" si="26"/>
         <v>13838.236556776556</v>
       </c>
     </row>
@@ -7486,27 +7486,27 @@
         <v>13727.1</v>
       </c>
       <c r="E189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13731.9</v>
       </c>
       <c r="F189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>188</v>
       </c>
       <c r="G189">
-        <f>INTERCEPT(E176:E189,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13851.974285714285</v>
       </c>
       <c r="H189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-9.6634432234432879</v>
       </c>
       <c r="I189">
-        <f>RSQ(E176:E189,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.61322770875266264</v>
       </c>
       <c r="J189">
-        <f>G189 + (F$2 * H189)</f>
+        <f t="shared" si="26"/>
         <v>13842.310842490841</v>
       </c>
     </row>
@@ -7524,27 +7524,27 @@
         <v>13683.5</v>
       </c>
       <c r="E190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13695.133333333333</v>
       </c>
       <c r="F190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>189</v>
       </c>
       <c r="G190">
-        <f>INTERCEPT(E177:E190,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13855.804761904759</v>
       </c>
       <c r="H190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-11.552014652014691</v>
       </c>
       <c r="I190">
-        <f>RSQ(E177:E190,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.72456332974298054</v>
       </c>
       <c r="J190">
-        <f>G190 + (F$2 * H190)</f>
+        <f t="shared" si="26"/>
         <v>13844.252747252745</v>
       </c>
     </row>
@@ -7562,27 +7562,27 @@
         <v>13721.6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13707.833333333334</v>
       </c>
       <c r="F191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>190</v>
       </c>
       <c r="G191">
-        <f>INTERCEPT(E178:E191,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13854.54857142857</v>
       </c>
       <c r="H191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-12.528351648351592</v>
       </c>
       <c r="I191">
-        <f>RSQ(E178:E191,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.78864836194583365</v>
       </c>
       <c r="J191">
-        <f>G191 + (F$2 * H191)</f>
+        <f t="shared" si="26"/>
         <v>13842.020219780217</v>
       </c>
     </row>
@@ -7600,27 +7600,27 @@
         <v>13720.8</v>
       </c>
       <c r="E192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13734.533333333335</v>
       </c>
       <c r="F192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>191</v>
       </c>
       <c r="G192">
-        <f>INTERCEPT(E179:E192,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13846.13333333333</v>
       </c>
       <c r="H192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-12.150915750915626</v>
       </c>
       <c r="I192">
-        <f>RSQ(E179:E192,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.75900894659672624</v>
       </c>
       <c r="J192">
-        <f>G192 + (F$2 * H192)</f>
+        <f t="shared" si="26"/>
         <v>13833.982417582414</v>
       </c>
     </row>
@@ -7638,27 +7638,27 @@
         <v>13729.6</v>
       </c>
       <c r="E193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13723.800000000001</v>
       </c>
       <c r="F193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>192</v>
       </c>
       <c r="G193">
-        <f>INTERCEPT(E180:E193,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13838.207619047616</v>
       </c>
       <c r="H193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-11.903369963369835</v>
       </c>
       <c r="I193">
-        <f>RSQ(E180:E193,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.74029971763120628</v>
       </c>
       <c r="J193">
-        <f>G193 + (F$2 * H193)</f>
+        <f t="shared" si="26"/>
         <v>13826.304249084247</v>
       </c>
     </row>
@@ -7676,27 +7676,27 @@
         <v>13729.5</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E200" si="9">(B194+C194+D194)/3</f>
+        <f t="shared" ref="E194:E200" si="27">(B194+C194+D194)/3</f>
         <v>13722.266666666668</v>
       </c>
       <c r="F194">
-        <f t="shared" ref="F194:F200" si="10">ROW()-1</f>
+        <f t="shared" ref="F194:F200" si="28">ROW()-1</f>
         <v>193</v>
       </c>
       <c r="G194">
-        <f>INTERCEPT(E181:E194,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13817.368571428568</v>
       </c>
       <c r="H194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-10.092234432234282</v>
       </c>
       <c r="I194">
-        <f>RSQ(E181:E194,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.64238877969317132</v>
       </c>
       <c r="J194">
-        <f>G194 + (F$2 * H194)</f>
+        <f t="shared" si="26"/>
         <v>13807.276336996334</v>
       </c>
     </row>
@@ -7714,27 +7714,27 @@
         <v>13731.3</v>
       </c>
       <c r="E195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>13739.299999999997</v>
       </c>
       <c r="F195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G195">
-        <f>INTERCEPT(E182:E195,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13791.022857142852</v>
       </c>
       <c r="H195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-7.2441758241757288</v>
       </c>
       <c r="I195">
-        <f>RSQ(E182:E195,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.4605997720437901</v>
       </c>
       <c r="J195">
-        <f>G195 + (F$2 * H195)</f>
+        <f t="shared" si="26"/>
         <v>13783.778681318676</v>
       </c>
     </row>
@@ -7752,27 +7752,27 @@
         <v>13770.4</v>
       </c>
       <c r="E196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>13757.066666666666</v>
       </c>
       <c r="F196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>195</v>
       </c>
       <c r="G196">
-        <f>INTERCEPT(E183:E196,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13764.008571428567</v>
       </c>
       <c r="H196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-3.9251282051281753</v>
       </c>
       <c r="I196">
-        <f>RSQ(E183:E196,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.19797820112480313</v>
       </c>
       <c r="J196">
-        <f>G196 + (F$2 * H196)</f>
+        <f t="shared" si="26"/>
         <v>13760.083443223439</v>
       </c>
     </row>
@@ -7790,27 +7790,27 @@
         <v>13770.5</v>
       </c>
       <c r="E197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>13770.466666666667</v>
       </c>
       <c r="F197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>196</v>
       </c>
       <c r="G197">
-        <f>INTERCEPT(E184:E197,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13737.039047619046</v>
       </c>
       <c r="H197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>-0.32139194139187394</v>
       </c>
       <c r="I197">
-        <f>RSQ(E184:E197,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>1.9762284516492007E-3</v>
       </c>
       <c r="J197">
-        <f>G197 + (F$2 * H197)</f>
+        <f t="shared" si="26"/>
         <v>13736.717655677654</v>
       </c>
     </row>
@@ -7828,27 +7828,27 @@
         <v>13727.9</v>
       </c>
       <c r="E198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>13752.066666666666</v>
       </c>
       <c r="F198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>197</v>
       </c>
       <c r="G198">
-        <f>INTERCEPT(E185:E198,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13716.154285714283</v>
       </c>
       <c r="H198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>2.3517216117216266</v>
       </c>
       <c r="I198">
-        <f>RSQ(E185:E198,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.16506813176703677</v>
       </c>
       <c r="J198">
-        <f>G198 + (F$2 * H198)</f>
+        <f t="shared" si="26"/>
         <v>13718.506007326005</v>
       </c>
     </row>
@@ -7866,27 +7866,27 @@
         <v>13705.1</v>
       </c>
       <c r="E199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>13712.699999999999</v>
       </c>
       <c r="F199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>198</v>
       </c>
       <c r="G199">
-        <f>INTERCEPT(E186:E199,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13707.974285714286</v>
       </c>
       <c r="H199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>3.0072527472527097</v>
       </c>
       <c r="I199">
-        <f>RSQ(E186:E199,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.3188081723092045</v>
       </c>
       <c r="J199">
-        <f>G199 + (F$2 * H199)</f>
+        <f t="shared" si="26"/>
         <v>13710.981538461539</v>
       </c>
     </row>
@@ -7904,27 +7904,27 @@
         <v>13770.5</v>
       </c>
       <c r="E200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>13748.699999999999</v>
       </c>
       <c r="F200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>199</v>
       </c>
       <c r="G200">
-        <f>INTERCEPT(E187:E200,F$1:F$14)</f>
+        <f t="shared" si="24"/>
         <v>13706.121904761907</v>
       </c>
       <c r="H200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>3.5468131868131132</v>
       </c>
       <c r="I200">
-        <f>RSQ(E187:E200,F$1:F$14)</f>
+        <f t="shared" si="25"/>
         <v>0.41720875134773433</v>
       </c>
       <c r="J200">
-        <f>G200 + (F$2 * H200)</f>
+        <f t="shared" si="26"/>
         <v>13709.66871794872</v>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <f>G$200 + (F201 * H$200)</f>
+        <f t="shared" ref="J201:J213" si="29">G$200 + (F201 * H$200)</f>
         <v>13713.215531135533</v>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <f t="shared" ref="F202:F213" si="11">ROW()-199</f>
+        <f t="shared" ref="F202:F213" si="30">ROW()-199</f>
         <v>3</v>
       </c>
       <c r="G202">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <f>G$200 + (F202 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13716.762344322346</v>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="G203">
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <f>G$200 + (F203 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13720.30915750916</v>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="G204">
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <f>G$200 + (F204 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13723.855970695973</v>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="G205">
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <f>G$200 + (F205 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13727.402783882786</v>
       </c>
     </row>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="G206">
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <f>G$200 + (F206 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13730.949597069599</v>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="G207">
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <f>G$200 + (F207 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13734.496410256412</v>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="G208">
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <f>G$200 + (F208 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13738.043223443225</v>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="G209">
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <f>G$200 + (F209 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13741.590036630038</v>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="G210">
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <f>G$200 + (F210 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13745.13684981685</v>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="G211">
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <f>G$200 + (F211 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13748.683663003665</v>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="G212">
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <f>G$200 + (F212 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13752.230476190478</v>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="G213">
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <f>G$200 + (F213 * H$200)</f>
+        <f t="shared" si="29"/>
         <v>13755.777289377291</v>
       </c>
     </row>

--- a/resources/btc-linear_regression.xlsx
+++ b/resources/btc-linear_regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7569345-7482-4C5A-8A67-9342FEDBCF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE3ACE-7D86-4726-8023-B3BEDEB2CBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="1980" windowWidth="19245" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,7 +6924,7 @@
         <v>173</v>
       </c>
       <c r="G174">
-        <f t="shared" ref="G174:G205" si="24">INTERCEPT(E161:E174,F$1:F$14)</f>
+        <f t="shared" ref="G174:G200" si="24">INTERCEPT(E161:E174,F$1:F$14)</f>
         <v>13761.515238095237</v>
       </c>
       <c r="H174">
@@ -6932,7 +6932,7 @@
         <v>1.8668864468863771</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I205" si="25">RSQ(E161:E174,F$1:F$14)</f>
+        <f t="shared" ref="I174:I200" si="25">RSQ(E161:E174,F$1:F$14)</f>
         <v>0.21311442658576382</v>
       </c>
       <c r="J174">
@@ -7926,448 +7926,6 @@
       <c r="J200">
         <f t="shared" si="26"/>
         <v>13709.66871794872</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>0</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <f>ROW()-199</f>
-        <v>2</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <f t="shared" ref="J201:J213" si="29">G$200 + (F201 * H$200)</f>
-        <v>13713.215531135533</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <f t="shared" ref="F202:F213" si="30">ROW()-199</f>
-        <v>3</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202">
-        <f t="shared" si="29"/>
-        <v>13716.762344322346</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>0</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203">
-        <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <v>0</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-      <c r="J203">
-        <f t="shared" si="29"/>
-        <v>13720.30915750916</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>0</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204">
-        <f t="shared" si="29"/>
-        <v>13723.855970695973</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>0</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <f t="shared" si="30"/>
-        <v>6</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <f t="shared" si="29"/>
-        <v>13727.402783882786</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>0</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <f t="shared" si="30"/>
-        <v>7</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="29"/>
-        <v>13730.949597069599</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>0</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <f t="shared" si="30"/>
-        <v>8</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="29"/>
-        <v>13734.496410256412</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>0</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="J208">
-        <f t="shared" si="29"/>
-        <v>13738.043223443225</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>0</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <f t="shared" si="30"/>
-        <v>10</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="29"/>
-        <v>13741.590036630038</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>0</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <f t="shared" si="30"/>
-        <v>11</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="29"/>
-        <v>13745.13684981685</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>0</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <f t="shared" si="30"/>
-        <v>12</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>0</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211">
-        <f t="shared" si="29"/>
-        <v>13748.683663003665</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>0</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <f t="shared" si="30"/>
-        <v>13</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <v>0</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212">
-        <f t="shared" si="29"/>
-        <v>13752.230476190478</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>0</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213">
-        <v>0</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <f t="shared" si="30"/>
-        <v>14</v>
-      </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>0</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213">
-        <f t="shared" si="29"/>
-        <v>13755.777289377291</v>
       </c>
     </row>
   </sheetData>
